--- a/JupyterNotebooks/AvgHW/SA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.006760254237109</v>
+        <v>0.9904634608762526</v>
       </c>
       <c r="D3">
-        <v>0.9904634608762526</v>
+        <v>0.9982766087311101</v>
       </c>
       <c r="E3">
         <v>1.001349248569893</v>
       </c>
       <c r="F3">
+        <v>0.9904634608762526</v>
+      </c>
+      <c r="G3">
         <v>1.006760254237109</v>
       </c>
-      <c r="G3">
-        <v>0.9983436741537174</v>
-      </c>
       <c r="H3">
-        <v>1.002913590463573</v>
+        <v>1.006760254237109</v>
       </c>
       <c r="I3">
         <v>1.006760254237109</v>
       </c>
       <c r="J3">
-        <v>0.9904634608762526</v>
+        <v>0.9983436741537174</v>
       </c>
       <c r="K3">
-        <v>0.9982766087311101</v>
+        <v>1.002913590463573</v>
       </c>
       <c r="L3">
         <v>1.002545027701309</v>
@@ -764,7 +716,7 @@
         <v>0.9993581357615369</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.01289675175458</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="D4">
-        <v>0.9815948547224941</v>
+        <v>0.9966804591690743</v>
       </c>
       <c r="E4">
         <v>1.002740275294674</v>
       </c>
       <c r="F4">
+        <v>0.9815948547224941</v>
+      </c>
+      <c r="G4">
         <v>1.01289675175458</v>
       </c>
-      <c r="G4">
-        <v>0.9967804671190671</v>
-      </c>
       <c r="H4">
-        <v>1.005689283552385</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="I4">
         <v>1.01289675175458</v>
       </c>
       <c r="J4">
-        <v>0.9815948547224941</v>
+        <v>0.9967804671190671</v>
       </c>
       <c r="K4">
-        <v>0.9966804591690743</v>
+        <v>1.005689283552385</v>
       </c>
       <c r="L4">
         <v>1.004884269917298</v>
@@ -835,7 +787,7 @@
         <v>0.9987583191808642</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024855632026118</v>
+        <v>0.964717932789527</v>
       </c>
       <c r="D5">
-        <v>0.964717932789527</v>
+        <v>0.993612253501723</v>
       </c>
       <c r="E5">
         <v>1.005048112702512</v>
       </c>
       <c r="F5">
+        <v>0.964717932789527</v>
+      </c>
+      <c r="G5">
         <v>1.024855632026118</v>
       </c>
-      <c r="G5">
-        <v>0.9938826014608761</v>
-      </c>
       <c r="H5">
-        <v>1.010827143559891</v>
+        <v>1.024855632026118</v>
       </c>
       <c r="I5">
         <v>1.024855632026118</v>
       </c>
       <c r="J5">
-        <v>0.964717932789527</v>
+        <v>0.9938826014608761</v>
       </c>
       <c r="K5">
-        <v>0.993612253501723</v>
+        <v>1.010827143559891</v>
       </c>
       <c r="L5">
         <v>1.009429326950663</v>
@@ -906,7 +858,7 @@
         <v>0.9976181237475057</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.036936429404695</v>
+        <v>0.9479230915964278</v>
       </c>
       <c r="D6">
-        <v>0.9479230915964278</v>
+        <v>0.9909851042554094</v>
       </c>
       <c r="E6">
         <v>1.0072853363497</v>
       </c>
       <c r="F6">
+        <v>0.9479230915964278</v>
+      </c>
+      <c r="G6">
         <v>1.036936429404695</v>
       </c>
-      <c r="G6">
-        <v>0.9908328034146636</v>
-      </c>
       <c r="H6">
-        <v>1.015770709179752</v>
+        <v>1.036936429404695</v>
       </c>
       <c r="I6">
         <v>1.036936429404695</v>
       </c>
       <c r="J6">
-        <v>0.9479230915964278</v>
+        <v>0.9908328034146636</v>
       </c>
       <c r="K6">
-        <v>0.9909851042554093</v>
+        <v>1.015770709179752</v>
       </c>
       <c r="L6">
         <v>1.013527139712159</v>
@@ -977,7 +929,7 @@
         <v>0.9964787966784683</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,31 +937,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000456170585488</v>
+        <v>0.9992141358947049</v>
       </c>
       <c r="D7">
-        <v>0.9992141358947048</v>
+        <v>0.9998439916646101</v>
       </c>
       <c r="E7">
         <v>1.000153460957459</v>
       </c>
       <c r="F7">
+        <v>0.9992141358947049</v>
+      </c>
+      <c r="G7">
         <v>1.000456170585488</v>
       </c>
-      <c r="G7">
-        <v>0.9998750994172551</v>
-      </c>
       <c r="H7">
-        <v>1.000270528968378</v>
+        <v>1.000456170585488</v>
       </c>
       <c r="I7">
         <v>1.000456170585488</v>
       </c>
       <c r="J7">
-        <v>0.9992141358947048</v>
+        <v>0.9998750994172551</v>
       </c>
       <c r="K7">
-        <v>0.9998439916646099</v>
+        <v>1.000270528968378</v>
       </c>
       <c r="L7">
         <v>1.000225092469105</v>
@@ -1036,19 +988,19 @@
         <v>0.9997475654231397</v>
       </c>
       <c r="T7">
-        <v>0.9999412558125509</v>
+        <v>0.9999412558125508</v>
       </c>
       <c r="U7">
-        <v>0.999924716713727</v>
+        <v>0.9999247167137268</v>
       </c>
       <c r="V7">
         <v>1.000031007488079</v>
       </c>
       <c r="W7">
-        <v>0.9999434958667414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999434958667412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,43 +1008,43 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9977702537003741</v>
+      </c>
+      <c r="D8">
+        <v>0.9995329694062632</v>
+      </c>
+      <c r="E8">
+        <v>1.000385811212524</v>
+      </c>
+      <c r="F8">
+        <v>0.9977702537003741</v>
+      </c>
+      <c r="G8">
         <v>1.001437308523929</v>
       </c>
-      <c r="D8">
-        <v>0.9977702537003744</v>
-      </c>
-      <c r="E8">
-        <v>1.000385811212523</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.001437308523929</v>
-      </c>
-      <c r="G8">
-        <v>0.9996266144637228</v>
-      </c>
-      <c r="H8">
-        <v>1.00075590928883</v>
       </c>
       <c r="I8">
         <v>1.001437308523929</v>
       </c>
       <c r="J8">
-        <v>0.9977702537003744</v>
+        <v>0.9996266144637228</v>
       </c>
       <c r="K8">
-        <v>0.9995329694062631</v>
+        <v>1.00075590928883</v>
       </c>
       <c r="L8">
-        <v>1.000647916121741</v>
+        <v>1.000647916121742</v>
       </c>
       <c r="M8">
-        <v>0.9986029297670632</v>
+        <v>0.998602929767063</v>
       </c>
       <c r="N8">
         <v>1.001437308523929</v>
       </c>
       <c r="O8">
-        <v>1.000385811212523</v>
+        <v>1.000385811212524</v>
       </c>
       <c r="P8">
         <v>0.999078032456449</v>
@@ -1107,19 +1059,19 @@
         <v>0.9992608931255402</v>
       </c>
       <c r="T8">
-        <v>0.9998644578122756</v>
+        <v>0.9998644578122757</v>
       </c>
       <c r="U8">
-        <v>0.9998049969751374</v>
+        <v>0.9998049969751375</v>
       </c>
       <c r="V8">
         <v>1.000131459284896</v>
       </c>
       <c r="W8">
-        <v>0.9998449640605558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.999844964060556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9967853225133163</v>
+      </c>
+      <c r="D9">
+        <v>0.9992377476110724</v>
+      </c>
+      <c r="E9">
+        <v>1.000457907568178</v>
+      </c>
+      <c r="F9">
+        <v>0.9967853225133163</v>
+      </c>
+      <c r="G9">
         <v>1.00226162571133</v>
       </c>
-      <c r="D9">
-        <v>0.9967853225133163</v>
-      </c>
-      <c r="E9">
-        <v>1.000457907568179</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.00226162571133</v>
-      </c>
-      <c r="G9">
-        <v>0.9994518707032566</v>
-      </c>
-      <c r="H9">
-        <v>1.001094811288857</v>
       </c>
       <c r="I9">
         <v>1.00226162571133</v>
       </c>
       <c r="J9">
-        <v>0.9967853225133163</v>
+        <v>0.9994518707032566</v>
       </c>
       <c r="K9">
-        <v>0.9992377476110724</v>
+        <v>1.001094811288857</v>
       </c>
       <c r="L9">
         <v>1.001009084879786</v>
@@ -1163,10 +1115,10 @@
         <v>1.00226162571133</v>
       </c>
       <c r="O9">
-        <v>1.000457907568179</v>
+        <v>1.000457907568178</v>
       </c>
       <c r="P9">
-        <v>0.9986216150407474</v>
+        <v>0.9986216150407473</v>
       </c>
       <c r="Q9">
         <v>0.9999548891357175</v>
@@ -1175,7 +1127,7 @@
         <v>0.9998349519309416</v>
       </c>
       <c r="S9">
-        <v>0.9988983669282505</v>
+        <v>0.9988983669282504</v>
       </c>
       <c r="T9">
         <v>0.9998349519309416</v>
@@ -1190,7 +1142,7 @@
         <v>0.9997812312775678</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004616126598254</v>
+        <v>0.9931697921091837</v>
       </c>
       <c r="D10">
-        <v>0.9931697921091837</v>
+        <v>0.9984406341894</v>
       </c>
       <c r="E10">
         <v>1.00103406129942</v>
       </c>
       <c r="F10">
+        <v>0.9931697921091837</v>
+      </c>
+      <c r="G10">
         <v>1.004616126598254</v>
       </c>
-      <c r="G10">
-        <v>0.9988627566975736</v>
-      </c>
       <c r="H10">
-        <v>1.002322546103112</v>
+        <v>1.004616126598254</v>
       </c>
       <c r="I10">
         <v>1.004616126598254</v>
       </c>
       <c r="J10">
-        <v>0.9931697921091837</v>
+        <v>0.9988627566975736</v>
       </c>
       <c r="K10">
-        <v>0.9984406341894</v>
+        <v>1.002322546103112</v>
       </c>
       <c r="L10">
         <v>1.002106340619868</v>
@@ -1258,10 +1210,10 @@
         <v>1.000459772660537</v>
       </c>
       <c r="W10">
-        <v>0.9995286066636205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9995286066636204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008736008761622</v>
+        <v>0.9884566478467883</v>
       </c>
       <c r="D11">
-        <v>0.9884566478467883</v>
+        <v>0.9970878464460966</v>
       </c>
       <c r="E11">
         <v>1.001255554815126</v>
       </c>
       <c r="F11">
+        <v>0.9884566478467883</v>
+      </c>
+      <c r="G11">
         <v>1.008736008761622</v>
       </c>
-      <c r="G11">
-        <v>0.9980282629589425</v>
-      </c>
       <c r="H11">
-        <v>1.003850105874169</v>
+        <v>1.008736008761622</v>
       </c>
       <c r="I11">
         <v>1.008736008761622</v>
       </c>
       <c r="J11">
-        <v>0.9884566478467883</v>
+        <v>0.9980282629589426</v>
       </c>
       <c r="K11">
-        <v>0.9970878464460966</v>
+        <v>1.003850105874169</v>
       </c>
       <c r="L11">
         <v>1.003786118213212</v>
       </c>
       <c r="M11">
-        <v>0.9926287407205564</v>
+        <v>0.9926287407205566</v>
       </c>
       <c r="N11">
         <v>1.008736008761622</v>
@@ -1317,22 +1269,22 @@
         <v>0.9994827371411787</v>
       </c>
       <c r="S11">
-        <v>0.9959134885402854</v>
+        <v>0.9959134885402855</v>
       </c>
       <c r="T11">
         <v>0.9994827371411787</v>
       </c>
       <c r="U11">
-        <v>0.9991191185956196</v>
+        <v>0.9991191185956197</v>
       </c>
       <c r="V11">
         <v>1.00104249662882</v>
       </c>
       <c r="W11">
-        <v>0.999228660704564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9992286607045641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,31 +1292,31 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.187895999628548</v>
+      </c>
+      <c r="D12">
+        <v>0.989822568258243</v>
+      </c>
+      <c r="E12">
+        <v>0.8904628111246038</v>
+      </c>
+      <c r="F12">
+        <v>1.187895999628548</v>
+      </c>
+      <c r="G12">
         <v>1.000696487827281</v>
       </c>
-      <c r="D12">
-        <v>1.187895999628547</v>
-      </c>
-      <c r="E12">
-        <v>0.8904628111246039</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.000696487827281</v>
-      </c>
-      <c r="G12">
-        <v>1.031602234943925</v>
-      </c>
-      <c r="H12">
-        <v>0.9286602896621625</v>
       </c>
       <c r="I12">
         <v>1.000696487827281</v>
       </c>
       <c r="J12">
-        <v>1.187895999628547</v>
+        <v>1.031602234943925</v>
       </c>
       <c r="K12">
-        <v>0.9898225682582429</v>
+        <v>0.9286602896621625</v>
       </c>
       <c r="L12">
         <v>0.9913094303869343</v>
@@ -1376,7 +1328,7 @@
         <v>1.000696487827281</v>
       </c>
       <c r="O12">
-        <v>0.8904628111246039</v>
+        <v>0.8904628111246038</v>
       </c>
       <c r="P12">
         <v>1.039179405376576</v>
@@ -1403,7 +1355,7 @@
         <v>1.015728697498793</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9437532556325959</v>
+        <v>1.001865010045255</v>
       </c>
       <c r="D13">
-        <v>1.001865010045255</v>
+        <v>1.026113629659578</v>
       </c>
       <c r="E13">
         <v>1.020952847632634</v>
       </c>
       <c r="F13">
+        <v>1.001865010045255</v>
+      </c>
+      <c r="G13">
         <v>0.9437532556325959</v>
       </c>
-      <c r="G13">
-        <v>1.007542000787464</v>
-      </c>
       <c r="H13">
-        <v>0.9936918599102522</v>
+        <v>0.9437532556325959</v>
       </c>
       <c r="I13">
         <v>0.9437532556325959</v>
       </c>
       <c r="J13">
-        <v>1.001865010045255</v>
+        <v>1.007542000787464</v>
       </c>
       <c r="K13">
-        <v>1.026113629659578</v>
+        <v>0.9936918599102522</v>
       </c>
       <c r="L13">
         <v>0.9811122009441192</v>
@@ -1462,19 +1414,19 @@
         <v>1.010119952821784</v>
       </c>
       <c r="T13">
-        <v>0.9888570377701615</v>
+        <v>0.9888570377701614</v>
       </c>
       <c r="U13">
-        <v>0.9935282785244872</v>
+        <v>0.993528278524487</v>
       </c>
       <c r="V13">
-        <v>0.9835732739461089</v>
+        <v>0.9835732739461088</v>
       </c>
       <c r="W13">
-        <v>0.9985727741235817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9985727741235815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7379786888945049</v>
+        <v>0.8445659783132421</v>
       </c>
       <c r="D14">
-        <v>0.8445659783132424</v>
+        <v>1.102998032050638</v>
       </c>
       <c r="E14">
         <v>1.235985338522868</v>
       </c>
       <c r="F14">
+        <v>0.8445659783132421</v>
+      </c>
+      <c r="G14">
         <v>0.7379786888945049</v>
       </c>
-      <c r="G14">
-        <v>0.9839821906681218</v>
-      </c>
       <c r="H14">
-        <v>1.073049922215758</v>
+        <v>0.7379786888945049</v>
       </c>
       <c r="I14">
         <v>0.7379786888945049</v>
       </c>
       <c r="J14">
-        <v>0.8445659783132424</v>
+        <v>0.9839821906681218</v>
       </c>
       <c r="K14">
-        <v>1.102998032050638</v>
+        <v>1.073049922215758</v>
       </c>
       <c r="L14">
-        <v>0.9254025488209473</v>
+        <v>0.9254025488209471</v>
       </c>
       <c r="M14">
-        <v>0.9399267206819535</v>
+        <v>0.9399267206819536</v>
       </c>
       <c r="N14">
         <v>0.7379786888945049</v>
@@ -1542,10 +1494,10 @@
         <v>0.9080981770586483</v>
       </c>
       <c r="W14">
-        <v>0.9804861775210043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9804861775210042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.072876860616356</v>
+      </c>
+      <c r="D15">
+        <v>0.9527956891369612</v>
+      </c>
+      <c r="E15">
+        <v>0.9056786444844415</v>
+      </c>
+      <c r="F15">
+        <v>1.072876860616356</v>
+      </c>
+      <c r="G15">
         <v>1.103631212172284</v>
       </c>
-      <c r="D15">
-        <v>1.072876860616356</v>
-      </c>
-      <c r="E15">
-        <v>0.9056786444844414</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.103631212172284</v>
-      </c>
-      <c r="G15">
-        <v>1.005100256857532</v>
-      </c>
-      <c r="H15">
-        <v>0.9735915800598406</v>
       </c>
       <c r="I15">
         <v>1.103631212172284</v>
       </c>
       <c r="J15">
-        <v>1.072876860616356</v>
+        <v>1.005100256857532</v>
       </c>
       <c r="K15">
-        <v>0.9527956891369612</v>
+        <v>0.9735915800598406</v>
       </c>
       <c r="L15">
         <v>1.031499836247014</v>
@@ -1589,10 +1541,10 @@
         <v>1.103631212172284</v>
       </c>
       <c r="O15">
-        <v>0.9056786444844414</v>
+        <v>0.9056786444844415</v>
       </c>
       <c r="P15">
-        <v>0.9892777525503985</v>
+        <v>0.9892777525503986</v>
       </c>
       <c r="Q15">
         <v>0.9553894506709866</v>
@@ -1616,7 +1568,7 @@
         <v>1.008743653893724</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000590452333717</v>
+        <v>0.8155736787445192</v>
       </c>
       <c r="D16">
-        <v>1.000458568105683</v>
+        <v>0.965554052408322</v>
       </c>
       <c r="E16">
-        <v>0.9995499684239532</v>
+        <v>1.028027034288707</v>
       </c>
       <c r="F16">
-        <v>1.000590452333717</v>
+        <v>0.8155736787445192</v>
       </c>
       <c r="G16">
-        <v>0.999965535459911</v>
+        <v>1.130390402951143</v>
       </c>
       <c r="H16">
-        <v>0.9999194102135112</v>
+        <v>1.130390402951143</v>
       </c>
       <c r="I16">
-        <v>1.000590452333717</v>
+        <v>1.130390402951143</v>
       </c>
       <c r="J16">
-        <v>1.000458568105683</v>
+        <v>0.9672198070871673</v>
       </c>
       <c r="K16">
-        <v>0.999703266915367</v>
+        <v>1.05790026187781</v>
       </c>
       <c r="L16">
-        <v>1.000143525425228</v>
+        <v>1.049497615751812</v>
       </c>
       <c r="M16">
-        <v>1.00011277158556</v>
+        <v>0.8869319692144869</v>
       </c>
       <c r="N16">
-        <v>1.000590452333717</v>
+        <v>1.130390402951143</v>
       </c>
       <c r="O16">
-        <v>0.9995499684239532</v>
+        <v>1.028027034288707</v>
       </c>
       <c r="P16">
-        <v>1.000004268264818</v>
+        <v>0.9218003565166131</v>
       </c>
       <c r="Q16">
-        <v>0.9997577519419321</v>
+        <v>0.9976234206879371</v>
       </c>
       <c r="R16">
-        <v>1.000199662954451</v>
+        <v>0.9913303719947898</v>
       </c>
       <c r="S16">
-        <v>0.9999913573298492</v>
+        <v>0.9369401733734645</v>
       </c>
       <c r="T16">
-        <v>1.000199662954451</v>
+        <v>0.9913303719947898</v>
       </c>
       <c r="U16">
-        <v>1.000141131080816</v>
+        <v>0.9853027307678842</v>
       </c>
       <c r="V16">
-        <v>1.000230995331396</v>
+        <v>1.014320265204536</v>
       </c>
       <c r="W16">
-        <v>1.000055437307867</v>
+        <v>0.987636852790496</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9995049718941544</v>
+        <v>0.848125227734983</v>
       </c>
       <c r="D17">
-        <v>0.9984064682870296</v>
+        <v>0.9721800177721873</v>
       </c>
       <c r="E17">
-        <v>1.000958453497701</v>
+        <v>1.026201983449984</v>
       </c>
       <c r="F17">
-        <v>0.9995049718941544</v>
+        <v>0.848125227734983</v>
       </c>
       <c r="G17">
-        <v>0.9998952112129226</v>
+        <v>1.102471083921478</v>
       </c>
       <c r="H17">
-        <v>1.000467920825296</v>
+        <v>1.102471083921478</v>
       </c>
       <c r="I17">
-        <v>0.9995049718941544</v>
+        <v>1.102471083921478</v>
       </c>
       <c r="J17">
-        <v>0.9984064682870296</v>
+        <v>0.9730071409360814</v>
       </c>
       <c r="K17">
-        <v>1.000293258016512</v>
+        <v>1.048917747339604</v>
       </c>
       <c r="L17">
-        <v>1.000016375249329</v>
+        <v>1.040074746516208</v>
       </c>
       <c r="M17">
-        <v>0.9992452912526423</v>
+        <v>0.9065835262546176</v>
       </c>
       <c r="N17">
-        <v>0.9995049718941544</v>
+        <v>1.102471083921478</v>
       </c>
       <c r="O17">
-        <v>1.000958453497701</v>
+        <v>1.026201983449984</v>
       </c>
       <c r="P17">
-        <v>0.9996824608923651</v>
+        <v>0.9371636055924837</v>
       </c>
       <c r="Q17">
-        <v>1.000426832355312</v>
+        <v>0.999604562193033</v>
       </c>
       <c r="R17">
-        <v>0.9996232978929616</v>
+        <v>0.9922660983688152</v>
       </c>
       <c r="S17">
-        <v>0.9997533776658843</v>
+        <v>0.9491114507070163</v>
       </c>
       <c r="T17">
-        <v>0.9996232978929616</v>
+        <v>0.9922660983688152</v>
       </c>
       <c r="U17">
-        <v>0.9996912762229518</v>
+        <v>0.9874513590106317</v>
       </c>
       <c r="V17">
-        <v>0.9996540153571924</v>
+        <v>1.010455303992801</v>
       </c>
       <c r="W17">
-        <v>0.9998484937794483</v>
+        <v>0.989695184240643</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003865288017256</v>
+        <v>0.9133345445503042</v>
       </c>
       <c r="D18">
-        <v>0.9986311918648588</v>
+        <v>0.9853295034745185</v>
       </c>
       <c r="E18">
-        <v>0.9989435090304506</v>
+        <v>1.022313727827583</v>
       </c>
       <c r="F18">
-        <v>1.003865288017256</v>
+        <v>0.9133345445503042</v>
       </c>
       <c r="G18">
-        <v>0.9993773905653319</v>
+        <v>1.046995800566191</v>
       </c>
       <c r="H18">
-        <v>1.000617363014647</v>
+        <v>1.046995800566191</v>
       </c>
       <c r="I18">
-        <v>1.003865288017256</v>
+        <v>1.046995800566191</v>
       </c>
       <c r="J18">
-        <v>0.9986311918648588</v>
+        <v>0.9845748034250474</v>
       </c>
       <c r="K18">
-        <v>0.9985728033047032</v>
+        <v>1.030880991277113</v>
       </c>
       <c r="L18">
-        <v>1.001182151263813</v>
+        <v>1.021300802201996</v>
       </c>
       <c r="M18">
-        <v>0.9986478525904373</v>
+        <v>0.9459209620839233</v>
       </c>
       <c r="N18">
-        <v>1.003865288017256</v>
+        <v>1.046995800566191</v>
       </c>
       <c r="O18">
-        <v>0.9989435090304506</v>
+        <v>1.022313727827583</v>
       </c>
       <c r="P18">
-        <v>0.9987873504476548</v>
+        <v>0.9678241361889437</v>
       </c>
       <c r="Q18">
-        <v>0.9991604497978912</v>
+        <v>1.003444265626315</v>
       </c>
       <c r="R18">
-        <v>1.000479996304188</v>
+        <v>0.9942146909813596</v>
       </c>
       <c r="S18">
-        <v>0.9989840304868806</v>
+        <v>0.9734076919343115</v>
       </c>
       <c r="T18">
-        <v>1.000479996304188</v>
+        <v>0.9942146909813596</v>
       </c>
       <c r="U18">
-        <v>1.000204344869474</v>
+        <v>0.9918047190922816</v>
       </c>
       <c r="V18">
-        <v>1.000936533499031</v>
+        <v>1.002842935387064</v>
       </c>
       <c r="W18">
-        <v>0.9999796937064371</v>
+        <v>0.9938313919258346</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9005973917592489</v>
+      </c>
+      <c r="D19">
+        <v>0.9859539897979677</v>
+      </c>
+      <c r="E19">
+        <v>1.026664382620146</v>
+      </c>
+      <c r="F19">
+        <v>0.9005973917592489</v>
+      </c>
+      <c r="G19">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="H19">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="I19">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="J19">
+        <v>0.9842850497401481</v>
+      </c>
+      <c r="K19">
+        <v>1.034173229211049</v>
+      </c>
+      <c r="L19">
+        <v>1.023214792004849</v>
+      </c>
+      <c r="M19">
+        <v>0.9399144720974941</v>
+      </c>
+      <c r="N19">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="O19">
+        <v>1.026664382620146</v>
+      </c>
+      <c r="P19">
+        <v>0.9636308871896975</v>
+      </c>
+      <c r="Q19">
+        <v>1.005474716180147</v>
+      </c>
+      <c r="R19">
+        <v>0.9912113233429917</v>
+      </c>
+      <c r="S19">
+        <v>0.9705156080398476</v>
+      </c>
+      <c r="T19">
+        <v>0.9912113233429917</v>
+      </c>
+      <c r="U19">
+        <v>0.9894797549422807</v>
+      </c>
+      <c r="V19">
+        <v>1.00085824308374</v>
+      </c>
+      <c r="W19">
+        <v>0.9926469378600604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000458568105684</v>
+      </c>
+      <c r="D20">
+        <v>0.999703266915367</v>
+      </c>
+      <c r="E20">
+        <v>0.9995499684239532</v>
+      </c>
+      <c r="F20">
+        <v>1.000458568105684</v>
+      </c>
+      <c r="G20">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="H20">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="I20">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="J20">
+        <v>0.999965535459911</v>
+      </c>
+      <c r="K20">
+        <v>0.9999194102135113</v>
+      </c>
+      <c r="L20">
+        <v>1.000143525425228</v>
+      </c>
+      <c r="M20">
+        <v>1.00011277158556</v>
+      </c>
+      <c r="N20">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="O20">
+        <v>0.9995499684239532</v>
+      </c>
+      <c r="P20">
+        <v>1.000004268264818</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997577519419321</v>
+      </c>
+      <c r="R20">
+        <v>1.000199662954451</v>
+      </c>
+      <c r="S20">
+        <v>0.9999913573298493</v>
+      </c>
+      <c r="T20">
+        <v>1.000199662954451</v>
+      </c>
+      <c r="U20">
+        <v>1.000141131080816</v>
+      </c>
+      <c r="V20">
+        <v>1.000230995331396</v>
+      </c>
+      <c r="W20">
+        <v>1.000055437307867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9984064682870296</v>
+      </c>
+      <c r="D21">
+        <v>1.000293258016512</v>
+      </c>
+      <c r="E21">
+        <v>1.000958453497701</v>
+      </c>
+      <c r="F21">
+        <v>0.9984064682870296</v>
+      </c>
+      <c r="G21">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="H21">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="I21">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="J21">
+        <v>0.9998952112129228</v>
+      </c>
+      <c r="K21">
+        <v>1.000467920825296</v>
+      </c>
+      <c r="L21">
+        <v>1.000016375249329</v>
+      </c>
+      <c r="M21">
+        <v>0.9992452912526422</v>
+      </c>
+      <c r="N21">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="O21">
+        <v>1.000958453497701</v>
+      </c>
+      <c r="P21">
+        <v>0.9996824608923651</v>
+      </c>
+      <c r="Q21">
+        <v>1.000426832355312</v>
+      </c>
+      <c r="R21">
+        <v>0.9996232978929616</v>
+      </c>
+      <c r="S21">
+        <v>0.9997533776658843</v>
+      </c>
+      <c r="T21">
+        <v>0.9996232978929616</v>
+      </c>
+      <c r="U21">
+        <v>0.9996912762229518</v>
+      </c>
+      <c r="V21">
+        <v>0.9996540153571922</v>
+      </c>
+      <c r="W21">
+        <v>0.9998484937794484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9986311918648588</v>
+      </c>
+      <c r="D22">
+        <v>0.9985728033047032</v>
+      </c>
+      <c r="E22">
+        <v>0.9989435090304505</v>
+      </c>
+      <c r="F22">
+        <v>0.9986311918648588</v>
+      </c>
+      <c r="G22">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="H22">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="I22">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="J22">
+        <v>0.9993773905653319</v>
+      </c>
+      <c r="K22">
+        <v>1.000617363014647</v>
+      </c>
+      <c r="L22">
+        <v>1.001182151263813</v>
+      </c>
+      <c r="M22">
+        <v>0.9986478525904373</v>
+      </c>
+      <c r="N22">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="O22">
+        <v>0.9989435090304505</v>
+      </c>
+      <c r="P22">
+        <v>0.9987873504476547</v>
+      </c>
+      <c r="Q22">
+        <v>0.9991604497978912</v>
+      </c>
+      <c r="R22">
+        <v>1.000479996304188</v>
+      </c>
+      <c r="S22">
+        <v>0.9989840304868803</v>
+      </c>
+      <c r="T22">
+        <v>1.000479996304188</v>
+      </c>
+      <c r="U22">
+        <v>1.000204344869474</v>
+      </c>
+      <c r="V22">
+        <v>1.000936533499031</v>
+      </c>
+      <c r="W22">
+        <v>0.9999796937064371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9994329317625291</v>
+      </c>
+      <c r="D23">
+        <v>0.995106539057374</v>
+      </c>
+      <c r="E23">
+        <v>0.9949868409544491</v>
+      </c>
+      <c r="F23">
+        <v>0.9994329317625291</v>
+      </c>
+      <c r="G23">
         <v>1.012650277965596</v>
       </c>
-      <c r="D19">
-        <v>0.9994329317625291</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.012650277965596</v>
+      </c>
+      <c r="I23">
+        <v>1.012650277965596</v>
+      </c>
+      <c r="J23">
+        <v>0.9983957125235369</v>
+      </c>
+      <c r="K23">
+        <v>1.00077557371865</v>
+      </c>
+      <c r="L23">
+        <v>1.003427300047778</v>
+      </c>
+      <c r="M23">
+        <v>0.9976651211920785</v>
+      </c>
+      <c r="N23">
+        <v>1.012650277965596</v>
+      </c>
+      <c r="O23">
         <v>0.9949868409544491</v>
       </c>
-      <c r="F19">
-        <v>1.012650277965596</v>
-      </c>
-      <c r="G19">
-        <v>0.9983957125235369</v>
-      </c>
-      <c r="H19">
-        <v>1.00077557371865</v>
-      </c>
-      <c r="I19">
-        <v>1.012650277965596</v>
-      </c>
-      <c r="J19">
-        <v>0.9994329317625291</v>
-      </c>
-      <c r="K19">
-        <v>0.9951065390573742</v>
-      </c>
-      <c r="L19">
-        <v>1.003427300047778</v>
-      </c>
-      <c r="M19">
-        <v>0.9976651211920785</v>
-      </c>
-      <c r="N19">
-        <v>1.012650277965596</v>
-      </c>
-      <c r="O19">
-        <v>0.9949868409544491</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9972098863584891</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.996691276738993</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.002356683560858</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9976051617468383</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.002356683560858</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.001366440801528</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.003623208234341</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000305037152749</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9904634608762526</v>
+        <v>0.894425828904899</v>
       </c>
       <c r="D3">
-        <v>0.9982766087311101</v>
+        <v>0.9825012848126797</v>
       </c>
       <c r="E3">
-        <v>1.001349248569893</v>
+        <v>1.027223397788185</v>
       </c>
       <c r="F3">
-        <v>0.9904634608762526</v>
+        <v>0.894425828904899</v>
       </c>
       <c r="G3">
-        <v>1.006760254237109</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="H3">
-        <v>1.006760254237109</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="I3">
-        <v>1.006760254237109</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="J3">
-        <v>0.9983436741537174</v>
+        <v>0.9814334685374655</v>
       </c>
       <c r="K3">
-        <v>1.002913590463573</v>
+        <v>1.037458518897693</v>
       </c>
       <c r="L3">
-        <v>1.002545027701309</v>
+        <v>1.025790648508648</v>
       </c>
       <c r="M3">
-        <v>0.9942132213593318</v>
+        <v>0.9343602374639782</v>
       </c>
       <c r="N3">
-        <v>1.006760254237109</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="O3">
-        <v>1.001349248569893</v>
+        <v>1.027223397788185</v>
       </c>
       <c r="P3">
-        <v>0.9959063547230729</v>
+        <v>0.9608246133465418</v>
       </c>
       <c r="Q3">
-        <v>0.9998464613618052</v>
+        <v>1.004328433162825</v>
       </c>
       <c r="R3">
-        <v>0.9995243212277515</v>
+        <v>0.9926609442411142</v>
       </c>
       <c r="S3">
-        <v>0.9967187945332877</v>
+        <v>0.9676942317435163</v>
       </c>
       <c r="T3">
-        <v>0.9995243212277515</v>
+        <v>0.9926609442411142</v>
       </c>
       <c r="U3">
-        <v>0.999229159459243</v>
+        <v>0.9898540753152021</v>
       </c>
       <c r="V3">
-        <v>1.000735378414816</v>
+        <v>1.003149981458213</v>
       </c>
       <c r="W3">
-        <v>0.9993581357615369</v>
+        <v>0.992440873867976</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9815948547224941</v>
+        <v>0.904992049054235</v>
       </c>
       <c r="D4">
-        <v>0.9966804591690743</v>
+        <v>0.9842624329071914</v>
       </c>
       <c r="E4">
-        <v>1.002740275294674</v>
+        <v>1.024795390491057</v>
       </c>
       <c r="F4">
-        <v>0.9815948547224941</v>
+        <v>0.904992049054235</v>
       </c>
       <c r="G4">
-        <v>1.01289675175458</v>
+        <v>1.050594087527033</v>
       </c>
       <c r="H4">
-        <v>1.01289675175458</v>
+        <v>1.050594087527033</v>
       </c>
       <c r="I4">
-        <v>1.01289675175458</v>
+        <v>1.050594087527033</v>
       </c>
       <c r="J4">
-        <v>0.9967804671190671</v>
+        <v>0.9831912901798334</v>
       </c>
       <c r="K4">
-        <v>1.005689283552385</v>
+        <v>1.033833137629518</v>
       </c>
       <c r="L4">
-        <v>1.004884269917298</v>
+        <v>1.02311372841781</v>
       </c>
       <c r="M4">
-        <v>0.9888001919173405</v>
+        <v>0.9408583383786794</v>
       </c>
       <c r="N4">
-        <v>1.01289675175458</v>
+        <v>1.050594087527033</v>
       </c>
       <c r="O4">
-        <v>1.002740275294674</v>
+        <v>1.024795390491057</v>
       </c>
       <c r="P4">
-        <v>0.9921675650085842</v>
+        <v>0.9648937197726462</v>
       </c>
       <c r="Q4">
-        <v>0.9997603712068708</v>
+        <v>1.003993340335446</v>
       </c>
       <c r="R4">
-        <v>0.9990772939239161</v>
+        <v>0.9934605090241083</v>
       </c>
       <c r="S4">
-        <v>0.9937051990454119</v>
+        <v>0.9709929099083752</v>
       </c>
       <c r="T4">
-        <v>0.9990772939239161</v>
+        <v>0.9934605090241083</v>
       </c>
       <c r="U4">
-        <v>0.9985030872227039</v>
+        <v>0.9908932043130396</v>
       </c>
       <c r="V4">
-        <v>1.001381820129079</v>
+        <v>1.002833380955838</v>
       </c>
       <c r="W4">
-        <v>0.9987583191808642</v>
+        <v>0.9932050568231696</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.964717932789527</v>
+        <v>0.8742185835579509</v>
       </c>
       <c r="D5">
-        <v>0.993612253501723</v>
+        <v>0.9790500969811321</v>
       </c>
       <c r="E5">
-        <v>1.005048112702512</v>
+        <v>1.031745811644203</v>
       </c>
       <c r="F5">
-        <v>0.964717932789527</v>
+        <v>0.8742185835579509</v>
       </c>
       <c r="G5">
-        <v>1.024855632026118</v>
+        <v>1.067475123396229</v>
       </c>
       <c r="H5">
-        <v>1.024855632026118</v>
+        <v>1.067475123396229</v>
       </c>
       <c r="I5">
-        <v>1.024855632026118</v>
+        <v>1.067475123396229</v>
       </c>
       <c r="J5">
-        <v>0.9938826014608761</v>
+        <v>0.9780828611051221</v>
       </c>
       <c r="K5">
-        <v>1.010827143559891</v>
+        <v>1.044381247008089</v>
       </c>
       <c r="L5">
-        <v>1.009429326950663</v>
+        <v>1.03099257878706</v>
       </c>
       <c r="M5">
-        <v>0.978571986988736</v>
+        <v>0.9219141950943406</v>
       </c>
       <c r="N5">
-        <v>1.024855632026118</v>
+        <v>1.067475123396229</v>
       </c>
       <c r="O5">
-        <v>1.005048112702512</v>
+        <v>1.031745811644203</v>
       </c>
       <c r="P5">
-        <v>0.9848830227460194</v>
+        <v>0.9529821976010771</v>
       </c>
       <c r="Q5">
-        <v>0.9994653570816939</v>
+        <v>1.004914336374663</v>
       </c>
       <c r="R5">
-        <v>0.9982072258393856</v>
+        <v>0.991146506199461</v>
       </c>
       <c r="S5">
-        <v>0.9878828823176383</v>
+        <v>0.9613490854357587</v>
       </c>
       <c r="T5">
-        <v>0.9982072258393856</v>
+        <v>0.991146506199461</v>
       </c>
       <c r="U5">
-        <v>0.9971260697447581</v>
+        <v>0.9878805949258762</v>
       </c>
       <c r="V5">
-        <v>1.00267198220103</v>
+        <v>1.003799500619947</v>
       </c>
       <c r="W5">
-        <v>0.9976181237475057</v>
+        <v>0.9909825621967658</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9479230915964278</v>
+        <v>0.8551836490909094</v>
       </c>
       <c r="D6">
-        <v>0.9909851042554094</v>
+        <v>0.9757009901704551</v>
       </c>
       <c r="E6">
-        <v>1.0072853363497</v>
+        <v>1.035862978125</v>
       </c>
       <c r="F6">
-        <v>0.9479230915964278</v>
+        <v>0.8551836490909094</v>
       </c>
       <c r="G6">
-        <v>1.036936429404695</v>
+        <v>1.078165158863636</v>
       </c>
       <c r="H6">
-        <v>1.036936429404695</v>
+        <v>1.078165158863636</v>
       </c>
       <c r="I6">
-        <v>1.036936429404695</v>
+        <v>1.078165158863636</v>
       </c>
       <c r="J6">
-        <v>0.9908328034146636</v>
+        <v>0.9749397698863628</v>
       </c>
       <c r="K6">
-        <v>1.015770709179752</v>
+        <v>1.05088985909091</v>
       </c>
       <c r="L6">
-        <v>1.013527139712159</v>
+        <v>1.035990136250001</v>
       </c>
       <c r="M6">
-        <v>0.9685697595149396</v>
+        <v>0.9101679728409081</v>
       </c>
       <c r="N6">
-        <v>1.036936429404695</v>
+        <v>1.078165158863636</v>
       </c>
       <c r="O6">
-        <v>1.0072853363497</v>
+        <v>1.035862978125</v>
       </c>
       <c r="P6">
-        <v>0.977604213973064</v>
+        <v>0.9455233136079546</v>
       </c>
       <c r="Q6">
-        <v>0.9990590698821818</v>
+        <v>1.005401374005681</v>
       </c>
       <c r="R6">
-        <v>0.997381619116941</v>
+        <v>0.9897372620265151</v>
       </c>
       <c r="S6">
-        <v>0.9820137437869305</v>
+        <v>0.9553287990340906</v>
       </c>
       <c r="T6">
-        <v>0.997381619116941</v>
+        <v>0.989737262026515</v>
       </c>
       <c r="U6">
-        <v>0.9957444151913717</v>
+        <v>0.9860378889914769</v>
       </c>
       <c r="V6">
-        <v>1.003982818034036</v>
+        <v>1.004463342965909</v>
       </c>
       <c r="W6">
-        <v>0.9964787966784683</v>
+        <v>0.9896125642897727</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992141358947049</v>
+        <v>0.6743656567746547</v>
       </c>
       <c r="D7">
-        <v>0.9998439916646101</v>
+        <v>0.9496704602171414</v>
       </c>
       <c r="E7">
-        <v>1.000153460957459</v>
+        <v>1.108240106092927</v>
       </c>
       <c r="F7">
-        <v>0.9992141358947049</v>
+        <v>0.6743656567746547</v>
       </c>
       <c r="G7">
-        <v>1.000456170585488</v>
+        <v>1.192767236273852</v>
       </c>
       <c r="H7">
-        <v>1.000456170585488</v>
+        <v>1.192767236273852</v>
       </c>
       <c r="I7">
-        <v>1.000456170585488</v>
+        <v>1.192767236273852</v>
       </c>
       <c r="J7">
-        <v>0.9998750994172551</v>
+        <v>0.922394367232682</v>
       </c>
       <c r="K7">
-        <v>1.000270528968378</v>
+        <v>1.126561238313991</v>
       </c>
       <c r="L7">
-        <v>1.000225092469105</v>
+        <v>1.063240501719845</v>
       </c>
       <c r="M7">
-        <v>0.9995094869769307</v>
+        <v>0.7886285408603391</v>
       </c>
       <c r="N7">
-        <v>1.000456170585488</v>
+        <v>1.192767236273852</v>
       </c>
       <c r="O7">
-        <v>1.000153460957459</v>
+        <v>1.108240106092927</v>
       </c>
       <c r="P7">
-        <v>0.999683798426082</v>
+        <v>0.8913028814337909</v>
       </c>
       <c r="Q7">
-        <v>1.000014280187357</v>
+        <v>1.015317236662804</v>
       </c>
       <c r="R7">
-        <v>0.9999412558125508</v>
+        <v>0.9917909997138112</v>
       </c>
       <c r="S7">
-        <v>0.9997475654231397</v>
+        <v>0.9016667100334214</v>
       </c>
       <c r="T7">
-        <v>0.9999412558125508</v>
+        <v>0.9917909997138112</v>
       </c>
       <c r="U7">
-        <v>0.9999247167137268</v>
+        <v>0.974441841593529</v>
       </c>
       <c r="V7">
-        <v>1.000031007488079</v>
+        <v>1.018106920529594</v>
       </c>
       <c r="W7">
-        <v>0.9999434958667412</v>
+        <v>0.9782335134356791</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9977702537003741</v>
+        <v>0.6723145076512332</v>
       </c>
       <c r="D8">
-        <v>0.9995329694062632</v>
+        <v>0.9490549473187831</v>
       </c>
       <c r="E8">
-        <v>1.000385811212524</v>
+        <v>1.108210702930321</v>
       </c>
       <c r="F8">
-        <v>0.9977702537003741</v>
+        <v>0.6723145076512332</v>
       </c>
       <c r="G8">
-        <v>1.001437308523929</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="H8">
-        <v>1.001437308523929</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="I8">
-        <v>1.001437308523929</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="J8">
-        <v>0.9996266144637228</v>
+        <v>0.9221919496667602</v>
       </c>
       <c r="K8">
-        <v>1.00075590928883</v>
+        <v>1.127174862913936</v>
       </c>
       <c r="L8">
-        <v>1.000647916121742</v>
+        <v>1.064098972634603</v>
       </c>
       <c r="M8">
-        <v>0.998602929767063</v>
+        <v>0.7873543232821602</v>
       </c>
       <c r="N8">
-        <v>1.001437308523929</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="O8">
-        <v>1.000385811212524</v>
+        <v>1.108210702930321</v>
       </c>
       <c r="P8">
-        <v>0.999078032456449</v>
+        <v>0.8902626052907774</v>
       </c>
       <c r="Q8">
-        <v>1.000006212838123</v>
+        <v>1.015201326298541</v>
       </c>
       <c r="R8">
-        <v>0.9998644578122757</v>
+        <v>0.9916056090349499</v>
       </c>
       <c r="S8">
-        <v>0.9992608931255402</v>
+        <v>0.9009057200827716</v>
       </c>
       <c r="T8">
-        <v>0.9998644578122757</v>
+        <v>0.9916056090349498</v>
       </c>
       <c r="U8">
-        <v>0.9998049969751375</v>
+        <v>0.9742521941929023</v>
       </c>
       <c r="V8">
-        <v>1.000131459284896</v>
+        <v>1.018260078658981</v>
       </c>
       <c r="W8">
-        <v>0.999844964060556</v>
+        <v>0.9780864853651365</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9967853225133163</v>
+        <v>0.6705985785004578</v>
       </c>
       <c r="D9">
-        <v>0.9992377476110724</v>
+        <v>0.9489135609604669</v>
       </c>
       <c r="E9">
-        <v>1.000457907568178</v>
+        <v>1.108864331012501</v>
       </c>
       <c r="F9">
-        <v>0.9967853225133163</v>
+        <v>0.6705985785004578</v>
       </c>
       <c r="G9">
-        <v>1.00226162571133</v>
+        <v>1.194417527254477</v>
       </c>
       <c r="H9">
-        <v>1.00226162571133</v>
+        <v>1.194417527254477</v>
       </c>
       <c r="I9">
-        <v>1.00226162571133</v>
+        <v>1.194417527254477</v>
       </c>
       <c r="J9">
-        <v>0.9994518707032566</v>
+        <v>0.9220408780432022</v>
       </c>
       <c r="K9">
-        <v>1.001094811288857</v>
+        <v>1.127802110003594</v>
       </c>
       <c r="L9">
-        <v>1.001009084879786</v>
+        <v>1.064475722703801</v>
       </c>
       <c r="M9">
-        <v>0.9979514799447454</v>
+        <v>0.786365558294968</v>
       </c>
       <c r="N9">
-        <v>1.00226162571133</v>
+        <v>1.194417527254477</v>
       </c>
       <c r="O9">
-        <v>1.000457907568178</v>
+        <v>1.108864331012501</v>
       </c>
       <c r="P9">
-        <v>0.9986216150407473</v>
+        <v>0.8897314547564795</v>
       </c>
       <c r="Q9">
-        <v>0.9999548891357175</v>
+        <v>1.015452604527852</v>
       </c>
       <c r="R9">
-        <v>0.9998349519309416</v>
+        <v>0.9912934789224787</v>
       </c>
       <c r="S9">
-        <v>0.9988983669282504</v>
+        <v>0.9005012625187204</v>
       </c>
       <c r="T9">
-        <v>0.9998349519309416</v>
+        <v>0.9912934789224787</v>
       </c>
       <c r="U9">
-        <v>0.9997391816240204</v>
+        <v>0.9739803287026595</v>
       </c>
       <c r="V9">
-        <v>1.000243670441482</v>
+        <v>1.018067768413023</v>
       </c>
       <c r="W9">
-        <v>0.9997812312775678</v>
+        <v>0.9779347833466836</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9931697921091837</v>
+        <v>0.6639765206994355</v>
       </c>
       <c r="D10">
-        <v>0.9984406341894</v>
+        <v>0.946493928244682</v>
       </c>
       <c r="E10">
-        <v>1.00103406129942</v>
+        <v>1.108294926862619</v>
       </c>
       <c r="F10">
-        <v>0.9931697921091837</v>
+        <v>0.6639765206994355</v>
       </c>
       <c r="G10">
-        <v>1.004616126598254</v>
+        <v>1.200469858545439</v>
       </c>
       <c r="H10">
-        <v>1.004616126598254</v>
+        <v>1.200469858545439</v>
       </c>
       <c r="I10">
-        <v>1.004616126598254</v>
+        <v>1.200469858545439</v>
       </c>
       <c r="J10">
-        <v>0.9988627566975736</v>
+        <v>0.9212731801567796</v>
       </c>
       <c r="K10">
-        <v>1.002322546103112</v>
+        <v>1.129805729630095</v>
       </c>
       <c r="L10">
-        <v>1.002106340619868</v>
+        <v>1.067562874066575</v>
       </c>
       <c r="M10">
-        <v>0.9956765956921533</v>
+        <v>0.7820772032099127</v>
       </c>
       <c r="N10">
-        <v>1.004616126598254</v>
+        <v>1.200469858545439</v>
       </c>
       <c r="O10">
-        <v>1.00103406129942</v>
+        <v>1.108294926862619</v>
       </c>
       <c r="P10">
-        <v>0.9971019267043018</v>
+        <v>0.8861357237810275</v>
       </c>
       <c r="Q10">
-        <v>0.9999484089984967</v>
+        <v>1.014784053509699</v>
       </c>
       <c r="R10">
-        <v>0.9996066600022858</v>
+        <v>0.990913768702498</v>
       </c>
       <c r="S10">
-        <v>0.9976888700353923</v>
+        <v>0.8978482092396115</v>
       </c>
       <c r="T10">
-        <v>0.9996066600022857</v>
+        <v>0.990913768702498</v>
       </c>
       <c r="U10">
-        <v>0.9994206841761077</v>
+        <v>0.9735036215660684</v>
       </c>
       <c r="V10">
-        <v>1.000459772660537</v>
+        <v>1.018896868961943</v>
       </c>
       <c r="W10">
-        <v>0.9995286066636204</v>
+        <v>0.9774942776769423</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9884566478467883</v>
+        <v>0.9892672612739507</v>
       </c>
       <c r="D11">
-        <v>0.9970878464460966</v>
+        <v>0.9975038678713098</v>
       </c>
       <c r="E11">
-        <v>1.001255554815126</v>
+        <v>1.000871268727988</v>
       </c>
       <c r="F11">
-        <v>0.9884566478467883</v>
+        <v>0.9892672612739507</v>
       </c>
       <c r="G11">
-        <v>1.008736008761622</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="H11">
-        <v>1.008736008761622</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="I11">
-        <v>1.008736008761622</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="J11">
-        <v>0.9980282629589426</v>
+        <v>0.997975310105422</v>
       </c>
       <c r="K11">
-        <v>1.003850105874169</v>
+        <v>1.00329714421833</v>
       </c>
       <c r="L11">
-        <v>1.003786118213212</v>
+        <v>1.003262278627982</v>
       </c>
       <c r="M11">
-        <v>0.9926287407205566</v>
+        <v>0.9932685805467162</v>
       </c>
       <c r="N11">
-        <v>1.008736008761622</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="O11">
-        <v>1.001255554815126</v>
+        <v>1.000871268727988</v>
       </c>
       <c r="P11">
-        <v>0.9948561013309569</v>
+        <v>0.9950692650009694</v>
       </c>
       <c r="Q11">
-        <v>0.9996419088870341</v>
+        <v>0.999423289416705</v>
       </c>
       <c r="R11">
-        <v>0.9994827371411787</v>
+        <v>0.9997599630997748</v>
       </c>
       <c r="S11">
-        <v>0.9959134885402855</v>
+        <v>0.9960379467024536</v>
       </c>
       <c r="T11">
-        <v>0.9994827371411787</v>
+        <v>0.9997599630997748</v>
       </c>
       <c r="U11">
-        <v>0.9991191185956197</v>
+        <v>0.9993137998511866</v>
       </c>
       <c r="V11">
-        <v>1.00104249662882</v>
+        <v>1.001279311740426</v>
       </c>
       <c r="W11">
-        <v>0.9992286607045641</v>
+        <v>0.9993233838336355</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.187895999628548</v>
+        <v>0.9933385367520845</v>
       </c>
       <c r="D12">
-        <v>0.989822568258243</v>
+        <v>0.998954083990867</v>
       </c>
       <c r="E12">
-        <v>0.8904628111246038</v>
+        <v>1.001560503951798</v>
       </c>
       <c r="F12">
-        <v>1.187895999628548</v>
+        <v>0.9933385367520845</v>
       </c>
       <c r="G12">
-        <v>1.000696487827281</v>
+        <v>1.004052876453104</v>
       </c>
       <c r="H12">
-        <v>1.000696487827281</v>
+        <v>1.004052876453104</v>
       </c>
       <c r="I12">
-        <v>1.000696487827281</v>
+        <v>1.004052876453104</v>
       </c>
       <c r="J12">
-        <v>1.031602234943925</v>
+        <v>0.9987356358206391</v>
       </c>
       <c r="K12">
-        <v>0.9286602896621625</v>
+        <v>1.002253095372424</v>
       </c>
       <c r="L12">
-        <v>0.9913094303869343</v>
+        <v>1.001542905340954</v>
       </c>
       <c r="M12">
-        <v>1.105379758158648</v>
+        <v>0.9958904917849121</v>
       </c>
       <c r="N12">
-        <v>1.000696487827281</v>
+        <v>1.004052876453104</v>
       </c>
       <c r="O12">
-        <v>0.8904628111246038</v>
+        <v>1.001560503951798</v>
       </c>
       <c r="P12">
-        <v>1.039179405376576</v>
+        <v>0.9974495203519411</v>
       </c>
       <c r="Q12">
-        <v>0.9610325230342642</v>
+        <v>1.000148069886218</v>
       </c>
       <c r="R12">
-        <v>1.026351766193477</v>
+        <v>0.9996506390523289</v>
       </c>
       <c r="S12">
-        <v>1.036653681899025</v>
+        <v>0.9978782255081738</v>
       </c>
       <c r="T12">
-        <v>1.026351766193477</v>
+        <v>0.9996506390523288</v>
       </c>
       <c r="U12">
-        <v>1.027664383381089</v>
+        <v>0.9994218882444064</v>
       </c>
       <c r="V12">
-        <v>1.022270804270327</v>
+        <v>1.000348085886146</v>
       </c>
       <c r="W12">
-        <v>1.015728697498793</v>
+        <v>0.9995410161833478</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001865010045255</v>
+        <v>0.975543474808888</v>
       </c>
       <c r="D13">
-        <v>1.026113629659578</v>
+        <v>0.9965404551224737</v>
       </c>
       <c r="E13">
-        <v>1.020952847632634</v>
+        <v>1.006549900397767</v>
       </c>
       <c r="F13">
-        <v>1.001865010045255</v>
+        <v>0.975543474808888</v>
       </c>
       <c r="G13">
-        <v>0.9437532556325959</v>
+        <v>1.013478609059264</v>
       </c>
       <c r="H13">
-        <v>0.9437532556325959</v>
+        <v>1.013478609059264</v>
       </c>
       <c r="I13">
-        <v>0.9437532556325959</v>
+        <v>1.013478609059264</v>
       </c>
       <c r="J13">
-        <v>1.007542000787464</v>
+        <v>0.9953816142341503</v>
       </c>
       <c r="K13">
-        <v>0.9936918599102522</v>
+        <v>1.008457194927347</v>
       </c>
       <c r="L13">
-        <v>0.9811122009441192</v>
+        <v>1.005313011310843</v>
       </c>
       <c r="M13">
-        <v>1.013551388376755</v>
+        <v>0.9849627447405775</v>
       </c>
       <c r="N13">
-        <v>0.9437532556325959</v>
+        <v>1.013478609059264</v>
       </c>
       <c r="O13">
-        <v>1.020952847632634</v>
+        <v>1.006549900397767</v>
       </c>
       <c r="P13">
-        <v>1.011408928838944</v>
+        <v>0.9910466876033277</v>
       </c>
       <c r="Q13">
-        <v>1.014247424210049</v>
+        <v>1.000965757315959</v>
       </c>
       <c r="R13">
-        <v>0.9888570377701615</v>
+        <v>0.9985239947553066</v>
       </c>
       <c r="S13">
-        <v>1.010119952821784</v>
+        <v>0.9924916631469353</v>
       </c>
       <c r="T13">
-        <v>0.9888570377701614</v>
+        <v>0.9985239947553066</v>
       </c>
       <c r="U13">
-        <v>0.993528278524487</v>
+        <v>0.9977383996250175</v>
       </c>
       <c r="V13">
-        <v>0.9835732739461088</v>
+        <v>1.000886441511867</v>
       </c>
       <c r="W13">
-        <v>0.9985727741235815</v>
+        <v>0.9982783755751639</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8445659783132421</v>
+        <v>0.973316256197127</v>
       </c>
       <c r="D14">
-        <v>1.102998032050638</v>
+        <v>0.9951519456067144</v>
       </c>
       <c r="E14">
-        <v>1.235985338522868</v>
+        <v>1.004027590650067</v>
       </c>
       <c r="F14">
-        <v>0.8445659783132421</v>
+        <v>0.973316256197127</v>
       </c>
       <c r="G14">
-        <v>0.7379786888945049</v>
+        <v>1.018592204742488</v>
       </c>
       <c r="H14">
-        <v>0.7379786888945049</v>
+        <v>1.018592204742488</v>
       </c>
       <c r="I14">
-        <v>0.7379786888945049</v>
+        <v>1.018592204742488</v>
       </c>
       <c r="J14">
-        <v>0.9839821906681218</v>
+        <v>0.9953492171621092</v>
       </c>
       <c r="K14">
-        <v>1.073049922215758</v>
+        <v>1.008292209392162</v>
       </c>
       <c r="L14">
-        <v>0.9254025488209471</v>
+        <v>1.007100983474958</v>
       </c>
       <c r="M14">
-        <v>0.9399267206819536</v>
+        <v>0.9837533332585497</v>
       </c>
       <c r="N14">
-        <v>0.7379786888945049</v>
+        <v>1.018592204742488</v>
       </c>
       <c r="O14">
-        <v>1.235985338522868</v>
+        <v>1.004027590650067</v>
       </c>
       <c r="P14">
-        <v>1.040275658418055</v>
+        <v>0.9886719234235968</v>
       </c>
       <c r="Q14">
-        <v>1.109983764595495</v>
+        <v>0.9996884039060879</v>
       </c>
       <c r="R14">
-        <v>0.9395100019102051</v>
+        <v>0.9986453505298941</v>
       </c>
       <c r="S14">
-        <v>1.021511169168077</v>
+        <v>0.990897688003101</v>
       </c>
       <c r="T14">
-        <v>0.9395100019102051</v>
+        <v>0.9986453505298941</v>
       </c>
       <c r="U14">
-        <v>0.9506280490996842</v>
+        <v>0.9978213171879479</v>
       </c>
       <c r="V14">
-        <v>0.9080981770586483</v>
+        <v>1.001975494698856</v>
       </c>
       <c r="W14">
-        <v>0.9804861775210042</v>
+        <v>0.9981979675605219</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.072876860616356</v>
+        <v>0.9904634608762526</v>
       </c>
       <c r="D15">
-        <v>0.9527956891369612</v>
+        <v>0.9982766087311101</v>
       </c>
       <c r="E15">
-        <v>0.9056786444844415</v>
+        <v>1.001349248569893</v>
       </c>
       <c r="F15">
-        <v>1.072876860616356</v>
+        <v>0.9904634608762526</v>
       </c>
       <c r="G15">
-        <v>1.103631212172284</v>
+        <v>1.006760254237109</v>
       </c>
       <c r="H15">
-        <v>1.103631212172284</v>
+        <v>1.006760254237109</v>
       </c>
       <c r="I15">
-        <v>1.103631212172284</v>
+        <v>1.006760254237109</v>
       </c>
       <c r="J15">
-        <v>1.005100256857532</v>
+        <v>0.9983436741537174</v>
       </c>
       <c r="K15">
-        <v>0.9735915800598406</v>
+        <v>1.002913590463573</v>
       </c>
       <c r="L15">
-        <v>1.031499836247014</v>
+        <v>1.002545027701309</v>
       </c>
       <c r="M15">
-        <v>1.024775151575367</v>
+        <v>0.9942132213593318</v>
       </c>
       <c r="N15">
-        <v>1.103631212172284</v>
+        <v>1.006760254237109</v>
       </c>
       <c r="O15">
-        <v>0.9056786444844415</v>
+        <v>1.001349248569893</v>
       </c>
       <c r="P15">
-        <v>0.9892777525503986</v>
+        <v>0.9959063547230729</v>
       </c>
       <c r="Q15">
-        <v>0.9553894506709866</v>
+        <v>0.9998464613618052</v>
       </c>
       <c r="R15">
-        <v>1.02739557242436</v>
+        <v>0.9995243212277515</v>
       </c>
       <c r="S15">
-        <v>0.9945519206527763</v>
+        <v>0.9967187945332877</v>
       </c>
       <c r="T15">
-        <v>1.02739557242436</v>
+        <v>0.9995243212277515</v>
       </c>
       <c r="U15">
-        <v>1.021821743532653</v>
+        <v>0.999229159459243</v>
       </c>
       <c r="V15">
-        <v>1.038183637260579</v>
+        <v>1.000735378414816</v>
       </c>
       <c r="W15">
-        <v>1.008743653893724</v>
+        <v>0.9993581357615369</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8155736787445192</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="D16">
-        <v>0.965554052408322</v>
+        <v>0.9966804591690743</v>
       </c>
       <c r="E16">
-        <v>1.028027034288707</v>
+        <v>1.002740275294674</v>
       </c>
       <c r="F16">
-        <v>0.8155736787445192</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="G16">
-        <v>1.130390402951143</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="H16">
-        <v>1.130390402951143</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="I16">
-        <v>1.130390402951143</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="J16">
-        <v>0.9672198070871673</v>
+        <v>0.9967804671190671</v>
       </c>
       <c r="K16">
-        <v>1.05790026187781</v>
+        <v>1.005689283552385</v>
       </c>
       <c r="L16">
-        <v>1.049497615751812</v>
+        <v>1.004884269917298</v>
       </c>
       <c r="M16">
-        <v>0.8869319692144869</v>
+        <v>0.9888001919173405</v>
       </c>
       <c r="N16">
-        <v>1.130390402951143</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="O16">
-        <v>1.028027034288707</v>
+        <v>1.002740275294674</v>
       </c>
       <c r="P16">
-        <v>0.9218003565166131</v>
+        <v>0.9921675650085842</v>
       </c>
       <c r="Q16">
-        <v>0.9976234206879371</v>
+        <v>0.9997603712068708</v>
       </c>
       <c r="R16">
-        <v>0.9913303719947898</v>
+        <v>0.9990772939239161</v>
       </c>
       <c r="S16">
-        <v>0.9369401733734645</v>
+        <v>0.9937051990454119</v>
       </c>
       <c r="T16">
-        <v>0.9913303719947898</v>
+        <v>0.9990772939239161</v>
       </c>
       <c r="U16">
-        <v>0.9853027307678842</v>
+        <v>0.9985030872227039</v>
       </c>
       <c r="V16">
-        <v>1.014320265204536</v>
+        <v>1.001381820129079</v>
       </c>
       <c r="W16">
-        <v>0.987636852790496</v>
+        <v>0.9987583191808642</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.848125227734983</v>
+        <v>0.964717932789527</v>
       </c>
       <c r="D17">
-        <v>0.9721800177721873</v>
+        <v>0.993612253501723</v>
       </c>
       <c r="E17">
-        <v>1.026201983449984</v>
+        <v>1.005048112702512</v>
       </c>
       <c r="F17">
-        <v>0.848125227734983</v>
+        <v>0.964717932789527</v>
       </c>
       <c r="G17">
-        <v>1.102471083921478</v>
+        <v>1.024855632026118</v>
       </c>
       <c r="H17">
-        <v>1.102471083921478</v>
+        <v>1.024855632026118</v>
       </c>
       <c r="I17">
-        <v>1.102471083921478</v>
+        <v>1.024855632026118</v>
       </c>
       <c r="J17">
-        <v>0.9730071409360814</v>
+        <v>0.9938826014608761</v>
       </c>
       <c r="K17">
-        <v>1.048917747339604</v>
+        <v>1.010827143559891</v>
       </c>
       <c r="L17">
-        <v>1.040074746516208</v>
+        <v>1.009429326950663</v>
       </c>
       <c r="M17">
-        <v>0.9065835262546176</v>
+        <v>0.978571986988736</v>
       </c>
       <c r="N17">
-        <v>1.102471083921478</v>
+        <v>1.024855632026118</v>
       </c>
       <c r="O17">
-        <v>1.026201983449984</v>
+        <v>1.005048112702512</v>
       </c>
       <c r="P17">
-        <v>0.9371636055924837</v>
+        <v>0.9848830227460194</v>
       </c>
       <c r="Q17">
-        <v>0.999604562193033</v>
+        <v>0.9994653570816939</v>
       </c>
       <c r="R17">
-        <v>0.9922660983688152</v>
+        <v>0.9982072258393856</v>
       </c>
       <c r="S17">
-        <v>0.9491114507070163</v>
+        <v>0.9878828823176383</v>
       </c>
       <c r="T17">
-        <v>0.9922660983688152</v>
+        <v>0.9982072258393856</v>
       </c>
       <c r="U17">
-        <v>0.9874513590106317</v>
+        <v>0.9971260697447581</v>
       </c>
       <c r="V17">
-        <v>1.010455303992801</v>
+        <v>1.00267198220103</v>
       </c>
       <c r="W17">
-        <v>0.989695184240643</v>
+        <v>0.9976181237475057</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9133345445503042</v>
+        <v>0.9479230915964278</v>
       </c>
       <c r="D18">
-        <v>0.9853295034745185</v>
+        <v>0.9909851042554094</v>
       </c>
       <c r="E18">
-        <v>1.022313727827583</v>
+        <v>1.0072853363497</v>
       </c>
       <c r="F18">
-        <v>0.9133345445503042</v>
+        <v>0.9479230915964278</v>
       </c>
       <c r="G18">
-        <v>1.046995800566191</v>
+        <v>1.036936429404695</v>
       </c>
       <c r="H18">
-        <v>1.046995800566191</v>
+        <v>1.036936429404695</v>
       </c>
       <c r="I18">
-        <v>1.046995800566191</v>
+        <v>1.036936429404695</v>
       </c>
       <c r="J18">
-        <v>0.9845748034250474</v>
+        <v>0.9908328034146636</v>
       </c>
       <c r="K18">
-        <v>1.030880991277113</v>
+        <v>1.015770709179752</v>
       </c>
       <c r="L18">
-        <v>1.021300802201996</v>
+        <v>1.013527139712159</v>
       </c>
       <c r="M18">
-        <v>0.9459209620839233</v>
+        <v>0.9685697595149396</v>
       </c>
       <c r="N18">
-        <v>1.046995800566191</v>
+        <v>1.036936429404695</v>
       </c>
       <c r="O18">
-        <v>1.022313727827583</v>
+        <v>1.0072853363497</v>
       </c>
       <c r="P18">
-        <v>0.9678241361889437</v>
+        <v>0.977604213973064</v>
       </c>
       <c r="Q18">
-        <v>1.003444265626315</v>
+        <v>0.9990590698821818</v>
       </c>
       <c r="R18">
-        <v>0.9942146909813596</v>
+        <v>0.997381619116941</v>
       </c>
       <c r="S18">
-        <v>0.9734076919343115</v>
+        <v>0.9820137437869305</v>
       </c>
       <c r="T18">
-        <v>0.9942146909813596</v>
+        <v>0.997381619116941</v>
       </c>
       <c r="U18">
-        <v>0.9918047190922816</v>
+        <v>0.9957444151913717</v>
       </c>
       <c r="V18">
-        <v>1.002842935387064</v>
+        <v>1.003982818034036</v>
       </c>
       <c r="W18">
-        <v>0.9938313919258346</v>
+        <v>0.9964787966784683</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9005973917592489</v>
+        <v>0.9992141358947049</v>
       </c>
       <c r="D19">
-        <v>0.9859539897979677</v>
+        <v>0.9998439916646101</v>
       </c>
       <c r="E19">
-        <v>1.026664382620146</v>
+        <v>1.000153460957459</v>
       </c>
       <c r="F19">
-        <v>0.9005973917592489</v>
+        <v>0.9992141358947049</v>
       </c>
       <c r="G19">
-        <v>1.04637219564958</v>
+        <v>1.000456170585488</v>
       </c>
       <c r="H19">
-        <v>1.04637219564958</v>
+        <v>1.000456170585488</v>
       </c>
       <c r="I19">
-        <v>1.04637219564958</v>
+        <v>1.000456170585488</v>
       </c>
       <c r="J19">
-        <v>0.9842850497401481</v>
+        <v>0.9998750994172551</v>
       </c>
       <c r="K19">
-        <v>1.034173229211049</v>
+        <v>1.000270528968378</v>
       </c>
       <c r="L19">
-        <v>1.023214792004849</v>
+        <v>1.000225092469105</v>
       </c>
       <c r="M19">
-        <v>0.9399144720974941</v>
+        <v>0.9995094869769307</v>
       </c>
       <c r="N19">
-        <v>1.04637219564958</v>
+        <v>1.000456170585488</v>
       </c>
       <c r="O19">
-        <v>1.026664382620146</v>
+        <v>1.000153460957459</v>
       </c>
       <c r="P19">
-        <v>0.9636308871896975</v>
+        <v>0.999683798426082</v>
       </c>
       <c r="Q19">
-        <v>1.005474716180147</v>
+        <v>1.000014280187357</v>
       </c>
       <c r="R19">
-        <v>0.9912113233429917</v>
+        <v>0.9999412558125508</v>
       </c>
       <c r="S19">
-        <v>0.9705156080398476</v>
+        <v>0.9997475654231397</v>
       </c>
       <c r="T19">
-        <v>0.9912113233429917</v>
+        <v>0.9999412558125508</v>
       </c>
       <c r="U19">
-        <v>0.9894797549422807</v>
+        <v>0.9999247167137268</v>
       </c>
       <c r="V19">
-        <v>1.00085824308374</v>
+        <v>1.000031007488079</v>
       </c>
       <c r="W19">
-        <v>0.9926469378600604</v>
+        <v>0.9999434958667412</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000458568105684</v>
+        <v>0.9977702537003741</v>
       </c>
       <c r="D20">
-        <v>0.999703266915367</v>
+        <v>0.9995329694062632</v>
       </c>
       <c r="E20">
-        <v>0.9995499684239532</v>
+        <v>1.000385811212524</v>
       </c>
       <c r="F20">
-        <v>1.000458568105684</v>
+        <v>0.9977702537003741</v>
       </c>
       <c r="G20">
-        <v>1.000590452333717</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="H20">
-        <v>1.000590452333717</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="I20">
-        <v>1.000590452333717</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="J20">
-        <v>0.999965535459911</v>
+        <v>0.9996266144637228</v>
       </c>
       <c r="K20">
-        <v>0.9999194102135113</v>
+        <v>1.00075590928883</v>
       </c>
       <c r="L20">
-        <v>1.000143525425228</v>
+        <v>1.000647916121742</v>
       </c>
       <c r="M20">
-        <v>1.00011277158556</v>
+        <v>0.998602929767063</v>
       </c>
       <c r="N20">
-        <v>1.000590452333717</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="O20">
-        <v>0.9995499684239532</v>
+        <v>1.000385811212524</v>
       </c>
       <c r="P20">
-        <v>1.000004268264818</v>
+        <v>0.999078032456449</v>
       </c>
       <c r="Q20">
-        <v>0.9997577519419321</v>
+        <v>1.000006212838123</v>
       </c>
       <c r="R20">
-        <v>1.000199662954451</v>
+        <v>0.9998644578122757</v>
       </c>
       <c r="S20">
-        <v>0.9999913573298493</v>
+        <v>0.9992608931255402</v>
       </c>
       <c r="T20">
-        <v>1.000199662954451</v>
+        <v>0.9998644578122757</v>
       </c>
       <c r="U20">
-        <v>1.000141131080816</v>
+        <v>0.9998049969751375</v>
       </c>
       <c r="V20">
-        <v>1.000230995331396</v>
+        <v>1.000131459284896</v>
       </c>
       <c r="W20">
-        <v>1.000055437307867</v>
+        <v>0.999844964060556</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9984064682870296</v>
+        <v>0.9967853225133163</v>
       </c>
       <c r="D21">
-        <v>1.000293258016512</v>
+        <v>0.9992377476110724</v>
       </c>
       <c r="E21">
-        <v>1.000958453497701</v>
+        <v>1.000457907568178</v>
       </c>
       <c r="F21">
-        <v>0.9984064682870296</v>
+        <v>0.9967853225133163</v>
       </c>
       <c r="G21">
-        <v>0.9995049718941543</v>
+        <v>1.00226162571133</v>
       </c>
       <c r="H21">
-        <v>0.9995049718941543</v>
+        <v>1.00226162571133</v>
       </c>
       <c r="I21">
-        <v>0.9995049718941543</v>
+        <v>1.00226162571133</v>
       </c>
       <c r="J21">
-        <v>0.9998952112129228</v>
+        <v>0.9994518707032566</v>
       </c>
       <c r="K21">
-        <v>1.000467920825296</v>
+        <v>1.001094811288857</v>
       </c>
       <c r="L21">
-        <v>1.000016375249329</v>
+        <v>1.001009084879786</v>
       </c>
       <c r="M21">
-        <v>0.9992452912526422</v>
+        <v>0.9979514799447454</v>
       </c>
       <c r="N21">
-        <v>0.9995049718941543</v>
+        <v>1.00226162571133</v>
       </c>
       <c r="O21">
-        <v>1.000958453497701</v>
+        <v>1.000457907568178</v>
       </c>
       <c r="P21">
-        <v>0.9996824608923651</v>
+        <v>0.9986216150407473</v>
       </c>
       <c r="Q21">
-        <v>1.000426832355312</v>
+        <v>0.9999548891357175</v>
       </c>
       <c r="R21">
-        <v>0.9996232978929616</v>
+        <v>0.9998349519309416</v>
       </c>
       <c r="S21">
-        <v>0.9997533776658843</v>
+        <v>0.9988983669282504</v>
       </c>
       <c r="T21">
-        <v>0.9996232978929616</v>
+        <v>0.9998349519309416</v>
       </c>
       <c r="U21">
-        <v>0.9996912762229518</v>
+        <v>0.9997391816240204</v>
       </c>
       <c r="V21">
-        <v>0.9996540153571922</v>
+        <v>1.000243670441482</v>
       </c>
       <c r="W21">
-        <v>0.9998484937794484</v>
+        <v>0.9997812312775678</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9986311918648588</v>
+        <v>0.9931697921091837</v>
       </c>
       <c r="D22">
-        <v>0.9985728033047032</v>
+        <v>0.9984406341894</v>
       </c>
       <c r="E22">
-        <v>0.9989435090304505</v>
+        <v>1.00103406129942</v>
       </c>
       <c r="F22">
-        <v>0.9986311918648588</v>
+        <v>0.9931697921091837</v>
       </c>
       <c r="G22">
-        <v>1.003865288017256</v>
+        <v>1.004616126598254</v>
       </c>
       <c r="H22">
-        <v>1.003865288017256</v>
+        <v>1.004616126598254</v>
       </c>
       <c r="I22">
-        <v>1.003865288017256</v>
+        <v>1.004616126598254</v>
       </c>
       <c r="J22">
-        <v>0.9993773905653319</v>
+        <v>0.9988627566975736</v>
       </c>
       <c r="K22">
-        <v>1.000617363014647</v>
+        <v>1.002322546103112</v>
       </c>
       <c r="L22">
-        <v>1.001182151263813</v>
+        <v>1.002106340619868</v>
       </c>
       <c r="M22">
-        <v>0.9986478525904373</v>
+        <v>0.9956765956921533</v>
       </c>
       <c r="N22">
-        <v>1.003865288017256</v>
+        <v>1.004616126598254</v>
       </c>
       <c r="O22">
-        <v>0.9989435090304505</v>
+        <v>1.00103406129942</v>
       </c>
       <c r="P22">
-        <v>0.9987873504476547</v>
+        <v>0.9971019267043018</v>
       </c>
       <c r="Q22">
-        <v>0.9991604497978912</v>
+        <v>0.9999484089984967</v>
       </c>
       <c r="R22">
-        <v>1.000479996304188</v>
+        <v>0.9996066600022858</v>
       </c>
       <c r="S22">
-        <v>0.9989840304868803</v>
+        <v>0.9976888700353923</v>
       </c>
       <c r="T22">
-        <v>1.000479996304188</v>
+        <v>0.9996066600022857</v>
       </c>
       <c r="U22">
-        <v>1.000204344869474</v>
+        <v>0.9994206841761077</v>
       </c>
       <c r="V22">
-        <v>1.000936533499031</v>
+        <v>1.000459772660537</v>
       </c>
       <c r="W22">
-        <v>0.9999796937064371</v>
+        <v>0.9995286066636204</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9884566478467883</v>
+      </c>
+      <c r="D23">
+        <v>0.9970878464460966</v>
+      </c>
+      <c r="E23">
+        <v>1.001255554815126</v>
+      </c>
+      <c r="F23">
+        <v>0.9884566478467883</v>
+      </c>
+      <c r="G23">
+        <v>1.008736008761622</v>
+      </c>
+      <c r="H23">
+        <v>1.008736008761622</v>
+      </c>
+      <c r="I23">
+        <v>1.008736008761622</v>
+      </c>
+      <c r="J23">
+        <v>0.9980282629589426</v>
+      </c>
+      <c r="K23">
+        <v>1.003850105874169</v>
+      </c>
+      <c r="L23">
+        <v>1.003786118213212</v>
+      </c>
+      <c r="M23">
+        <v>0.9926287407205566</v>
+      </c>
+      <c r="N23">
+        <v>1.008736008761622</v>
+      </c>
+      <c r="O23">
+        <v>1.001255554815126</v>
+      </c>
+      <c r="P23">
+        <v>0.9948561013309569</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996419088870341</v>
+      </c>
+      <c r="R23">
+        <v>0.9994827371411787</v>
+      </c>
+      <c r="S23">
+        <v>0.9959134885402855</v>
+      </c>
+      <c r="T23">
+        <v>0.9994827371411787</v>
+      </c>
+      <c r="U23">
+        <v>0.9991191185956197</v>
+      </c>
+      <c r="V23">
+        <v>1.00104249662882</v>
+      </c>
+      <c r="W23">
+        <v>0.9992286607045641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.187895999628548</v>
+      </c>
+      <c r="D24">
+        <v>0.989822568258243</v>
+      </c>
+      <c r="E24">
+        <v>0.8904628111246038</v>
+      </c>
+      <c r="F24">
+        <v>1.187895999628548</v>
+      </c>
+      <c r="G24">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="H24">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="I24">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="J24">
+        <v>1.031602234943925</v>
+      </c>
+      <c r="K24">
+        <v>0.9286602896621625</v>
+      </c>
+      <c r="L24">
+        <v>0.9913094303869343</v>
+      </c>
+      <c r="M24">
+        <v>1.105379758158648</v>
+      </c>
+      <c r="N24">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="O24">
+        <v>0.8904628111246038</v>
+      </c>
+      <c r="P24">
+        <v>1.039179405376576</v>
+      </c>
+      <c r="Q24">
+        <v>0.9610325230342642</v>
+      </c>
+      <c r="R24">
+        <v>1.026351766193477</v>
+      </c>
+      <c r="S24">
+        <v>1.036653681899025</v>
+      </c>
+      <c r="T24">
+        <v>1.026351766193477</v>
+      </c>
+      <c r="U24">
+        <v>1.027664383381089</v>
+      </c>
+      <c r="V24">
+        <v>1.022270804270327</v>
+      </c>
+      <c r="W24">
+        <v>1.015728697498793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001865010045255</v>
+      </c>
+      <c r="D25">
+        <v>1.026113629659578</v>
+      </c>
+      <c r="E25">
+        <v>1.020952847632634</v>
+      </c>
+      <c r="F25">
+        <v>1.001865010045255</v>
+      </c>
+      <c r="G25">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="H25">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="I25">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="J25">
+        <v>1.007542000787464</v>
+      </c>
+      <c r="K25">
+        <v>0.9936918599102522</v>
+      </c>
+      <c r="L25">
+        <v>0.9811122009441192</v>
+      </c>
+      <c r="M25">
+        <v>1.013551388376755</v>
+      </c>
+      <c r="N25">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="O25">
+        <v>1.020952847632634</v>
+      </c>
+      <c r="P25">
+        <v>1.011408928838944</v>
+      </c>
+      <c r="Q25">
+        <v>1.014247424210049</v>
+      </c>
+      <c r="R25">
+        <v>0.9888570377701615</v>
+      </c>
+      <c r="S25">
+        <v>1.010119952821784</v>
+      </c>
+      <c r="T25">
+        <v>0.9888570377701614</v>
+      </c>
+      <c r="U25">
+        <v>0.993528278524487</v>
+      </c>
+      <c r="V25">
+        <v>0.9835732739461088</v>
+      </c>
+      <c r="W25">
+        <v>0.9985727741235815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8445659783132421</v>
+      </c>
+      <c r="D26">
+        <v>1.102998032050638</v>
+      </c>
+      <c r="E26">
+        <v>1.235985338522868</v>
+      </c>
+      <c r="F26">
+        <v>0.8445659783132421</v>
+      </c>
+      <c r="G26">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="H26">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="I26">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="J26">
+        <v>0.9839821906681218</v>
+      </c>
+      <c r="K26">
+        <v>1.073049922215758</v>
+      </c>
+      <c r="L26">
+        <v>0.9254025488209471</v>
+      </c>
+      <c r="M26">
+        <v>0.9399267206819536</v>
+      </c>
+      <c r="N26">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="O26">
+        <v>1.235985338522868</v>
+      </c>
+      <c r="P26">
+        <v>1.040275658418055</v>
+      </c>
+      <c r="Q26">
+        <v>1.109983764595495</v>
+      </c>
+      <c r="R26">
+        <v>0.9395100019102051</v>
+      </c>
+      <c r="S26">
+        <v>1.021511169168077</v>
+      </c>
+      <c r="T26">
+        <v>0.9395100019102051</v>
+      </c>
+      <c r="U26">
+        <v>0.9506280490996842</v>
+      </c>
+      <c r="V26">
+        <v>0.9080981770586483</v>
+      </c>
+      <c r="W26">
+        <v>0.9804861775210042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.072876860616356</v>
+      </c>
+      <c r="D27">
+        <v>0.9527956891369612</v>
+      </c>
+      <c r="E27">
+        <v>0.9056786444844415</v>
+      </c>
+      <c r="F27">
+        <v>1.072876860616356</v>
+      </c>
+      <c r="G27">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="H27">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="I27">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="J27">
+        <v>1.005100256857532</v>
+      </c>
+      <c r="K27">
+        <v>0.9735915800598406</v>
+      </c>
+      <c r="L27">
+        <v>1.031499836247014</v>
+      </c>
+      <c r="M27">
+        <v>1.024775151575367</v>
+      </c>
+      <c r="N27">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="O27">
+        <v>0.9056786444844415</v>
+      </c>
+      <c r="P27">
+        <v>0.9892777525503986</v>
+      </c>
+      <c r="Q27">
+        <v>0.9553894506709866</v>
+      </c>
+      <c r="R27">
+        <v>1.02739557242436</v>
+      </c>
+      <c r="S27">
+        <v>0.9945519206527763</v>
+      </c>
+      <c r="T27">
+        <v>1.02739557242436</v>
+      </c>
+      <c r="U27">
+        <v>1.021821743532653</v>
+      </c>
+      <c r="V27">
+        <v>1.038183637260579</v>
+      </c>
+      <c r="W27">
+        <v>1.008743653893724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8155736787445192</v>
+      </c>
+      <c r="D28">
+        <v>0.965554052408322</v>
+      </c>
+      <c r="E28">
+        <v>1.028027034288707</v>
+      </c>
+      <c r="F28">
+        <v>0.8155736787445192</v>
+      </c>
+      <c r="G28">
+        <v>1.130390402951143</v>
+      </c>
+      <c r="H28">
+        <v>1.130390402951143</v>
+      </c>
+      <c r="I28">
+        <v>1.130390402951143</v>
+      </c>
+      <c r="J28">
+        <v>0.9672198070871673</v>
+      </c>
+      <c r="K28">
+        <v>1.05790026187781</v>
+      </c>
+      <c r="L28">
+        <v>1.049497615751812</v>
+      </c>
+      <c r="M28">
+        <v>0.8869319692144869</v>
+      </c>
+      <c r="N28">
+        <v>1.130390402951143</v>
+      </c>
+      <c r="O28">
+        <v>1.028027034288707</v>
+      </c>
+      <c r="P28">
+        <v>0.9218003565166131</v>
+      </c>
+      <c r="Q28">
+        <v>0.9976234206879371</v>
+      </c>
+      <c r="R28">
+        <v>0.9913303719947898</v>
+      </c>
+      <c r="S28">
+        <v>0.9369401733734645</v>
+      </c>
+      <c r="T28">
+        <v>0.9913303719947898</v>
+      </c>
+      <c r="U28">
+        <v>0.9853027307678842</v>
+      </c>
+      <c r="V28">
+        <v>1.014320265204536</v>
+      </c>
+      <c r="W28">
+        <v>0.987636852790496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.848125227734983</v>
+      </c>
+      <c r="D29">
+        <v>0.9721800177721873</v>
+      </c>
+      <c r="E29">
+        <v>1.026201983449984</v>
+      </c>
+      <c r="F29">
+        <v>0.848125227734983</v>
+      </c>
+      <c r="G29">
+        <v>1.102471083921478</v>
+      </c>
+      <c r="H29">
+        <v>1.102471083921478</v>
+      </c>
+      <c r="I29">
+        <v>1.102471083921478</v>
+      </c>
+      <c r="J29">
+        <v>0.9730071409360814</v>
+      </c>
+      <c r="K29">
+        <v>1.048917747339604</v>
+      </c>
+      <c r="L29">
+        <v>1.040074746516208</v>
+      </c>
+      <c r="M29">
+        <v>0.9065835262546176</v>
+      </c>
+      <c r="N29">
+        <v>1.102471083921478</v>
+      </c>
+      <c r="O29">
+        <v>1.026201983449984</v>
+      </c>
+      <c r="P29">
+        <v>0.9371636055924837</v>
+      </c>
+      <c r="Q29">
+        <v>0.999604562193033</v>
+      </c>
+      <c r="R29">
+        <v>0.9922660983688152</v>
+      </c>
+      <c r="S29">
+        <v>0.9491114507070163</v>
+      </c>
+      <c r="T29">
+        <v>0.9922660983688152</v>
+      </c>
+      <c r="U29">
+        <v>0.9874513590106317</v>
+      </c>
+      <c r="V29">
+        <v>1.010455303992801</v>
+      </c>
+      <c r="W29">
+        <v>0.989695184240643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9133345445503042</v>
+      </c>
+      <c r="D30">
+        <v>0.9853295034745185</v>
+      </c>
+      <c r="E30">
+        <v>1.022313727827583</v>
+      </c>
+      <c r="F30">
+        <v>0.9133345445503042</v>
+      </c>
+      <c r="G30">
+        <v>1.046995800566191</v>
+      </c>
+      <c r="H30">
+        <v>1.046995800566191</v>
+      </c>
+      <c r="I30">
+        <v>1.046995800566191</v>
+      </c>
+      <c r="J30">
+        <v>0.9845748034250474</v>
+      </c>
+      <c r="K30">
+        <v>1.030880991277113</v>
+      </c>
+      <c r="L30">
+        <v>1.021300802201996</v>
+      </c>
+      <c r="M30">
+        <v>0.9459209620839233</v>
+      </c>
+      <c r="N30">
+        <v>1.046995800566191</v>
+      </c>
+      <c r="O30">
+        <v>1.022313727827583</v>
+      </c>
+      <c r="P30">
+        <v>0.9678241361889437</v>
+      </c>
+      <c r="Q30">
+        <v>1.003444265626315</v>
+      </c>
+      <c r="R30">
+        <v>0.9942146909813596</v>
+      </c>
+      <c r="S30">
+        <v>0.9734076919343115</v>
+      </c>
+      <c r="T30">
+        <v>0.9942146909813596</v>
+      </c>
+      <c r="U30">
+        <v>0.9918047190922816</v>
+      </c>
+      <c r="V30">
+        <v>1.002842935387064</v>
+      </c>
+      <c r="W30">
+        <v>0.9938313919258346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9005973917592489</v>
+      </c>
+      <c r="D31">
+        <v>0.9859539897979677</v>
+      </c>
+      <c r="E31">
+        <v>1.026664382620146</v>
+      </c>
+      <c r="F31">
+        <v>0.9005973917592489</v>
+      </c>
+      <c r="G31">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="H31">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="I31">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="J31">
+        <v>0.9842850497401481</v>
+      </c>
+      <c r="K31">
+        <v>1.034173229211049</v>
+      </c>
+      <c r="L31">
+        <v>1.023214792004849</v>
+      </c>
+      <c r="M31">
+        <v>0.9399144720974941</v>
+      </c>
+      <c r="N31">
+        <v>1.04637219564958</v>
+      </c>
+      <c r="O31">
+        <v>1.026664382620146</v>
+      </c>
+      <c r="P31">
+        <v>0.9636308871896975</v>
+      </c>
+      <c r="Q31">
+        <v>1.005474716180147</v>
+      </c>
+      <c r="R31">
+        <v>0.9912113233429917</v>
+      </c>
+      <c r="S31">
+        <v>0.9705156080398476</v>
+      </c>
+      <c r="T31">
+        <v>0.9912113233429917</v>
+      </c>
+      <c r="U31">
+        <v>0.9894797549422807</v>
+      </c>
+      <c r="V31">
+        <v>1.00085824308374</v>
+      </c>
+      <c r="W31">
+        <v>0.9926469378600604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7753240190410959</v>
+      </c>
+      <c r="D32">
+        <v>0.9551662924657534</v>
+      </c>
+      <c r="E32">
+        <v>1.02806814260274</v>
+      </c>
+      <c r="F32">
+        <v>0.7753240190410959</v>
+      </c>
+      <c r="G32">
+        <v>1.168721121643835</v>
+      </c>
+      <c r="H32">
+        <v>1.168721121643835</v>
+      </c>
+      <c r="I32">
+        <v>1.168721121643835</v>
+      </c>
+      <c r="J32">
+        <v>0.9600083889041096</v>
+      </c>
+      <c r="K32">
+        <v>1.069241086575343</v>
+      </c>
+      <c r="L32">
+        <v>1.063053269863014</v>
+      </c>
+      <c r="M32">
+        <v>0.8618378690410959</v>
+      </c>
+      <c r="N32">
+        <v>1.168721121643835</v>
+      </c>
+      <c r="O32">
+        <v>1.02806814260274</v>
+      </c>
+      <c r="P32">
+        <v>0.9016960808219179</v>
+      </c>
+      <c r="Q32">
+        <v>0.9940382657534247</v>
+      </c>
+      <c r="R32">
+        <v>0.990704427762557</v>
+      </c>
+      <c r="S32">
+        <v>0.9211335168493151</v>
+      </c>
+      <c r="T32">
+        <v>0.990704427762557</v>
+      </c>
+      <c r="U32">
+        <v>0.9830304180479451</v>
+      </c>
+      <c r="V32">
+        <v>1.020168558767123</v>
+      </c>
+      <c r="W32">
+        <v>0.9851775237671233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.5726272631578946</v>
+      </c>
+      <c r="D33">
+        <v>0.9705775142105266</v>
+      </c>
+      <c r="E33">
+        <v>1.170707226315789</v>
+      </c>
+      <c r="F33">
+        <v>0.5726272631578946</v>
+      </c>
+      <c r="G33">
+        <v>1.141484488421053</v>
+      </c>
+      <c r="H33">
+        <v>1.141484488421053</v>
+      </c>
+      <c r="I33">
+        <v>1.141484488421053</v>
+      </c>
+      <c r="J33">
+        <v>0.9219627968421052</v>
+      </c>
+      <c r="K33">
+        <v>1.155629747368421</v>
+      </c>
+      <c r="L33">
+        <v>1.065028971578947</v>
+      </c>
+      <c r="M33">
+        <v>0.7443123710526317</v>
+      </c>
+      <c r="N33">
+        <v>1.141484488421053</v>
+      </c>
+      <c r="O33">
+        <v>1.170707226315789</v>
+      </c>
+      <c r="P33">
+        <v>0.8716672447368419</v>
+      </c>
+      <c r="Q33">
+        <v>1.046335011578947</v>
+      </c>
+      <c r="R33">
+        <v>0.9616063259649121</v>
+      </c>
+      <c r="S33">
+        <v>0.8884324287719297</v>
+      </c>
+      <c r="T33">
+        <v>0.9616063259649121</v>
+      </c>
+      <c r="U33">
+        <v>0.9516954436842104</v>
+      </c>
+      <c r="V33">
+        <v>0.9896532526315788</v>
+      </c>
+      <c r="W33">
+        <v>0.9677912973684211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.6430828315789473</v>
+      </c>
+      <c r="D34">
+        <v>0.9397761763157897</v>
+      </c>
+      <c r="E34">
+        <v>1.105817133157895</v>
+      </c>
+      <c r="F34">
+        <v>0.6430828315789473</v>
+      </c>
+      <c r="G34">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="H34">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="I34">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="J34">
+        <v>0.9198625594736843</v>
+      </c>
+      <c r="K34">
+        <v>1.13523858368421</v>
+      </c>
+      <c r="L34">
+        <v>1.07720468368421</v>
+      </c>
+      <c r="M34">
+        <v>0.7694709515789473</v>
+      </c>
+      <c r="N34">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="O34">
+        <v>1.105817133157895</v>
+      </c>
+      <c r="P34">
+        <v>0.8744499823684211</v>
+      </c>
+      <c r="Q34">
+        <v>1.012839846315789</v>
+      </c>
+      <c r="R34">
+        <v>0.9887961828070176</v>
+      </c>
+      <c r="S34">
+        <v>0.8895875080701755</v>
+      </c>
+      <c r="T34">
+        <v>0.9887961828070176</v>
+      </c>
+      <c r="U34">
+        <v>0.9715627769736843</v>
+      </c>
+      <c r="V34">
+        <v>1.02074793831579</v>
+      </c>
+      <c r="W34">
+        <v>0.9759926878947369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.648351869761852</v>
+      </c>
+      <c r="D35">
+        <v>0.9446933862855331</v>
+      </c>
+      <c r="E35">
+        <v>1.09040173091369</v>
+      </c>
+      <c r="F35">
+        <v>0.648351869761852</v>
+      </c>
+      <c r="G35">
+        <v>1.162401029030982</v>
+      </c>
+      <c r="H35">
+        <v>1.162401029030982</v>
+      </c>
+      <c r="I35">
+        <v>1.162401029030982</v>
+      </c>
+      <c r="J35">
+        <v>0.9462092559829529</v>
+      </c>
+      <c r="K35">
+        <v>1.123274969013006</v>
+      </c>
+      <c r="L35">
+        <v>1.0883412399142</v>
+      </c>
+      <c r="M35">
+        <v>0.7851076541624253</v>
+      </c>
+      <c r="N35">
+        <v>1.162401029030982</v>
+      </c>
+      <c r="O35">
+        <v>1.09040173091369</v>
+      </c>
+      <c r="P35">
+        <v>0.8693768003377711</v>
+      </c>
+      <c r="Q35">
+        <v>1.018305493448322</v>
+      </c>
+      <c r="R35">
+        <v>0.9670515432355081</v>
+      </c>
+      <c r="S35">
+        <v>0.894987618886165</v>
+      </c>
+      <c r="T35">
+        <v>0.9670515432355081</v>
+      </c>
+      <c r="U35">
+        <v>0.9618409714223692</v>
+      </c>
+      <c r="V35">
+        <v>1.001952982944092</v>
+      </c>
+      <c r="W35">
+        <v>0.9735976418830802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000458568105684</v>
+      </c>
+      <c r="D36">
+        <v>0.999703266915367</v>
+      </c>
+      <c r="E36">
+        <v>0.9995499684239532</v>
+      </c>
+      <c r="F36">
+        <v>1.000458568105684</v>
+      </c>
+      <c r="G36">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="H36">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="I36">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="J36">
+        <v>0.999965535459911</v>
+      </c>
+      <c r="K36">
+        <v>0.9999194102135113</v>
+      </c>
+      <c r="L36">
+        <v>1.000143525425228</v>
+      </c>
+      <c r="M36">
+        <v>1.00011277158556</v>
+      </c>
+      <c r="N36">
+        <v>1.000590452333717</v>
+      </c>
+      <c r="O36">
+        <v>0.9995499684239532</v>
+      </c>
+      <c r="P36">
+        <v>1.000004268264818</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997577519419321</v>
+      </c>
+      <c r="R36">
+        <v>1.000199662954451</v>
+      </c>
+      <c r="S36">
+        <v>0.9999913573298493</v>
+      </c>
+      <c r="T36">
+        <v>1.000199662954451</v>
+      </c>
+      <c r="U36">
+        <v>1.000141131080816</v>
+      </c>
+      <c r="V36">
+        <v>1.000230995331396</v>
+      </c>
+      <c r="W36">
+        <v>1.000055437307867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9984064682870296</v>
+      </c>
+      <c r="D37">
+        <v>1.000293258016512</v>
+      </c>
+      <c r="E37">
+        <v>1.000958453497701</v>
+      </c>
+      <c r="F37">
+        <v>0.9984064682870296</v>
+      </c>
+      <c r="G37">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="H37">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="I37">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="J37">
+        <v>0.9998952112129228</v>
+      </c>
+      <c r="K37">
+        <v>1.000467920825296</v>
+      </c>
+      <c r="L37">
+        <v>1.000016375249329</v>
+      </c>
+      <c r="M37">
+        <v>0.9992452912526422</v>
+      </c>
+      <c r="N37">
+        <v>0.9995049718941543</v>
+      </c>
+      <c r="O37">
+        <v>1.000958453497701</v>
+      </c>
+      <c r="P37">
+        <v>0.9996824608923651</v>
+      </c>
+      <c r="Q37">
+        <v>1.000426832355312</v>
+      </c>
+      <c r="R37">
+        <v>0.9996232978929616</v>
+      </c>
+      <c r="S37">
+        <v>0.9997533776658843</v>
+      </c>
+      <c r="T37">
+        <v>0.9996232978929616</v>
+      </c>
+      <c r="U37">
+        <v>0.9996912762229518</v>
+      </c>
+      <c r="V37">
+        <v>0.9996540153571922</v>
+      </c>
+      <c r="W37">
+        <v>0.9998484937794484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9986311918648588</v>
+      </c>
+      <c r="D38">
+        <v>0.9985728033047032</v>
+      </c>
+      <c r="E38">
+        <v>0.9989435090304505</v>
+      </c>
+      <c r="F38">
+        <v>0.9986311918648588</v>
+      </c>
+      <c r="G38">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="H38">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="I38">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="J38">
+        <v>0.9993773905653319</v>
+      </c>
+      <c r="K38">
+        <v>1.000617363014647</v>
+      </c>
+      <c r="L38">
+        <v>1.001182151263813</v>
+      </c>
+      <c r="M38">
+        <v>0.9986478525904373</v>
+      </c>
+      <c r="N38">
+        <v>1.003865288017256</v>
+      </c>
+      <c r="O38">
+        <v>0.9989435090304505</v>
+      </c>
+      <c r="P38">
+        <v>0.9987873504476547</v>
+      </c>
+      <c r="Q38">
+        <v>0.9991604497978912</v>
+      </c>
+      <c r="R38">
+        <v>1.000479996304188</v>
+      </c>
+      <c r="S38">
+        <v>0.9989840304868803</v>
+      </c>
+      <c r="T38">
+        <v>1.000479996304188</v>
+      </c>
+      <c r="U38">
+        <v>1.000204344869474</v>
+      </c>
+      <c r="V38">
+        <v>1.000936533499031</v>
+      </c>
+      <c r="W38">
+        <v>0.9999796937064371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9994329317625291</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.995106539057374</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9949868409544491</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9994329317625291</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.012650277965596</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.012650277965596</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.012650277965596</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9983957125235369</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00077557371865</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.003427300047778</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9976651211920785</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.012650277965596</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9949868409544491</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9972098863584891</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.996691276738993</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.002356683560858</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9976051617468383</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.002356683560858</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.001366440801528</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.003623208234341</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000305037152749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8809142359906442</v>
+      </c>
+      <c r="D40">
+        <v>0.972461682443677</v>
+      </c>
+      <c r="E40">
+        <v>1.026958608901374</v>
+      </c>
+      <c r="F40">
+        <v>0.8809142359906442</v>
+      </c>
+      <c r="G40">
+        <v>1.086842097008515</v>
+      </c>
+      <c r="H40">
+        <v>1.086842097008515</v>
+      </c>
+      <c r="I40">
+        <v>1.086842097008515</v>
+      </c>
+      <c r="J40">
+        <v>0.9731865959816755</v>
+      </c>
+      <c r="K40">
+        <v>1.045371513820956</v>
+      </c>
+      <c r="L40">
+        <v>1.032308170897378</v>
+      </c>
+      <c r="M40">
+        <v>0.9206424078894028</v>
+      </c>
+      <c r="N40">
+        <v>1.086842097008515</v>
+      </c>
+      <c r="O40">
+        <v>1.026958608901374</v>
+      </c>
+      <c r="P40">
+        <v>0.953936422446009</v>
+      </c>
+      <c r="Q40">
+        <v>1.000072602441525</v>
+      </c>
+      <c r="R40">
+        <v>0.9982383139668443</v>
+      </c>
+      <c r="S40">
+        <v>0.9603531469578979</v>
+      </c>
+      <c r="T40">
+        <v>0.9982383139668443</v>
+      </c>
+      <c r="U40">
+        <v>0.9919753844705521</v>
+      </c>
+      <c r="V40">
+        <v>1.010948726978145</v>
+      </c>
+      <c r="W40">
+        <v>0.9923356641167027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.067312046232064</v>
+      </c>
+      <c r="D41">
+        <v>1.009460277759212</v>
+      </c>
+      <c r="E41">
+        <v>0.9782378064228997</v>
+      </c>
+      <c r="F41">
+        <v>1.067312046232064</v>
+      </c>
+      <c r="G41">
+        <v>0.9635908521076096</v>
+      </c>
+      <c r="H41">
+        <v>0.9635908521076096</v>
+      </c>
+      <c r="I41">
+        <v>0.9635908521076096</v>
+      </c>
+      <c r="J41">
+        <v>1.014318854680488</v>
+      </c>
+      <c r="K41">
+        <v>0.974989340216033</v>
+      </c>
+      <c r="L41">
+        <v>0.9866936496308601</v>
+      </c>
+      <c r="M41">
+        <v>1.042475059054588</v>
+      </c>
+      <c r="N41">
+        <v>0.9635908521076096</v>
+      </c>
+      <c r="O41">
+        <v>0.9782378064228997</v>
+      </c>
+      <c r="P41">
+        <v>1.022774926327482</v>
+      </c>
+      <c r="Q41">
+        <v>0.996278330551694</v>
+      </c>
+      <c r="R41">
+        <v>1.003046901587524</v>
+      </c>
+      <c r="S41">
+        <v>1.019956235778484</v>
+      </c>
+      <c r="T41">
+        <v>1.003046901587524</v>
+      </c>
+      <c r="U41">
+        <v>1.005864889860765</v>
+      </c>
+      <c r="V41">
+        <v>0.9974100823101342</v>
+      </c>
+      <c r="W41">
+        <v>1.004634735762969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8481946613342115</v>
+      </c>
+      <c r="D42">
+        <v>0.9973728298858902</v>
+      </c>
+      <c r="E42">
+        <v>1.083126203251937</v>
+      </c>
+      <c r="F42">
+        <v>0.8481946613342115</v>
+      </c>
+      <c r="G42">
+        <v>1.013473956078738</v>
+      </c>
+      <c r="H42">
+        <v>1.013473956078738</v>
+      </c>
+      <c r="I42">
+        <v>1.013473956078738</v>
+      </c>
+      <c r="J42">
+        <v>0.9725047769875845</v>
+      </c>
+      <c r="K42">
+        <v>1.061965063975484</v>
+      </c>
+      <c r="L42">
+        <v>1.015118110276657</v>
+      </c>
+      <c r="M42">
+        <v>0.9092092658486042</v>
+      </c>
+      <c r="N42">
+        <v>1.013473956078738</v>
+      </c>
+      <c r="O42">
+        <v>1.083126203251937</v>
+      </c>
+      <c r="P42">
+        <v>0.9656604322930744</v>
+      </c>
+      <c r="Q42">
+        <v>1.027815490119761</v>
+      </c>
+      <c r="R42">
+        <v>0.9815982735549623</v>
+      </c>
+      <c r="S42">
+        <v>0.9679418805245777</v>
+      </c>
+      <c r="T42">
+        <v>0.9815982735549623</v>
+      </c>
+      <c r="U42">
+        <v>0.9793248994131178</v>
+      </c>
+      <c r="V42">
+        <v>0.9861547107462419</v>
+      </c>
+      <c r="W42">
+        <v>0.9876206084548883</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.006760254237109</v>
+        <v>0.9977702537003741</v>
       </c>
       <c r="D3">
-        <v>0.9904634608762526</v>
+        <v>0.9995329694062632</v>
       </c>
       <c r="E3">
-        <v>1.001349248569893</v>
+        <v>1.000385811212524</v>
       </c>
       <c r="F3">
-        <v>1.006760254237109</v>
+        <v>0.9977702537003741</v>
       </c>
       <c r="G3">
-        <v>0.9983436741537174</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="H3">
-        <v>1.002913590463573</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="I3">
-        <v>1.006760254237109</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="J3">
-        <v>0.9904634608762526</v>
+        <v>0.9996266144637228</v>
       </c>
       <c r="K3">
-        <v>0.9982766087311101</v>
+        <v>1.00075590928883</v>
       </c>
       <c r="L3">
-        <v>1.002545027701309</v>
+        <v>1.000647916121742</v>
       </c>
       <c r="M3">
-        <v>0.9942132213593318</v>
+        <v>0.998602929767063</v>
       </c>
       <c r="N3">
-        <v>1.006760254237109</v>
+        <v>1.001437308523929</v>
       </c>
       <c r="O3">
-        <v>1.001349248569893</v>
+        <v>1.000385811212524</v>
       </c>
       <c r="P3">
-        <v>0.9959063547230729</v>
+        <v>0.999078032456449</v>
       </c>
       <c r="Q3">
-        <v>0.9998464613618052</v>
+        <v>1.000006212838123</v>
       </c>
       <c r="R3">
-        <v>0.9995243212277515</v>
+        <v>0.9998644578122757</v>
       </c>
       <c r="S3">
-        <v>0.9967187945332877</v>
+        <v>0.9992608931255402</v>
       </c>
       <c r="T3">
-        <v>0.9995243212277515</v>
+        <v>0.9998644578122757</v>
       </c>
       <c r="U3">
-        <v>0.999229159459243</v>
+        <v>0.9998049969751375</v>
       </c>
       <c r="V3">
-        <v>1.000735378414816</v>
+        <v>1.000131459284896</v>
       </c>
       <c r="W3">
-        <v>0.9993581357615369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.999844964060556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.01289675175458</v>
+        <v>0.8809142359906442</v>
       </c>
       <c r="D4">
-        <v>0.9815948547224941</v>
+        <v>0.972461682443677</v>
       </c>
       <c r="E4">
-        <v>1.002740275294674</v>
+        <v>1.026958608901374</v>
       </c>
       <c r="F4">
-        <v>1.01289675175458</v>
+        <v>0.8809142359906442</v>
       </c>
       <c r="G4">
-        <v>0.9967804671190671</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="H4">
-        <v>1.005689283552385</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="I4">
-        <v>1.01289675175458</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="J4">
-        <v>0.9815948547224941</v>
+        <v>0.9731865959816755</v>
       </c>
       <c r="K4">
-        <v>0.9966804591690743</v>
+        <v>1.045371513820956</v>
       </c>
       <c r="L4">
-        <v>1.004884269917298</v>
+        <v>1.032308170897378</v>
       </c>
       <c r="M4">
-        <v>0.9888001919173405</v>
+        <v>0.9206424078894028</v>
       </c>
       <c r="N4">
-        <v>1.01289675175458</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="O4">
-        <v>1.002740275294674</v>
+        <v>1.026958608901374</v>
       </c>
       <c r="P4">
-        <v>0.9921675650085842</v>
+        <v>0.953936422446009</v>
       </c>
       <c r="Q4">
-        <v>0.9997603712068708</v>
+        <v>1.000072602441525</v>
       </c>
       <c r="R4">
-        <v>0.9990772939239161</v>
+        <v>0.9982383139668443</v>
       </c>
       <c r="S4">
-        <v>0.9937051990454119</v>
+        <v>0.9603531469578979</v>
       </c>
       <c r="T4">
-        <v>0.9990772939239161</v>
+        <v>0.9982383139668443</v>
       </c>
       <c r="U4">
-        <v>0.9985030872227039</v>
+        <v>0.9919753844705521</v>
       </c>
       <c r="V4">
-        <v>1.001381820129079</v>
+        <v>1.010948726978145</v>
       </c>
       <c r="W4">
-        <v>0.9987583191808642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9923356641167027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024855632026118</v>
+        <v>0.894425828904899</v>
       </c>
       <c r="D5">
-        <v>0.964717932789527</v>
+        <v>0.9825012848126797</v>
       </c>
       <c r="E5">
-        <v>1.005048112702512</v>
+        <v>1.027223397788185</v>
       </c>
       <c r="F5">
-        <v>1.024855632026118</v>
+        <v>0.894425828904899</v>
       </c>
       <c r="G5">
-        <v>0.9938826014608761</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="H5">
-        <v>1.010827143559891</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="I5">
-        <v>1.024855632026118</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="J5">
-        <v>0.964717932789527</v>
+        <v>0.9814334685374655</v>
       </c>
       <c r="K5">
-        <v>0.993612253501723</v>
+        <v>1.037458518897693</v>
       </c>
       <c r="L5">
-        <v>1.009429326950663</v>
+        <v>1.025790648508648</v>
       </c>
       <c r="M5">
-        <v>0.978571986988736</v>
+        <v>0.9343602374639782</v>
       </c>
       <c r="N5">
-        <v>1.024855632026118</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="O5">
-        <v>1.005048112702512</v>
+        <v>1.027223397788185</v>
       </c>
       <c r="P5">
-        <v>0.9848830227460194</v>
+        <v>0.9608246133465418</v>
       </c>
       <c r="Q5">
-        <v>0.9994653570816939</v>
+        <v>1.004328433162825</v>
       </c>
       <c r="R5">
-        <v>0.9982072258393856</v>
+        <v>0.9926609442411142</v>
       </c>
       <c r="S5">
-        <v>0.9878828823176383</v>
+        <v>0.9676942317435163</v>
       </c>
       <c r="T5">
-        <v>0.9982072258393856</v>
+        <v>0.9926609442411142</v>
       </c>
       <c r="U5">
-        <v>0.9971260697447581</v>
+        <v>0.9898540753152021</v>
       </c>
       <c r="V5">
-        <v>1.00267198220103</v>
+        <v>1.003149981458213</v>
       </c>
       <c r="W5">
-        <v>0.9976181237475057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.992440873867976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.036936429404695</v>
+        <v>0.648351869761852</v>
       </c>
       <c r="D6">
-        <v>0.9479230915964278</v>
+        <v>0.9446933862855331</v>
       </c>
       <c r="E6">
-        <v>1.0072853363497</v>
+        <v>1.09040173091369</v>
       </c>
       <c r="F6">
-        <v>1.036936429404695</v>
+        <v>0.648351869761852</v>
       </c>
       <c r="G6">
-        <v>0.9908328034146636</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="H6">
-        <v>1.015770709179752</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="I6">
-        <v>1.036936429404695</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="J6">
-        <v>0.9479230915964278</v>
+        <v>0.9462092559829529</v>
       </c>
       <c r="K6">
-        <v>0.9909851042554093</v>
+        <v>1.123274969013006</v>
       </c>
       <c r="L6">
-        <v>1.013527139712159</v>
+        <v>1.0883412399142</v>
       </c>
       <c r="M6">
-        <v>0.9685697595149396</v>
+        <v>0.7851076541624253</v>
       </c>
       <c r="N6">
-        <v>1.036936429404695</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="O6">
-        <v>1.0072853363497</v>
+        <v>1.09040173091369</v>
       </c>
       <c r="P6">
-        <v>0.977604213973064</v>
+        <v>0.8693768003377711</v>
       </c>
       <c r="Q6">
-        <v>0.9990590698821818</v>
+        <v>1.018305493448322</v>
       </c>
       <c r="R6">
-        <v>0.997381619116941</v>
+        <v>0.9670515432355081</v>
       </c>
       <c r="S6">
-        <v>0.9820137437869305</v>
+        <v>0.894987618886165</v>
       </c>
       <c r="T6">
-        <v>0.997381619116941</v>
+        <v>0.9670515432355081</v>
       </c>
       <c r="U6">
-        <v>0.9957444151913717</v>
+        <v>0.9618409714223692</v>
       </c>
       <c r="V6">
-        <v>1.003982818034036</v>
+        <v>1.001952982944092</v>
       </c>
       <c r="W6">
-        <v>0.9964787966784683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9735976418830802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000456170585488</v>
+        <v>0.9892672612739507</v>
       </c>
       <c r="D7">
-        <v>0.9992141358947048</v>
+        <v>0.9975038678713098</v>
       </c>
       <c r="E7">
-        <v>1.000153460957459</v>
+        <v>1.000871268727988</v>
       </c>
       <c r="F7">
-        <v>1.000456170585488</v>
+        <v>0.9892672612739507</v>
       </c>
       <c r="G7">
-        <v>0.9998750994172551</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="H7">
-        <v>1.000270528968378</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="I7">
-        <v>1.000456170585488</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="J7">
-        <v>0.9992141358947048</v>
+        <v>0.997975310105422</v>
       </c>
       <c r="K7">
-        <v>0.9998439916646099</v>
+        <v>1.00329714421833</v>
       </c>
       <c r="L7">
-        <v>1.000225092469105</v>
+        <v>1.003262278627982</v>
       </c>
       <c r="M7">
-        <v>0.9995094869769307</v>
+        <v>0.9932685805467162</v>
       </c>
       <c r="N7">
-        <v>1.000456170585488</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="O7">
-        <v>1.000153460957459</v>
+        <v>1.000871268727988</v>
       </c>
       <c r="P7">
-        <v>0.999683798426082</v>
+        <v>0.9950692650009694</v>
       </c>
       <c r="Q7">
-        <v>1.000014280187357</v>
+        <v>0.999423289416705</v>
       </c>
       <c r="R7">
-        <v>0.9999412558125508</v>
+        <v>0.9997599630997748</v>
       </c>
       <c r="S7">
-        <v>0.9997475654231397</v>
+        <v>0.9960379467024536</v>
       </c>
       <c r="T7">
-        <v>0.9999412558125509</v>
+        <v>0.9997599630997748</v>
       </c>
       <c r="U7">
-        <v>0.999924716713727</v>
+        <v>0.9993137998511866</v>
       </c>
       <c r="V7">
-        <v>1.000031007488079</v>
+        <v>1.001279311740426</v>
       </c>
       <c r="W7">
-        <v>0.9999434958667414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9993233838336355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001437308523929</v>
+        <v>0.9984064682870296</v>
       </c>
       <c r="D8">
-        <v>0.9977702537003744</v>
+        <v>1.000293258016512</v>
       </c>
       <c r="E8">
-        <v>1.000385811212523</v>
+        <v>1.000958453497701</v>
       </c>
       <c r="F8">
-        <v>1.001437308523929</v>
+        <v>0.9984064682870296</v>
       </c>
       <c r="G8">
-        <v>0.9996266144637228</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="H8">
-        <v>1.00075590928883</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="I8">
-        <v>1.001437308523929</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="J8">
-        <v>0.9977702537003744</v>
+        <v>0.9998952112129228</v>
       </c>
       <c r="K8">
-        <v>0.9995329694062631</v>
+        <v>1.000467920825296</v>
       </c>
       <c r="L8">
-        <v>1.000647916121741</v>
+        <v>1.000016375249329</v>
       </c>
       <c r="M8">
-        <v>0.9986029297670632</v>
+        <v>0.9992452912526422</v>
       </c>
       <c r="N8">
-        <v>1.001437308523929</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="O8">
-        <v>1.000385811212523</v>
+        <v>1.000958453497701</v>
       </c>
       <c r="P8">
-        <v>0.999078032456449</v>
+        <v>0.9996824608923651</v>
       </c>
       <c r="Q8">
-        <v>1.000006212838123</v>
+        <v>1.000426832355312</v>
       </c>
       <c r="R8">
-        <v>0.9998644578122757</v>
+        <v>0.9996232978929616</v>
       </c>
       <c r="S8">
-        <v>0.9992608931255402</v>
+        <v>0.9997533776658843</v>
       </c>
       <c r="T8">
-        <v>0.9998644578122756</v>
+        <v>0.9996232978929616</v>
       </c>
       <c r="U8">
-        <v>0.9998049969751374</v>
+        <v>0.9996912762229518</v>
       </c>
       <c r="V8">
-        <v>1.000131459284896</v>
+        <v>0.9996540153571922</v>
       </c>
       <c r="W8">
-        <v>0.9998449640605558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9998484937794484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00226162571133</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="D9">
-        <v>0.9967853225133163</v>
+        <v>0.9966804591690743</v>
       </c>
       <c r="E9">
-        <v>1.000457907568179</v>
+        <v>1.002740275294674</v>
       </c>
       <c r="F9">
-        <v>1.00226162571133</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="G9">
-        <v>0.9994518707032566</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="H9">
-        <v>1.001094811288857</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="I9">
-        <v>1.00226162571133</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="J9">
-        <v>0.9967853225133163</v>
+        <v>0.9967804671190671</v>
       </c>
       <c r="K9">
-        <v>0.9992377476110724</v>
+        <v>1.005689283552385</v>
       </c>
       <c r="L9">
-        <v>1.001009084879786</v>
+        <v>1.004884269917298</v>
       </c>
       <c r="M9">
-        <v>0.9979514799447454</v>
+        <v>0.9888001919173405</v>
       </c>
       <c r="N9">
-        <v>1.00226162571133</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="O9">
-        <v>1.000457907568179</v>
+        <v>1.002740275294674</v>
       </c>
       <c r="P9">
-        <v>0.9986216150407474</v>
+        <v>0.9921675650085842</v>
       </c>
       <c r="Q9">
-        <v>0.9999548891357175</v>
+        <v>0.9997603712068708</v>
       </c>
       <c r="R9">
-        <v>0.9998349519309416</v>
+        <v>0.9990772939239161</v>
       </c>
       <c r="S9">
-        <v>0.9988983669282505</v>
+        <v>0.9937051990454119</v>
       </c>
       <c r="T9">
-        <v>0.9998349519309416</v>
+        <v>0.9990772939239161</v>
       </c>
       <c r="U9">
-        <v>0.9997391816240204</v>
+        <v>0.9985030872227039</v>
       </c>
       <c r="V9">
-        <v>1.000243670441482</v>
+        <v>1.001381820129079</v>
       </c>
       <c r="W9">
-        <v>0.9997812312775678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9987583191808642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004616126598254</v>
+        <v>0.6416570563612014</v>
       </c>
       <c r="D10">
-        <v>0.9931697921091837</v>
+        <v>0.9443193950892829</v>
       </c>
       <c r="E10">
-        <v>1.00103406129942</v>
+        <v>1.091491242421549</v>
       </c>
       <c r="F10">
-        <v>1.004616126598254</v>
+        <v>0.6416570563612014</v>
       </c>
       <c r="G10">
-        <v>0.9988627566975736</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="H10">
-        <v>1.002322546103112</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="I10">
-        <v>1.004616126598254</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="J10">
-        <v>0.9931697921091837</v>
+        <v>0.9460626210607128</v>
       </c>
       <c r="K10">
-        <v>0.9984406341894</v>
+        <v>1.124835773509</v>
       </c>
       <c r="L10">
-        <v>1.002106340619868</v>
+        <v>1.089996117596358</v>
       </c>
       <c r="M10">
-        <v>0.9956765956921533</v>
+        <v>0.7818119237339655</v>
       </c>
       <c r="N10">
-        <v>1.004616126598254</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="O10">
-        <v>1.00103406129942</v>
+        <v>1.091491242421549</v>
       </c>
       <c r="P10">
-        <v>0.9971019267043018</v>
+        <v>0.8665741493913751</v>
       </c>
       <c r="Q10">
-        <v>0.9999484089984967</v>
+        <v>1.018776931741131</v>
       </c>
       <c r="R10">
-        <v>0.9996066600022858</v>
+        <v>0.9657115375449239</v>
       </c>
       <c r="S10">
-        <v>0.9976888700353923</v>
+        <v>0.8930703066144877</v>
       </c>
       <c r="T10">
-        <v>0.9996066600022857</v>
+        <v>0.9657115375449239</v>
       </c>
       <c r="U10">
-        <v>0.9994206841761077</v>
+        <v>0.9607993084238711</v>
       </c>
       <c r="V10">
-        <v>1.000459772660537</v>
+        <v>1.001436709509501</v>
       </c>
       <c r="W10">
-        <v>0.9995286066636205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9730200554530113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008736008761622</v>
+        <v>0.9417378798592237</v>
       </c>
       <c r="D11">
-        <v>0.9884566478467883</v>
+        <v>0.9841506294346064</v>
       </c>
       <c r="E11">
-        <v>1.001255554815126</v>
+        <v>1.014030149899054</v>
       </c>
       <c r="F11">
-        <v>1.008736008761622</v>
+        <v>0.9417378798592237</v>
       </c>
       <c r="G11">
-        <v>0.9980282629589425</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="H11">
-        <v>1.003850105874169</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="I11">
-        <v>1.008736008761622</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="J11">
-        <v>0.9884566478467883</v>
+        <v>0.986641665426476</v>
       </c>
       <c r="K11">
-        <v>0.9970878464460966</v>
+        <v>1.024233860392286</v>
       </c>
       <c r="L11">
-        <v>1.003786118213212</v>
+        <v>1.017468240674074</v>
       </c>
       <c r="M11">
-        <v>0.9926287407205564</v>
+        <v>0.9596564808262407</v>
       </c>
       <c r="N11">
-        <v>1.008736008761622</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="O11">
-        <v>1.001255554815126</v>
+        <v>1.014030149899054</v>
       </c>
       <c r="P11">
-        <v>0.9948561013309569</v>
+        <v>0.9778840148791388</v>
       </c>
       <c r="Q11">
-        <v>0.9996419088870341</v>
+        <v>1.000335907662765</v>
       </c>
       <c r="R11">
-        <v>0.9994827371411787</v>
+        <v>0.9991557156968552</v>
       </c>
       <c r="S11">
-        <v>0.9959134885402854</v>
+        <v>0.9808032317282512</v>
       </c>
       <c r="T11">
-        <v>0.9994827371411787</v>
+        <v>0.9991557156968552</v>
       </c>
       <c r="U11">
-        <v>0.9991191185956196</v>
+        <v>0.9960272031292605</v>
       </c>
       <c r="V11">
-        <v>1.00104249662882</v>
+        <v>1.005161585969866</v>
       </c>
       <c r="W11">
-        <v>0.999228660704564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9962022529805312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000696487827281</v>
+        <v>0.890239461589474</v>
       </c>
       <c r="D12">
-        <v>1.187895999628547</v>
+        <v>0.9840889012947381</v>
       </c>
       <c r="E12">
-        <v>0.8904628111246039</v>
+        <v>1.028291055368421</v>
       </c>
       <c r="F12">
-        <v>1.000696487827281</v>
+        <v>0.890239461589474</v>
       </c>
       <c r="G12">
-        <v>1.031602234943925</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="H12">
-        <v>0.9286602896621625</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="I12">
-        <v>1.000696487827281</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="J12">
-        <v>1.187895999628547</v>
+        <v>0.9829722956421074</v>
       </c>
       <c r="K12">
-        <v>0.9898225682582429</v>
+        <v>1.037501277505265</v>
       </c>
       <c r="L12">
-        <v>0.9913094303869343</v>
+        <v>1.026255125547368</v>
       </c>
       <c r="M12">
-        <v>1.105379758158648</v>
+        <v>0.9337134315368428</v>
       </c>
       <c r="N12">
-        <v>1.000696487827281</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="O12">
-        <v>0.8904628111246039</v>
+        <v>1.028291055368421</v>
       </c>
       <c r="P12">
-        <v>1.039179405376576</v>
+        <v>0.9592652584789474</v>
       </c>
       <c r="Q12">
-        <v>0.9610325230342642</v>
+        <v>1.005631675505264</v>
       </c>
       <c r="R12">
-        <v>1.026351766193477</v>
+        <v>0.9900963962771921</v>
       </c>
       <c r="S12">
-        <v>1.036653681899025</v>
+        <v>0.9671676042000007</v>
       </c>
       <c r="T12">
-        <v>1.026351766193477</v>
+        <v>0.9900963962771921</v>
       </c>
       <c r="U12">
-        <v>1.027664383381089</v>
+        <v>0.9883153711184209</v>
       </c>
       <c r="V12">
-        <v>1.022270804270327</v>
+        <v>1.001004031269473</v>
       </c>
       <c r="W12">
-        <v>1.015728697498793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9918525275447372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9437532556325959</v>
+        <v>1.061097929398163</v>
       </c>
       <c r="D13">
-        <v>1.001865010045255</v>
+        <v>1.013100840736282</v>
       </c>
       <c r="E13">
-        <v>1.020952847632634</v>
+        <v>0.9801754583384891</v>
       </c>
       <c r="F13">
-        <v>0.9437532556325959</v>
+        <v>1.061097929398163</v>
       </c>
       <c r="G13">
-        <v>1.007542000787464</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="H13">
-        <v>0.9936918599102522</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="I13">
-        <v>0.9437532556325959</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="J13">
-        <v>1.001865010045255</v>
+        <v>1.015650748187293</v>
       </c>
       <c r="K13">
-        <v>1.026113629659578</v>
+        <v>0.974326310809025</v>
       </c>
       <c r="L13">
-        <v>0.9811122009441192</v>
+        <v>0.9856606499907974</v>
       </c>
       <c r="M13">
-        <v>1.013551388376755</v>
+        <v>1.042026922805725</v>
       </c>
       <c r="N13">
-        <v>0.9437532556325959</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="O13">
-        <v>1.020952847632634</v>
+        <v>0.9801754583384891</v>
       </c>
       <c r="P13">
-        <v>1.011408928838944</v>
+        <v>1.020636693868326</v>
       </c>
       <c r="Q13">
-        <v>1.014247424210049</v>
+        <v>0.9979131032628912</v>
       </c>
       <c r="R13">
-        <v>0.9888570377701615</v>
+        <v>1.00021699301216</v>
       </c>
       <c r="S13">
-        <v>1.010119952821784</v>
+        <v>1.018974711974648</v>
       </c>
       <c r="T13">
-        <v>0.9888570377701615</v>
+        <v>1.00021699301216</v>
       </c>
       <c r="U13">
-        <v>0.9935282785244872</v>
+        <v>1.004075431805943</v>
       </c>
       <c r="V13">
-        <v>0.9835732739461089</v>
+        <v>0.9951358637047203</v>
       </c>
       <c r="W13">
-        <v>0.9985727741235817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.0039270564457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7379786888945049</v>
+        <v>0.3808527599999998</v>
       </c>
       <c r="D14">
-        <v>0.8445659783132424</v>
+        <v>0.9033378900000014</v>
       </c>
       <c r="E14">
-        <v>1.235985338522868</v>
+        <v>1.158544699999998</v>
       </c>
       <c r="F14">
-        <v>0.7379786888945049</v>
+        <v>0.3808527599999998</v>
       </c>
       <c r="G14">
-        <v>0.9839821906681218</v>
+        <v>1.2800565</v>
       </c>
       <c r="H14">
-        <v>1.073049922215758</v>
+        <v>1.2800565</v>
       </c>
       <c r="I14">
-        <v>0.7379786888945049</v>
+        <v>1.2800565</v>
       </c>
       <c r="J14">
-        <v>0.8445659783132424</v>
+        <v>0.9074145599999998</v>
       </c>
       <c r="K14">
-        <v>1.102998032050638</v>
+        <v>1.2164496</v>
       </c>
       <c r="L14">
-        <v>0.9254025488209473</v>
+        <v>1.1562942</v>
       </c>
       <c r="M14">
-        <v>0.9399267206819535</v>
+        <v>0.622681900000001</v>
       </c>
       <c r="N14">
-        <v>0.7379786888945049</v>
+        <v>1.2800565</v>
       </c>
       <c r="O14">
-        <v>1.235985338522868</v>
+        <v>1.158544699999998</v>
       </c>
       <c r="P14">
-        <v>1.040275658418055</v>
+        <v>0.7696987299999991</v>
       </c>
       <c r="Q14">
-        <v>1.109983764595495</v>
+        <v>1.032979629999999</v>
       </c>
       <c r="R14">
-        <v>0.9395100019102051</v>
+        <v>0.9398179866666663</v>
       </c>
       <c r="S14">
-        <v>1.021511169168077</v>
+        <v>0.815604006666666</v>
       </c>
       <c r="T14">
-        <v>0.9395100019102051</v>
+        <v>0.9398179866666663</v>
       </c>
       <c r="U14">
-        <v>0.9506280490996842</v>
+        <v>0.9317171299999997</v>
       </c>
       <c r="V14">
-        <v>0.9080981770586483</v>
+        <v>1.001385004</v>
       </c>
       <c r="W14">
-        <v>0.9804861775210043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9532040137500002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.103631212172284</v>
+        <v>0.25063503</v>
       </c>
       <c r="D15">
-        <v>1.072876860616356</v>
+        <v>0.6914528900000001</v>
       </c>
       <c r="E15">
-        <v>0.9056786444844414</v>
+        <v>0.89582235</v>
       </c>
       <c r="F15">
-        <v>1.103631212172284</v>
+        <v>0.25063503</v>
       </c>
       <c r="G15">
-        <v>1.005100256857532</v>
+        <v>1.8983336</v>
       </c>
       <c r="H15">
-        <v>0.9735915800598406</v>
+        <v>1.8983336</v>
       </c>
       <c r="I15">
-        <v>1.103631212172284</v>
+        <v>1.8983336</v>
       </c>
       <c r="J15">
-        <v>1.072876860616356</v>
+        <v>0.8620694299999999</v>
       </c>
       <c r="K15">
-        <v>0.9527956891369612</v>
+        <v>1.2290598</v>
       </c>
       <c r="L15">
-        <v>1.031499836247014</v>
+        <v>1.3509299</v>
       </c>
       <c r="M15">
-        <v>1.024775151575367</v>
+        <v>0.48869878</v>
       </c>
       <c r="N15">
-        <v>1.103631212172284</v>
+        <v>1.8983336</v>
       </c>
       <c r="O15">
-        <v>0.9056786444844414</v>
+        <v>0.89582235</v>
       </c>
       <c r="P15">
-        <v>0.9892777525503985</v>
+        <v>0.57322869</v>
       </c>
       <c r="Q15">
-        <v>0.9553894506709866</v>
+        <v>0.87894589</v>
       </c>
       <c r="R15">
-        <v>1.02739557242436</v>
+        <v>1.014930326666667</v>
       </c>
       <c r="S15">
-        <v>0.9945519206527763</v>
+        <v>0.6695089366666666</v>
       </c>
       <c r="T15">
-        <v>1.02739557242436</v>
+        <v>1.014930326666666</v>
       </c>
       <c r="U15">
-        <v>1.021821743532653</v>
+        <v>0.9767151024999999</v>
       </c>
       <c r="V15">
-        <v>1.038183637260579</v>
+        <v>1.161038802</v>
       </c>
       <c r="W15">
-        <v>1.008743653893724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9583752225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000590452333717</v>
+        <v>0.21852547</v>
       </c>
       <c r="D16">
-        <v>1.000458568105683</v>
+        <v>0.77312672</v>
       </c>
       <c r="E16">
-        <v>0.9995499684239532</v>
+        <v>1.1468171</v>
       </c>
       <c r="F16">
-        <v>1.000590452333717</v>
+        <v>0.21852547</v>
       </c>
       <c r="G16">
-        <v>0.999965535459911</v>
+        <v>1.6505978</v>
       </c>
       <c r="H16">
-        <v>0.9999194102135112</v>
+        <v>1.6505978</v>
       </c>
       <c r="I16">
-        <v>1.000590452333717</v>
+        <v>1.6505978</v>
       </c>
       <c r="J16">
-        <v>1.000458568105683</v>
+        <v>0.80860235</v>
       </c>
       <c r="K16">
-        <v>0.999703266915367</v>
+        <v>1.3164403</v>
       </c>
       <c r="L16">
-        <v>1.000143525425228</v>
+        <v>1.242613</v>
       </c>
       <c r="M16">
-        <v>1.00011277158556</v>
+        <v>0.45448393</v>
       </c>
       <c r="N16">
-        <v>1.000590452333717</v>
+        <v>1.6505978</v>
       </c>
       <c r="O16">
-        <v>0.9995499684239532</v>
+        <v>1.1468171</v>
       </c>
       <c r="P16">
-        <v>1.000004268264818</v>
+        <v>0.6826712850000001</v>
       </c>
       <c r="Q16">
-        <v>0.9997577519419321</v>
+        <v>0.977709725</v>
       </c>
       <c r="R16">
-        <v>1.000199662954451</v>
+        <v>1.005313456666667</v>
       </c>
       <c r="S16">
-        <v>0.9999913573298492</v>
+        <v>0.7246483066666668</v>
       </c>
       <c r="T16">
-        <v>1.000199662954451</v>
+        <v>1.005313456666667</v>
       </c>
       <c r="U16">
-        <v>1.000141131080816</v>
+        <v>0.95613568</v>
       </c>
       <c r="V16">
-        <v>1.000230995331396</v>
+        <v>1.095028104</v>
       </c>
       <c r="W16">
-        <v>1.000055437307867</v>
+        <v>0.95140083375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9995049718941544</v>
+        <v>0.8289069100000001</v>
       </c>
       <c r="D17">
-        <v>0.9984064682870296</v>
+        <v>0.90458591</v>
       </c>
       <c r="E17">
-        <v>1.000958453497701</v>
+        <v>0.88507895</v>
       </c>
       <c r="F17">
-        <v>0.9995049718941544</v>
+        <v>0.8289069100000001</v>
       </c>
       <c r="G17">
-        <v>0.9998952112129226</v>
+        <v>1.3252711</v>
       </c>
       <c r="H17">
-        <v>1.000467920825296</v>
+        <v>1.3252711</v>
       </c>
       <c r="I17">
-        <v>0.9995049718941544</v>
+        <v>1.3252711</v>
       </c>
       <c r="J17">
-        <v>0.9984064682870296</v>
+        <v>0.97535277</v>
       </c>
       <c r="K17">
-        <v>1.000293258016512</v>
+        <v>1.0236192</v>
       </c>
       <c r="L17">
-        <v>1.000016375249329</v>
+        <v>1.1085808</v>
       </c>
       <c r="M17">
-        <v>0.9992452912526423</v>
+        <v>0.8920136</v>
       </c>
       <c r="N17">
-        <v>0.9995049718941544</v>
+        <v>1.3252711</v>
       </c>
       <c r="O17">
-        <v>1.000958453497701</v>
+        <v>0.88507895</v>
       </c>
       <c r="P17">
-        <v>0.9996824608923651</v>
+        <v>0.8569929300000001</v>
       </c>
       <c r="Q17">
-        <v>1.000426832355312</v>
+        <v>0.93021586</v>
       </c>
       <c r="R17">
-        <v>0.9996232978929616</v>
+        <v>1.013085653333333</v>
       </c>
       <c r="S17">
-        <v>0.9997533776658843</v>
+        <v>0.89644621</v>
       </c>
       <c r="T17">
-        <v>0.9996232978929616</v>
+        <v>1.013085653333333</v>
       </c>
       <c r="U17">
-        <v>0.9996912762229518</v>
+        <v>1.0036524325</v>
       </c>
       <c r="V17">
-        <v>0.9996540153571924</v>
+        <v>1.067976166</v>
       </c>
       <c r="W17">
-        <v>0.9998484937794483</v>
+        <v>0.9929261549999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003865288017256</v>
+        <v>0.7753240190410959</v>
       </c>
       <c r="D18">
-        <v>0.9986311918648588</v>
+        <v>0.9551662924657534</v>
       </c>
       <c r="E18">
-        <v>0.9989435090304506</v>
+        <v>1.02806814260274</v>
       </c>
       <c r="F18">
-        <v>1.003865288017256</v>
+        <v>0.7753240190410959</v>
       </c>
       <c r="G18">
-        <v>0.9993773905653319</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="H18">
-        <v>1.000617363014647</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="I18">
-        <v>1.003865288017256</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="J18">
-        <v>0.9986311918648588</v>
+        <v>0.9600083889041096</v>
       </c>
       <c r="K18">
-        <v>0.9985728033047032</v>
+        <v>1.069241086575343</v>
       </c>
       <c r="L18">
-        <v>1.001182151263813</v>
+        <v>1.063053269863014</v>
       </c>
       <c r="M18">
-        <v>0.9986478525904373</v>
+        <v>0.8618378690410959</v>
       </c>
       <c r="N18">
-        <v>1.003865288017256</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="O18">
-        <v>0.9989435090304506</v>
+        <v>1.02806814260274</v>
       </c>
       <c r="P18">
-        <v>0.9987873504476548</v>
+        <v>0.9016960808219179</v>
       </c>
       <c r="Q18">
-        <v>0.9991604497978912</v>
+        <v>0.9940382657534247</v>
       </c>
       <c r="R18">
-        <v>1.000479996304188</v>
+        <v>0.990704427762557</v>
       </c>
       <c r="S18">
-        <v>0.9989840304868806</v>
+        <v>0.9211335168493151</v>
       </c>
       <c r="T18">
-        <v>1.000479996304188</v>
+        <v>0.990704427762557</v>
       </c>
       <c r="U18">
-        <v>1.000204344869474</v>
+        <v>0.9830304180479451</v>
       </c>
       <c r="V18">
-        <v>1.000936533499031</v>
+        <v>1.020168558767123</v>
       </c>
       <c r="W18">
-        <v>0.9999796937064371</v>
+        <v>0.9851775237671233</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.012650277965596</v>
+        <v>0.5726272631578946</v>
       </c>
       <c r="D19">
-        <v>0.9994329317625291</v>
+        <v>0.9705775142105266</v>
       </c>
       <c r="E19">
-        <v>0.9949868409544491</v>
+        <v>1.170707226315789</v>
       </c>
       <c r="F19">
-        <v>1.012650277965596</v>
+        <v>0.5726272631578946</v>
       </c>
       <c r="G19">
-        <v>0.9983957125235369</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="H19">
-        <v>1.00077557371865</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="I19">
-        <v>1.012650277965596</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="J19">
-        <v>0.9994329317625291</v>
+        <v>0.9219627968421052</v>
       </c>
       <c r="K19">
-        <v>0.9951065390573742</v>
+        <v>1.155629747368421</v>
       </c>
       <c r="L19">
-        <v>1.003427300047778</v>
+        <v>1.065028971578947</v>
       </c>
       <c r="M19">
-        <v>0.9976651211920785</v>
+        <v>0.7443123710526317</v>
       </c>
       <c r="N19">
-        <v>1.012650277965596</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="O19">
-        <v>0.9949868409544491</v>
+        <v>1.170707226315789</v>
       </c>
       <c r="P19">
-        <v>0.9972098863584891</v>
+        <v>0.8716672447368419</v>
       </c>
       <c r="Q19">
-        <v>0.996691276738993</v>
+        <v>1.046335011578947</v>
       </c>
       <c r="R19">
-        <v>1.002356683560858</v>
+        <v>0.9616063259649121</v>
       </c>
       <c r="S19">
-        <v>0.9976051617468383</v>
+        <v>0.8884324287719297</v>
       </c>
       <c r="T19">
-        <v>1.002356683560858</v>
+        <v>0.9616063259649121</v>
       </c>
       <c r="U19">
-        <v>1.001366440801528</v>
+        <v>0.9516954436842104</v>
       </c>
       <c r="V19">
-        <v>1.003623208234341</v>
+        <v>0.9896532526315788</v>
       </c>
       <c r="W19">
-        <v>1.000305037152749</v>
+        <v>0.9677912973684211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.6430828315789473</v>
+      </c>
+      <c r="D20">
+        <v>0.9397761763157897</v>
+      </c>
+      <c r="E20">
+        <v>1.105817133157895</v>
+      </c>
+      <c r="F20">
+        <v>0.6430828315789473</v>
+      </c>
+      <c r="G20">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="H20">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="I20">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="J20">
+        <v>0.9198625594736843</v>
+      </c>
+      <c r="K20">
+        <v>1.13523858368421</v>
+      </c>
+      <c r="L20">
+        <v>1.07720468368421</v>
+      </c>
+      <c r="M20">
+        <v>0.7694709515789473</v>
+      </c>
+      <c r="N20">
+        <v>1.217488583684211</v>
+      </c>
+      <c r="O20">
+        <v>1.105817133157895</v>
+      </c>
+      <c r="P20">
+        <v>0.8744499823684211</v>
+      </c>
+      <c r="Q20">
+        <v>1.012839846315789</v>
+      </c>
+      <c r="R20">
+        <v>0.9887961828070176</v>
+      </c>
+      <c r="S20">
+        <v>0.8895875080701755</v>
+      </c>
+      <c r="T20">
+        <v>0.9887961828070176</v>
+      </c>
+      <c r="U20">
+        <v>0.9715627769736843</v>
+      </c>
+      <c r="V20">
+        <v>1.02074793831579</v>
+      </c>
+      <c r="W20">
+        <v>0.9759926878947369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8445659783132421</v>
+      </c>
+      <c r="D21">
+        <v>1.102998032050638</v>
+      </c>
+      <c r="E21">
+        <v>1.235985338522868</v>
+      </c>
+      <c r="F21">
+        <v>0.8445659783132421</v>
+      </c>
+      <c r="G21">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="H21">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="I21">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="J21">
+        <v>0.9839821906681218</v>
+      </c>
+      <c r="K21">
+        <v>1.073049922215758</v>
+      </c>
+      <c r="L21">
+        <v>0.9254025488209471</v>
+      </c>
+      <c r="M21">
+        <v>0.9399267206819536</v>
+      </c>
+      <c r="N21">
+        <v>0.7379786888945049</v>
+      </c>
+      <c r="O21">
+        <v>1.235985338522868</v>
+      </c>
+      <c r="P21">
+        <v>1.040275658418055</v>
+      </c>
+      <c r="Q21">
+        <v>1.109983764595495</v>
+      </c>
+      <c r="R21">
+        <v>0.9395100019102051</v>
+      </c>
+      <c r="S21">
+        <v>1.021511169168077</v>
+      </c>
+      <c r="T21">
+        <v>0.9395100019102051</v>
+      </c>
+      <c r="U21">
+        <v>0.9506280490996842</v>
+      </c>
+      <c r="V21">
+        <v>0.9080981770586483</v>
+      </c>
+      <c r="W21">
+        <v>0.9804861775210042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.072876860616356</v>
+      </c>
+      <c r="D22">
+        <v>0.9527956891369612</v>
+      </c>
+      <c r="E22">
+        <v>0.9056786444844415</v>
+      </c>
+      <c r="F22">
+        <v>1.072876860616356</v>
+      </c>
+      <c r="G22">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="H22">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="I22">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="J22">
+        <v>1.005100256857532</v>
+      </c>
+      <c r="K22">
+        <v>0.9735915800598406</v>
+      </c>
+      <c r="L22">
+        <v>1.031499836247014</v>
+      </c>
+      <c r="M22">
+        <v>1.024775151575367</v>
+      </c>
+      <c r="N22">
+        <v>1.103631212172284</v>
+      </c>
+      <c r="O22">
+        <v>0.9056786444844415</v>
+      </c>
+      <c r="P22">
+        <v>0.9892777525503986</v>
+      </c>
+      <c r="Q22">
+        <v>0.9553894506709866</v>
+      </c>
+      <c r="R22">
+        <v>1.02739557242436</v>
+      </c>
+      <c r="S22">
+        <v>0.9945519206527763</v>
+      </c>
+      <c r="T22">
+        <v>1.02739557242436</v>
+      </c>
+      <c r="U22">
+        <v>1.021821743532653</v>
+      </c>
+      <c r="V22">
+        <v>1.038183637260579</v>
+      </c>
+      <c r="W22">
+        <v>1.008743653893724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.187895999628548</v>
+      </c>
+      <c r="D23">
+        <v>0.989822568258243</v>
+      </c>
+      <c r="E23">
+        <v>0.8904628111246038</v>
+      </c>
+      <c r="F23">
+        <v>1.187895999628548</v>
+      </c>
+      <c r="G23">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="H23">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="I23">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="J23">
+        <v>1.031602234943925</v>
+      </c>
+      <c r="K23">
+        <v>0.9286602896621625</v>
+      </c>
+      <c r="L23">
+        <v>0.9913094303869343</v>
+      </c>
+      <c r="M23">
+        <v>1.105379758158648</v>
+      </c>
+      <c r="N23">
+        <v>1.000696487827281</v>
+      </c>
+      <c r="O23">
+        <v>0.8904628111246038</v>
+      </c>
+      <c r="P23">
+        <v>1.039179405376576</v>
+      </c>
+      <c r="Q23">
+        <v>0.9610325230342642</v>
+      </c>
+      <c r="R23">
+        <v>1.026351766193477</v>
+      </c>
+      <c r="S23">
+        <v>1.036653681899025</v>
+      </c>
+      <c r="T23">
+        <v>1.026351766193477</v>
+      </c>
+      <c r="U23">
+        <v>1.027664383381089</v>
+      </c>
+      <c r="V23">
+        <v>1.022270804270327</v>
+      </c>
+      <c r="W23">
+        <v>1.015728697498793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001865010045255</v>
+      </c>
+      <c r="D24">
+        <v>1.026113629659578</v>
+      </c>
+      <c r="E24">
+        <v>1.020952847632634</v>
+      </c>
+      <c r="F24">
+        <v>1.001865010045255</v>
+      </c>
+      <c r="G24">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="H24">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="I24">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="J24">
+        <v>1.007542000787464</v>
+      </c>
+      <c r="K24">
+        <v>0.9936918599102522</v>
+      </c>
+      <c r="L24">
+        <v>0.9811122009441192</v>
+      </c>
+      <c r="M24">
+        <v>1.013551388376755</v>
+      </c>
+      <c r="N24">
+        <v>0.9437532556325959</v>
+      </c>
+      <c r="O24">
+        <v>1.020952847632634</v>
+      </c>
+      <c r="P24">
+        <v>1.011408928838944</v>
+      </c>
+      <c r="Q24">
+        <v>1.014247424210049</v>
+      </c>
+      <c r="R24">
+        <v>0.9888570377701615</v>
+      </c>
+      <c r="S24">
+        <v>1.010119952821784</v>
+      </c>
+      <c r="T24">
+        <v>0.9888570377701614</v>
+      </c>
+      <c r="U24">
+        <v>0.993528278524487</v>
+      </c>
+      <c r="V24">
+        <v>0.9835732739461088</v>
+      </c>
+      <c r="W24">
+        <v>0.9985727741235815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.109005511854211</v>
+      </c>
+      <c r="D25">
+        <v>0.9548936614192146</v>
+      </c>
+      <c r="E25">
+        <v>0.8698305208771517</v>
+      </c>
+      <c r="F25">
+        <v>1.109005511854211</v>
+      </c>
+      <c r="G25">
+        <v>1.113951959080479</v>
+      </c>
+      <c r="H25">
+        <v>1.113951959080479</v>
+      </c>
+      <c r="I25">
+        <v>1.113951959080479</v>
+      </c>
+      <c r="J25">
+        <v>1.015975250433476</v>
+      </c>
+      <c r="K25">
+        <v>0.9492733421634566</v>
+      </c>
+      <c r="L25">
+        <v>1.030670291493955</v>
+      </c>
+      <c r="M25">
+        <v>1.051428623972293</v>
+      </c>
+      <c r="N25">
+        <v>1.113951959080479</v>
+      </c>
+      <c r="O25">
+        <v>0.8698305208771517</v>
+      </c>
+      <c r="P25">
+        <v>0.9894180163656812</v>
+      </c>
+      <c r="Q25">
+        <v>0.9429028856553137</v>
+      </c>
+      <c r="R25">
+        <v>1.030929330603947</v>
+      </c>
+      <c r="S25">
+        <v>0.9982704277216126</v>
+      </c>
+      <c r="T25">
+        <v>1.030929330603947</v>
+      </c>
+      <c r="U25">
+        <v>1.027190810561329</v>
+      </c>
+      <c r="V25">
+        <v>1.044543040265159</v>
+      </c>
+      <c r="W25">
+        <v>1.011878645161779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.975665075282191</v>
+      </c>
+      <c r="D26">
+        <v>1.02285522193058</v>
+      </c>
+      <c r="E26">
+        <v>1.047162307776834</v>
+      </c>
+      <c r="F26">
+        <v>0.975665075282191</v>
+      </c>
+      <c r="G26">
+        <v>0.9392558632728824</v>
+      </c>
+      <c r="H26">
+        <v>0.9392558632728824</v>
+      </c>
+      <c r="I26">
+        <v>0.9392558632728824</v>
+      </c>
+      <c r="J26">
+        <v>0.9985859047329304</v>
+      </c>
+      <c r="K26">
+        <v>1.012457872582504</v>
+      </c>
+      <c r="L26">
+        <v>0.9826684138370345</v>
+      </c>
+      <c r="M26">
+        <v>0.9927081640528227</v>
+      </c>
+      <c r="N26">
+        <v>0.9392558632728824</v>
+      </c>
+      <c r="O26">
+        <v>1.047162307776834</v>
+      </c>
+      <c r="P26">
+        <v>1.011413691529513</v>
+      </c>
+      <c r="Q26">
+        <v>1.022874106254882</v>
+      </c>
+      <c r="R26">
+        <v>0.9873610821106359</v>
+      </c>
+      <c r="S26">
+        <v>1.007137762597319</v>
+      </c>
+      <c r="T26">
+        <v>0.9873610821106359</v>
+      </c>
+      <c r="U26">
+        <v>0.9901672877662095</v>
+      </c>
+      <c r="V26">
+        <v>0.9799850028675442</v>
+      </c>
+      <c r="W26">
+        <v>0.9964198529334725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9809057383080932</v>
+      </c>
+      <c r="D27">
+        <v>0.9908686932234418</v>
+      </c>
+      <c r="E27">
+        <v>1.014617426058764</v>
+      </c>
+      <c r="F27">
+        <v>0.9809057383080932</v>
+      </c>
+      <c r="G27">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="H27">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="I27">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="J27">
+        <v>0.9844898415946287</v>
+      </c>
+      <c r="K27">
+        <v>1.016173737126464</v>
+      </c>
+      <c r="L27">
+        <v>1.002823660076134</v>
+      </c>
+      <c r="M27">
+        <v>0.9781209489282335</v>
+      </c>
+      <c r="N27">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="O27">
+        <v>1.014617426058764</v>
+      </c>
+      <c r="P27">
+        <v>0.9977615821834285</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995536338266962</v>
+      </c>
+      <c r="R27">
+        <v>1.007965452403942</v>
+      </c>
+      <c r="S27">
+        <v>0.9933376686538286</v>
+      </c>
+      <c r="T27">
+        <v>1.007965452403942</v>
+      </c>
+      <c r="U27">
+        <v>1.002096549701614</v>
+      </c>
+      <c r="V27">
+        <v>1.007351878330285</v>
+      </c>
+      <c r="W27">
+        <v>0.999546654770091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.972468383476443</v>
+      </c>
+      <c r="D28">
+        <v>0.9883221638842656</v>
+      </c>
+      <c r="E28">
+        <v>1.00124129421558</v>
+      </c>
+      <c r="F28">
+        <v>0.972468383476443</v>
+      </c>
+      <c r="G28">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="H28">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="I28">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="J28">
+        <v>0.98986299460962</v>
+      </c>
+      <c r="K28">
+        <v>1.01189402586126</v>
+      </c>
+      <c r="L28">
+        <v>1.008657639877527</v>
+      </c>
+      <c r="M28">
+        <v>0.9798282123599636</v>
+      </c>
+      <c r="N28">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="O28">
+        <v>1.00124129421558</v>
+      </c>
+      <c r="P28">
+        <v>0.9868548388460112</v>
+      </c>
+      <c r="Q28">
+        <v>0.9955521444125998</v>
+      </c>
+      <c r="R28">
+        <v>1.004229068594252</v>
+      </c>
+      <c r="S28">
+        <v>0.9878575574338808</v>
+      </c>
+      <c r="T28">
+        <v>1.004229068594252</v>
+      </c>
+      <c r="U28">
+        <v>1.000637550098094</v>
+      </c>
+      <c r="V28">
+        <v>1.008305545696622</v>
+      </c>
+      <c r="W28">
+        <v>0.998906530296924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.083615980229904</v>
+      </c>
+      <c r="D29">
+        <v>0.9916034249269916</v>
+      </c>
+      <c r="E29">
+        <v>0.9114000509143481</v>
+      </c>
+      <c r="F29">
+        <v>1.083615980229904</v>
+      </c>
+      <c r="G29">
+        <v>1.021966214789055</v>
+      </c>
+      <c r="H29">
+        <v>1.021966214789055</v>
+      </c>
+      <c r="I29">
+        <v>1.021966214789055</v>
+      </c>
+      <c r="J29">
+        <v>1.028137405539169</v>
+      </c>
+      <c r="K29">
+        <v>0.951133377140954</v>
+      </c>
+      <c r="L29">
+        <v>1.006752595585499</v>
+      </c>
+      <c r="M29">
+        <v>1.060624855465517</v>
+      </c>
+      <c r="N29">
+        <v>1.021966214789055</v>
+      </c>
+      <c r="O29">
+        <v>0.9114000509143481</v>
+      </c>
+      <c r="P29">
+        <v>0.9975080155721259</v>
+      </c>
+      <c r="Q29">
+        <v>0.9697687282267587</v>
+      </c>
+      <c r="R29">
+        <v>1.005660748644436</v>
+      </c>
+      <c r="S29">
+        <v>1.007717812227807</v>
+      </c>
+      <c r="T29">
+        <v>1.005660748644436</v>
+      </c>
+      <c r="U29">
+        <v>1.011279912868119</v>
+      </c>
+      <c r="V29">
+        <v>1.013417173252307</v>
+      </c>
+      <c r="W29">
+        <v>1.00690423807393</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8809142359906442</v>
+        <v>0.9167048442105343</v>
       </c>
       <c r="D4">
-        <v>0.972461682443677</v>
+        <v>0.987090288217176</v>
       </c>
       <c r="E4">
-        <v>1.026958608901374</v>
+        <v>1.023535293851512</v>
       </c>
       <c r="F4">
-        <v>0.8809142359906442</v>
+        <v>0.9167048442105343</v>
       </c>
       <c r="G4">
-        <v>1.086842097008515</v>
+        <v>1.041537835309732</v>
       </c>
       <c r="H4">
-        <v>1.086842097008515</v>
+        <v>1.041537835309732</v>
       </c>
       <c r="I4">
-        <v>1.086842097008515</v>
+        <v>1.041537835309732</v>
       </c>
       <c r="J4">
-        <v>0.9731865959816755</v>
+        <v>0.9852515948684709</v>
       </c>
       <c r="K4">
-        <v>1.045371513820956</v>
+        <v>1.030015189731896</v>
       </c>
       <c r="L4">
-        <v>1.032308170897378</v>
+        <v>1.019400545012447</v>
       </c>
       <c r="M4">
-        <v>0.9206424078894028</v>
+        <v>0.9482888522886822</v>
       </c>
       <c r="N4">
-        <v>1.086842097008515</v>
+        <v>1.041537835309732</v>
       </c>
       <c r="O4">
-        <v>1.026958608901374</v>
+        <v>1.023535293851512</v>
       </c>
       <c r="P4">
-        <v>0.953936422446009</v>
+        <v>0.970120069031023</v>
       </c>
       <c r="Q4">
-        <v>1.000072602441525</v>
+        <v>1.004393444359991</v>
       </c>
       <c r="R4">
-        <v>0.9982383139668443</v>
+        <v>0.993925991123926</v>
       </c>
       <c r="S4">
-        <v>0.9603531469578979</v>
+        <v>0.975163910976839</v>
       </c>
       <c r="T4">
-        <v>0.9982383139668443</v>
+        <v>0.993925991123926</v>
       </c>
       <c r="U4">
-        <v>0.9919753844705521</v>
+        <v>0.9917573920600622</v>
       </c>
       <c r="V4">
-        <v>1.010948726978145</v>
+        <v>1.001713480709996</v>
       </c>
       <c r="W4">
-        <v>0.9923356641167027</v>
+        <v>0.9939780554363062</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.894425828904899</v>
+        <v>0.6723145076512332</v>
       </c>
       <c r="D5">
-        <v>0.9825012848126797</v>
+        <v>0.9490549473187831</v>
       </c>
       <c r="E5">
-        <v>1.027223397788185</v>
+        <v>1.108210702930321</v>
       </c>
       <c r="F5">
-        <v>0.894425828904899</v>
+        <v>0.6723145076512332</v>
       </c>
       <c r="G5">
-        <v>1.056333606030259</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="H5">
-        <v>1.056333606030259</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="I5">
-        <v>1.056333606030259</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="J5">
-        <v>0.9814334685374655</v>
+        <v>0.9221919496667602</v>
       </c>
       <c r="K5">
-        <v>1.037458518897693</v>
+        <v>1.127174862913936</v>
       </c>
       <c r="L5">
-        <v>1.025790648508648</v>
+        <v>1.064098972634603</v>
       </c>
       <c r="M5">
-        <v>0.9343602374639782</v>
+        <v>0.7873543232821602</v>
       </c>
       <c r="N5">
-        <v>1.056333606030259</v>
+        <v>1.194291616523295</v>
       </c>
       <c r="O5">
-        <v>1.027223397788185</v>
+        <v>1.108210702930321</v>
       </c>
       <c r="P5">
-        <v>0.9608246133465418</v>
+        <v>0.8902626052907774</v>
       </c>
       <c r="Q5">
-        <v>1.004328433162825</v>
+        <v>1.015201326298541</v>
       </c>
       <c r="R5">
-        <v>0.9926609442411142</v>
+        <v>0.9916056090349499</v>
       </c>
       <c r="S5">
-        <v>0.9676942317435163</v>
+        <v>0.9009057200827716</v>
       </c>
       <c r="T5">
-        <v>0.9926609442411142</v>
+        <v>0.9916056090349498</v>
       </c>
       <c r="U5">
-        <v>0.9898540753152021</v>
+        <v>0.9742521941929023</v>
       </c>
       <c r="V5">
-        <v>1.003149981458213</v>
+        <v>1.018260078658981</v>
       </c>
       <c r="W5">
-        <v>0.992440873867976</v>
+        <v>0.9780864853651365</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.648351869761852</v>
+        <v>0.8809142359906442</v>
       </c>
       <c r="D6">
-        <v>0.9446933862855331</v>
+        <v>0.972461682443677</v>
       </c>
       <c r="E6">
-        <v>1.09040173091369</v>
+        <v>1.026958608901374</v>
       </c>
       <c r="F6">
-        <v>0.648351869761852</v>
+        <v>0.8809142359906442</v>
       </c>
       <c r="G6">
-        <v>1.162401029030982</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="H6">
-        <v>1.162401029030982</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="I6">
-        <v>1.162401029030982</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="J6">
-        <v>0.9462092559829529</v>
+        <v>0.9731865959816755</v>
       </c>
       <c r="K6">
-        <v>1.123274969013006</v>
+        <v>1.045371513820956</v>
       </c>
       <c r="L6">
-        <v>1.0883412399142</v>
+        <v>1.032308170897378</v>
       </c>
       <c r="M6">
-        <v>0.7851076541624253</v>
+        <v>0.9206424078894028</v>
       </c>
       <c r="N6">
-        <v>1.162401029030982</v>
+        <v>1.086842097008515</v>
       </c>
       <c r="O6">
-        <v>1.09040173091369</v>
+        <v>1.026958608901374</v>
       </c>
       <c r="P6">
-        <v>0.8693768003377711</v>
+        <v>0.953936422446009</v>
       </c>
       <c r="Q6">
-        <v>1.018305493448322</v>
+        <v>1.000072602441525</v>
       </c>
       <c r="R6">
-        <v>0.9670515432355081</v>
+        <v>0.9982383139668443</v>
       </c>
       <c r="S6">
-        <v>0.894987618886165</v>
+        <v>0.9603531469578979</v>
       </c>
       <c r="T6">
-        <v>0.9670515432355081</v>
+        <v>0.9982383139668443</v>
       </c>
       <c r="U6">
-        <v>0.9618409714223692</v>
+        <v>0.9919753844705521</v>
       </c>
       <c r="V6">
-        <v>1.001952982944092</v>
+        <v>1.010948726978145</v>
       </c>
       <c r="W6">
-        <v>0.9735976418830802</v>
+        <v>0.9923356641167027</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9892672612739507</v>
+        <v>0.894425828904899</v>
       </c>
       <c r="D7">
-        <v>0.9975038678713098</v>
+        <v>0.9825012848126797</v>
       </c>
       <c r="E7">
-        <v>1.000871268727988</v>
+        <v>1.027223397788185</v>
       </c>
       <c r="F7">
-        <v>0.9892672612739507</v>
+        <v>0.894425828904899</v>
       </c>
       <c r="G7">
-        <v>1.009141359297385</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="H7">
-        <v>1.009141359297385</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="I7">
-        <v>1.009141359297385</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="J7">
-        <v>0.997975310105422</v>
+        <v>0.9814334685374655</v>
       </c>
       <c r="K7">
-        <v>1.00329714421833</v>
+        <v>1.037458518897693</v>
       </c>
       <c r="L7">
-        <v>1.003262278627982</v>
+        <v>1.025790648508648</v>
       </c>
       <c r="M7">
-        <v>0.9932685805467162</v>
+        <v>0.9343602374639782</v>
       </c>
       <c r="N7">
-        <v>1.009141359297385</v>
+        <v>1.056333606030259</v>
       </c>
       <c r="O7">
-        <v>1.000871268727988</v>
+        <v>1.027223397788185</v>
       </c>
       <c r="P7">
-        <v>0.9950692650009694</v>
+        <v>0.9608246133465418</v>
       </c>
       <c r="Q7">
-        <v>0.999423289416705</v>
+        <v>1.004328433162825</v>
       </c>
       <c r="R7">
-        <v>0.9997599630997748</v>
+        <v>0.9926609442411142</v>
       </c>
       <c r="S7">
-        <v>0.9960379467024536</v>
+        <v>0.9676942317435163</v>
       </c>
       <c r="T7">
-        <v>0.9997599630997748</v>
+        <v>0.9926609442411142</v>
       </c>
       <c r="U7">
-        <v>0.9993137998511866</v>
+        <v>0.9898540753152021</v>
       </c>
       <c r="V7">
-        <v>1.001279311740426</v>
+        <v>1.003149981458213</v>
       </c>
       <c r="W7">
-        <v>0.9993233838336355</v>
+        <v>0.992440873867976</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9984064682870296</v>
+        <v>0.648351869761852</v>
       </c>
       <c r="D8">
-        <v>1.000293258016512</v>
+        <v>0.9446933862855331</v>
       </c>
       <c r="E8">
-        <v>1.000958453497701</v>
+        <v>1.09040173091369</v>
       </c>
       <c r="F8">
-        <v>0.9984064682870296</v>
+        <v>0.648351869761852</v>
       </c>
       <c r="G8">
-        <v>0.9995049718941543</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="H8">
-        <v>0.9995049718941543</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="I8">
-        <v>0.9995049718941543</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="J8">
-        <v>0.9998952112129228</v>
+        <v>0.9462092559829529</v>
       </c>
       <c r="K8">
-        <v>1.000467920825296</v>
+        <v>1.123274969013006</v>
       </c>
       <c r="L8">
-        <v>1.000016375249329</v>
+        <v>1.0883412399142</v>
       </c>
       <c r="M8">
-        <v>0.9992452912526422</v>
+        <v>0.7851076541624253</v>
       </c>
       <c r="N8">
-        <v>0.9995049718941543</v>
+        <v>1.162401029030982</v>
       </c>
       <c r="O8">
-        <v>1.000958453497701</v>
+        <v>1.09040173091369</v>
       </c>
       <c r="P8">
-        <v>0.9996824608923651</v>
+        <v>0.8693768003377711</v>
       </c>
       <c r="Q8">
-        <v>1.000426832355312</v>
+        <v>1.018305493448322</v>
       </c>
       <c r="R8">
-        <v>0.9996232978929616</v>
+        <v>0.9670515432355081</v>
       </c>
       <c r="S8">
-        <v>0.9997533776658843</v>
+        <v>0.894987618886165</v>
       </c>
       <c r="T8">
-        <v>0.9996232978929616</v>
+        <v>0.9670515432355081</v>
       </c>
       <c r="U8">
-        <v>0.9996912762229518</v>
+        <v>0.9618409714223692</v>
       </c>
       <c r="V8">
-        <v>0.9996540153571922</v>
+        <v>1.001952982944092</v>
       </c>
       <c r="W8">
-        <v>0.9998484937794484</v>
+        <v>0.9735976418830802</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9815948547224941</v>
+        <v>0.9892672612739507</v>
       </c>
       <c r="D9">
-        <v>0.9966804591690743</v>
+        <v>0.9975038678713098</v>
       </c>
       <c r="E9">
-        <v>1.002740275294674</v>
+        <v>1.000871268727988</v>
       </c>
       <c r="F9">
-        <v>0.9815948547224941</v>
+        <v>0.9892672612739507</v>
       </c>
       <c r="G9">
-        <v>1.01289675175458</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="H9">
-        <v>1.01289675175458</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="I9">
-        <v>1.01289675175458</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="J9">
-        <v>0.9967804671190671</v>
+        <v>0.997975310105422</v>
       </c>
       <c r="K9">
-        <v>1.005689283552385</v>
+        <v>1.00329714421833</v>
       </c>
       <c r="L9">
-        <v>1.004884269917298</v>
+        <v>1.003262278627982</v>
       </c>
       <c r="M9">
-        <v>0.9888001919173405</v>
+        <v>0.9932685805467162</v>
       </c>
       <c r="N9">
-        <v>1.01289675175458</v>
+        <v>1.009141359297385</v>
       </c>
       <c r="O9">
-        <v>1.002740275294674</v>
+        <v>1.000871268727988</v>
       </c>
       <c r="P9">
-        <v>0.9921675650085842</v>
+        <v>0.9950692650009694</v>
       </c>
       <c r="Q9">
-        <v>0.9997603712068708</v>
+        <v>0.999423289416705</v>
       </c>
       <c r="R9">
-        <v>0.9990772939239161</v>
+        <v>0.9997599630997748</v>
       </c>
       <c r="S9">
-        <v>0.9937051990454119</v>
+        <v>0.9960379467024536</v>
       </c>
       <c r="T9">
-        <v>0.9990772939239161</v>
+        <v>0.9997599630997748</v>
       </c>
       <c r="U9">
-        <v>0.9985030872227039</v>
+        <v>0.9993137998511866</v>
       </c>
       <c r="V9">
-        <v>1.001381820129079</v>
+        <v>1.001279311740426</v>
       </c>
       <c r="W9">
-        <v>0.9987583191808642</v>
+        <v>0.9993233838336355</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6416570563612014</v>
+        <v>0.9984064682870296</v>
       </c>
       <c r="D10">
-        <v>0.9443193950892829</v>
+        <v>1.000293258016512</v>
       </c>
       <c r="E10">
-        <v>1.091491242421549</v>
+        <v>1.000958453497701</v>
       </c>
       <c r="F10">
-        <v>0.6416570563612014</v>
+        <v>0.9984064682870296</v>
       </c>
       <c r="G10">
-        <v>1.163986313852021</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="H10">
-        <v>1.163986313852021</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="I10">
-        <v>1.163986313852021</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="J10">
-        <v>0.9460626210607128</v>
+        <v>0.9998952112129228</v>
       </c>
       <c r="K10">
-        <v>1.124835773509</v>
+        <v>1.000467920825296</v>
       </c>
       <c r="L10">
-        <v>1.089996117596358</v>
+        <v>1.000016375249329</v>
       </c>
       <c r="M10">
-        <v>0.7818119237339655</v>
+        <v>0.9992452912526422</v>
       </c>
       <c r="N10">
-        <v>1.163986313852021</v>
+        <v>0.9995049718941543</v>
       </c>
       <c r="O10">
-        <v>1.091491242421549</v>
+        <v>1.000958453497701</v>
       </c>
       <c r="P10">
-        <v>0.8665741493913751</v>
+        <v>0.9996824608923651</v>
       </c>
       <c r="Q10">
-        <v>1.018776931741131</v>
+        <v>1.000426832355312</v>
       </c>
       <c r="R10">
-        <v>0.9657115375449239</v>
+        <v>0.9996232978929616</v>
       </c>
       <c r="S10">
-        <v>0.8930703066144877</v>
+        <v>0.9997533776658843</v>
       </c>
       <c r="T10">
-        <v>0.9657115375449239</v>
+        <v>0.9996232978929616</v>
       </c>
       <c r="U10">
-        <v>0.9607993084238711</v>
+        <v>0.9996912762229518</v>
       </c>
       <c r="V10">
-        <v>1.001436709509501</v>
+        <v>0.9996540153571922</v>
       </c>
       <c r="W10">
-        <v>0.9730200554530113</v>
+        <v>0.9998484937794484</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9417378798592237</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="D11">
-        <v>0.9841506294346064</v>
+        <v>0.9966804591690743</v>
       </c>
       <c r="E11">
-        <v>1.014030149899054</v>
+        <v>1.002740275294674</v>
       </c>
       <c r="F11">
-        <v>0.9417378798592237</v>
+        <v>0.9815948547224941</v>
       </c>
       <c r="G11">
-        <v>1.041699117332288</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="H11">
-        <v>1.041699117332288</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="I11">
-        <v>1.041699117332288</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="J11">
-        <v>0.986641665426476</v>
+        <v>0.9967804671190671</v>
       </c>
       <c r="K11">
-        <v>1.024233860392286</v>
+        <v>1.005689283552385</v>
       </c>
       <c r="L11">
-        <v>1.017468240674074</v>
+        <v>1.004884269917298</v>
       </c>
       <c r="M11">
-        <v>0.9596564808262407</v>
+        <v>0.9888001919173405</v>
       </c>
       <c r="N11">
-        <v>1.041699117332288</v>
+        <v>1.01289675175458</v>
       </c>
       <c r="O11">
-        <v>1.014030149899054</v>
+        <v>1.002740275294674</v>
       </c>
       <c r="P11">
-        <v>0.9778840148791388</v>
+        <v>0.9921675650085842</v>
       </c>
       <c r="Q11">
-        <v>1.000335907662765</v>
+        <v>0.9997603712068708</v>
       </c>
       <c r="R11">
-        <v>0.9991557156968552</v>
+        <v>0.9990772939239161</v>
       </c>
       <c r="S11">
-        <v>0.9808032317282512</v>
+        <v>0.9937051990454119</v>
       </c>
       <c r="T11">
-        <v>0.9991557156968552</v>
+        <v>0.9990772939239161</v>
       </c>
       <c r="U11">
-        <v>0.9960272031292605</v>
+        <v>0.9985030872227039</v>
       </c>
       <c r="V11">
-        <v>1.005161585969866</v>
+        <v>1.001381820129079</v>
       </c>
       <c r="W11">
-        <v>0.9962022529805312</v>
+        <v>0.9987583191808642</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.890239461589474</v>
+        <v>0.6416570563612014</v>
       </c>
       <c r="D12">
-        <v>0.9840889012947381</v>
+        <v>0.9443193950892829</v>
       </c>
       <c r="E12">
-        <v>1.028291055368421</v>
+        <v>1.091491242421549</v>
       </c>
       <c r="F12">
-        <v>0.890239461589474</v>
+        <v>0.6416570563612014</v>
       </c>
       <c r="G12">
-        <v>1.051758671873682</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="H12">
-        <v>1.051758671873682</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="I12">
-        <v>1.051758671873682</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="J12">
-        <v>0.9829722956421074</v>
+        <v>0.9460626210607128</v>
       </c>
       <c r="K12">
-        <v>1.037501277505265</v>
+        <v>1.124835773509</v>
       </c>
       <c r="L12">
-        <v>1.026255125547368</v>
+        <v>1.089996117596358</v>
       </c>
       <c r="M12">
-        <v>0.9337134315368428</v>
+        <v>0.7818119237339655</v>
       </c>
       <c r="N12">
-        <v>1.051758671873682</v>
+        <v>1.163986313852021</v>
       </c>
       <c r="O12">
-        <v>1.028291055368421</v>
+        <v>1.091491242421549</v>
       </c>
       <c r="P12">
-        <v>0.9592652584789474</v>
+        <v>0.8665741493913751</v>
       </c>
       <c r="Q12">
-        <v>1.005631675505264</v>
+        <v>1.018776931741131</v>
       </c>
       <c r="R12">
-        <v>0.9900963962771921</v>
+        <v>0.9657115375449239</v>
       </c>
       <c r="S12">
-        <v>0.9671676042000007</v>
+        <v>0.8930703066144877</v>
       </c>
       <c r="T12">
-        <v>0.9900963962771921</v>
+        <v>0.9657115375449239</v>
       </c>
       <c r="U12">
-        <v>0.9883153711184209</v>
+        <v>0.9607993084238711</v>
       </c>
       <c r="V12">
-        <v>1.001004031269473</v>
+        <v>1.001436709509501</v>
       </c>
       <c r="W12">
-        <v>0.9918525275447372</v>
+        <v>0.9730200554530113</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.061097929398163</v>
+        <v>0.9417378798592237</v>
       </c>
       <c r="D13">
-        <v>1.013100840736282</v>
+        <v>0.9841506294346064</v>
       </c>
       <c r="E13">
-        <v>0.9801754583384891</v>
+        <v>1.014030149899054</v>
       </c>
       <c r="F13">
-        <v>1.061097929398163</v>
+        <v>0.9417378798592237</v>
       </c>
       <c r="G13">
-        <v>0.9593775912998284</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="H13">
-        <v>0.9593775912998284</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="I13">
-        <v>0.9593775912998284</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="J13">
-        <v>1.015650748187293</v>
+        <v>0.986641665426476</v>
       </c>
       <c r="K13">
-        <v>0.974326310809025</v>
+        <v>1.024233860392286</v>
       </c>
       <c r="L13">
-        <v>0.9856606499907974</v>
+        <v>1.017468240674074</v>
       </c>
       <c r="M13">
-        <v>1.042026922805725</v>
+        <v>0.9596564808262407</v>
       </c>
       <c r="N13">
-        <v>0.9593775912998284</v>
+        <v>1.041699117332288</v>
       </c>
       <c r="O13">
-        <v>0.9801754583384891</v>
+        <v>1.014030149899054</v>
       </c>
       <c r="P13">
-        <v>1.020636693868326</v>
+        <v>0.9778840148791388</v>
       </c>
       <c r="Q13">
-        <v>0.9979131032628912</v>
+        <v>1.000335907662765</v>
       </c>
       <c r="R13">
-        <v>1.00021699301216</v>
+        <v>0.9991557156968552</v>
       </c>
       <c r="S13">
-        <v>1.018974711974648</v>
+        <v>0.9808032317282512</v>
       </c>
       <c r="T13">
-        <v>1.00021699301216</v>
+        <v>0.9991557156968552</v>
       </c>
       <c r="U13">
-        <v>1.004075431805943</v>
+        <v>0.9960272031292605</v>
       </c>
       <c r="V13">
-        <v>0.9951358637047203</v>
+        <v>1.005161585969866</v>
       </c>
       <c r="W13">
-        <v>1.0039270564457</v>
+        <v>0.9962022529805312</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3808527599999998</v>
+        <v>0.890239461589474</v>
       </c>
       <c r="D14">
-        <v>0.9033378900000014</v>
+        <v>0.9840889012947381</v>
       </c>
       <c r="E14">
-        <v>1.158544699999998</v>
+        <v>1.028291055368421</v>
       </c>
       <c r="F14">
-        <v>0.3808527599999998</v>
+        <v>0.890239461589474</v>
       </c>
       <c r="G14">
-        <v>1.2800565</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="H14">
-        <v>1.2800565</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="I14">
-        <v>1.2800565</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="J14">
-        <v>0.9074145599999998</v>
+        <v>0.9829722956421074</v>
       </c>
       <c r="K14">
-        <v>1.2164496</v>
+        <v>1.037501277505265</v>
       </c>
       <c r="L14">
-        <v>1.1562942</v>
+        <v>1.026255125547368</v>
       </c>
       <c r="M14">
-        <v>0.622681900000001</v>
+        <v>0.9337134315368428</v>
       </c>
       <c r="N14">
-        <v>1.2800565</v>
+        <v>1.051758671873682</v>
       </c>
       <c r="O14">
-        <v>1.158544699999998</v>
+        <v>1.028291055368421</v>
       </c>
       <c r="P14">
-        <v>0.7696987299999991</v>
+        <v>0.9592652584789474</v>
       </c>
       <c r="Q14">
-        <v>1.032979629999999</v>
+        <v>1.005631675505264</v>
       </c>
       <c r="R14">
-        <v>0.9398179866666663</v>
+        <v>0.9900963962771921</v>
       </c>
       <c r="S14">
-        <v>0.815604006666666</v>
+        <v>0.9671676042000007</v>
       </c>
       <c r="T14">
-        <v>0.9398179866666663</v>
+        <v>0.9900963962771921</v>
       </c>
       <c r="U14">
-        <v>0.9317171299999997</v>
+        <v>0.9883153711184209</v>
       </c>
       <c r="V14">
-        <v>1.001385004</v>
+        <v>1.001004031269473</v>
       </c>
       <c r="W14">
-        <v>0.9532040137500002</v>
+        <v>0.9918525275447372</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.25063503</v>
+        <v>1.061097929398163</v>
       </c>
       <c r="D15">
-        <v>0.6914528900000001</v>
+        <v>1.013100840736282</v>
       </c>
       <c r="E15">
-        <v>0.89582235</v>
+        <v>0.9801754583384891</v>
       </c>
       <c r="F15">
-        <v>0.25063503</v>
+        <v>1.061097929398163</v>
       </c>
       <c r="G15">
-        <v>1.8983336</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="H15">
-        <v>1.8983336</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="I15">
-        <v>1.8983336</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="J15">
-        <v>0.8620694299999999</v>
+        <v>1.015650748187293</v>
       </c>
       <c r="K15">
-        <v>1.2290598</v>
+        <v>0.974326310809025</v>
       </c>
       <c r="L15">
-        <v>1.3509299</v>
+        <v>0.9856606499907974</v>
       </c>
       <c r="M15">
-        <v>0.48869878</v>
+        <v>1.042026922805725</v>
       </c>
       <c r="N15">
-        <v>1.8983336</v>
+        <v>0.9593775912998284</v>
       </c>
       <c r="O15">
-        <v>0.89582235</v>
+        <v>0.9801754583384891</v>
       </c>
       <c r="P15">
-        <v>0.57322869</v>
+        <v>1.020636693868326</v>
       </c>
       <c r="Q15">
-        <v>0.87894589</v>
+        <v>0.9979131032628912</v>
       </c>
       <c r="R15">
-        <v>1.014930326666667</v>
+        <v>1.00021699301216</v>
       </c>
       <c r="S15">
-        <v>0.6695089366666666</v>
+        <v>1.018974711974648</v>
       </c>
       <c r="T15">
-        <v>1.014930326666666</v>
+        <v>1.00021699301216</v>
       </c>
       <c r="U15">
-        <v>0.9767151024999999</v>
+        <v>1.004075431805943</v>
       </c>
       <c r="V15">
-        <v>1.161038802</v>
+        <v>0.9951358637047203</v>
       </c>
       <c r="W15">
-        <v>0.9583752225</v>
+        <v>1.0039270564457</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.21852547</v>
+        <v>0.3808527599999998</v>
       </c>
       <c r="D16">
-        <v>0.77312672</v>
+        <v>0.9033378900000014</v>
       </c>
       <c r="E16">
-        <v>1.1468171</v>
+        <v>1.158544699999998</v>
       </c>
       <c r="F16">
-        <v>0.21852547</v>
+        <v>0.3808527599999998</v>
       </c>
       <c r="G16">
-        <v>1.6505978</v>
+        <v>1.2800565</v>
       </c>
       <c r="H16">
-        <v>1.6505978</v>
+        <v>1.2800565</v>
       </c>
       <c r="I16">
-        <v>1.6505978</v>
+        <v>1.2800565</v>
       </c>
       <c r="J16">
-        <v>0.80860235</v>
+        <v>0.9074145599999998</v>
       </c>
       <c r="K16">
-        <v>1.3164403</v>
+        <v>1.2164496</v>
       </c>
       <c r="L16">
-        <v>1.242613</v>
+        <v>1.1562942</v>
       </c>
       <c r="M16">
-        <v>0.45448393</v>
+        <v>0.622681900000001</v>
       </c>
       <c r="N16">
-        <v>1.6505978</v>
+        <v>1.2800565</v>
       </c>
       <c r="O16">
-        <v>1.1468171</v>
+        <v>1.158544699999998</v>
       </c>
       <c r="P16">
-        <v>0.6826712850000001</v>
+        <v>0.7696987299999991</v>
       </c>
       <c r="Q16">
-        <v>0.977709725</v>
+        <v>1.032979629999999</v>
       </c>
       <c r="R16">
-        <v>1.005313456666667</v>
+        <v>0.9398179866666663</v>
       </c>
       <c r="S16">
-        <v>0.7246483066666668</v>
+        <v>0.815604006666666</v>
       </c>
       <c r="T16">
-        <v>1.005313456666667</v>
+        <v>0.9398179866666663</v>
       </c>
       <c r="U16">
-        <v>0.95613568</v>
+        <v>0.9317171299999997</v>
       </c>
       <c r="V16">
-        <v>1.095028104</v>
+        <v>1.001385004</v>
       </c>
       <c r="W16">
-        <v>0.95140083375</v>
+        <v>0.9532040137500002</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8289069100000001</v>
+        <v>0.25063503</v>
       </c>
       <c r="D17">
-        <v>0.90458591</v>
+        <v>0.6914528900000001</v>
       </c>
       <c r="E17">
-        <v>0.88507895</v>
+        <v>0.89582235</v>
       </c>
       <c r="F17">
-        <v>0.8289069100000001</v>
+        <v>0.25063503</v>
       </c>
       <c r="G17">
-        <v>1.3252711</v>
+        <v>1.8983336</v>
       </c>
       <c r="H17">
-        <v>1.3252711</v>
+        <v>1.8983336</v>
       </c>
       <c r="I17">
-        <v>1.3252711</v>
+        <v>1.8983336</v>
       </c>
       <c r="J17">
-        <v>0.97535277</v>
+        <v>0.8620694299999999</v>
       </c>
       <c r="K17">
-        <v>1.0236192</v>
+        <v>1.2290598</v>
       </c>
       <c r="L17">
-        <v>1.1085808</v>
+        <v>1.3509299</v>
       </c>
       <c r="M17">
-        <v>0.8920136</v>
+        <v>0.48869878</v>
       </c>
       <c r="N17">
-        <v>1.3252711</v>
+        <v>1.8983336</v>
       </c>
       <c r="O17">
-        <v>0.88507895</v>
+        <v>0.89582235</v>
       </c>
       <c r="P17">
-        <v>0.8569929300000001</v>
+        <v>0.57322869</v>
       </c>
       <c r="Q17">
-        <v>0.93021586</v>
+        <v>0.87894589</v>
       </c>
       <c r="R17">
-        <v>1.013085653333333</v>
+        <v>1.014930326666667</v>
       </c>
       <c r="S17">
-        <v>0.89644621</v>
+        <v>0.6695089366666666</v>
       </c>
       <c r="T17">
-        <v>1.013085653333333</v>
+        <v>1.014930326666666</v>
       </c>
       <c r="U17">
-        <v>1.0036524325</v>
+        <v>0.9767151024999999</v>
       </c>
       <c r="V17">
-        <v>1.067976166</v>
+        <v>1.161038802</v>
       </c>
       <c r="W17">
-        <v>0.9929261549999999</v>
+        <v>0.9583752225</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7753240190410959</v>
+        <v>0.21852547</v>
       </c>
       <c r="D18">
-        <v>0.9551662924657534</v>
+        <v>0.77312672</v>
       </c>
       <c r="E18">
-        <v>1.02806814260274</v>
+        <v>1.1468171</v>
       </c>
       <c r="F18">
-        <v>0.7753240190410959</v>
+        <v>0.21852547</v>
       </c>
       <c r="G18">
-        <v>1.168721121643835</v>
+        <v>1.6505978</v>
       </c>
       <c r="H18">
-        <v>1.168721121643835</v>
+        <v>1.6505978</v>
       </c>
       <c r="I18">
-        <v>1.168721121643835</v>
+        <v>1.6505978</v>
       </c>
       <c r="J18">
-        <v>0.9600083889041096</v>
+        <v>0.80860235</v>
       </c>
       <c r="K18">
-        <v>1.069241086575343</v>
+        <v>1.3164403</v>
       </c>
       <c r="L18">
-        <v>1.063053269863014</v>
+        <v>1.242613</v>
       </c>
       <c r="M18">
-        <v>0.8618378690410959</v>
+        <v>0.45448393</v>
       </c>
       <c r="N18">
-        <v>1.168721121643835</v>
+        <v>1.6505978</v>
       </c>
       <c r="O18">
-        <v>1.02806814260274</v>
+        <v>1.1468171</v>
       </c>
       <c r="P18">
-        <v>0.9016960808219179</v>
+        <v>0.6826712850000001</v>
       </c>
       <c r="Q18">
-        <v>0.9940382657534247</v>
+        <v>0.977709725</v>
       </c>
       <c r="R18">
-        <v>0.990704427762557</v>
+        <v>1.005313456666667</v>
       </c>
       <c r="S18">
-        <v>0.9211335168493151</v>
+        <v>0.7246483066666668</v>
       </c>
       <c r="T18">
-        <v>0.990704427762557</v>
+        <v>1.005313456666667</v>
       </c>
       <c r="U18">
-        <v>0.9830304180479451</v>
+        <v>0.95613568</v>
       </c>
       <c r="V18">
-        <v>1.020168558767123</v>
+        <v>1.095028104</v>
       </c>
       <c r="W18">
-        <v>0.9851775237671233</v>
+        <v>0.95140083375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.5726272631578946</v>
+        <v>0.8289069100000001</v>
       </c>
       <c r="D19">
-        <v>0.9705775142105266</v>
+        <v>0.90458591</v>
       </c>
       <c r="E19">
-        <v>1.170707226315789</v>
+        <v>0.88507895</v>
       </c>
       <c r="F19">
-        <v>0.5726272631578946</v>
+        <v>0.8289069100000001</v>
       </c>
       <c r="G19">
-        <v>1.141484488421053</v>
+        <v>1.3252711</v>
       </c>
       <c r="H19">
-        <v>1.141484488421053</v>
+        <v>1.3252711</v>
       </c>
       <c r="I19">
-        <v>1.141484488421053</v>
+        <v>1.3252711</v>
       </c>
       <c r="J19">
-        <v>0.9219627968421052</v>
+        <v>0.97535277</v>
       </c>
       <c r="K19">
-        <v>1.155629747368421</v>
+        <v>1.0236192</v>
       </c>
       <c r="L19">
-        <v>1.065028971578947</v>
+        <v>1.1085808</v>
       </c>
       <c r="M19">
-        <v>0.7443123710526317</v>
+        <v>0.8920136</v>
       </c>
       <c r="N19">
-        <v>1.141484488421053</v>
+        <v>1.3252711</v>
       </c>
       <c r="O19">
-        <v>1.170707226315789</v>
+        <v>0.88507895</v>
       </c>
       <c r="P19">
-        <v>0.8716672447368419</v>
+        <v>0.8569929300000001</v>
       </c>
       <c r="Q19">
-        <v>1.046335011578947</v>
+        <v>0.93021586</v>
       </c>
       <c r="R19">
-        <v>0.9616063259649121</v>
+        <v>1.013085653333333</v>
       </c>
       <c r="S19">
-        <v>0.8884324287719297</v>
+        <v>0.89644621</v>
       </c>
       <c r="T19">
-        <v>0.9616063259649121</v>
+        <v>1.013085653333333</v>
       </c>
       <c r="U19">
-        <v>0.9516954436842104</v>
+        <v>1.0036524325</v>
       </c>
       <c r="V19">
-        <v>0.9896532526315788</v>
+        <v>1.067976166</v>
       </c>
       <c r="W19">
-        <v>0.9677912973684211</v>
+        <v>0.9929261549999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6430828315789473</v>
+        <v>0.7753240190410959</v>
       </c>
       <c r="D20">
-        <v>0.9397761763157897</v>
+        <v>0.9551662924657534</v>
       </c>
       <c r="E20">
-        <v>1.105817133157895</v>
+        <v>1.02806814260274</v>
       </c>
       <c r="F20">
-        <v>0.6430828315789473</v>
+        <v>0.7753240190410959</v>
       </c>
       <c r="G20">
-        <v>1.217488583684211</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="H20">
-        <v>1.217488583684211</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="I20">
-        <v>1.217488583684211</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="J20">
-        <v>0.9198625594736843</v>
+        <v>0.9600083889041096</v>
       </c>
       <c r="K20">
-        <v>1.13523858368421</v>
+        <v>1.069241086575343</v>
       </c>
       <c r="L20">
-        <v>1.07720468368421</v>
+        <v>1.063053269863014</v>
       </c>
       <c r="M20">
-        <v>0.7694709515789473</v>
+        <v>0.8618378690410959</v>
       </c>
       <c r="N20">
-        <v>1.217488583684211</v>
+        <v>1.168721121643835</v>
       </c>
       <c r="O20">
-        <v>1.105817133157895</v>
+        <v>1.02806814260274</v>
       </c>
       <c r="P20">
-        <v>0.8744499823684211</v>
+        <v>0.9016960808219179</v>
       </c>
       <c r="Q20">
-        <v>1.012839846315789</v>
+        <v>0.9940382657534247</v>
       </c>
       <c r="R20">
-        <v>0.9887961828070176</v>
+        <v>0.990704427762557</v>
       </c>
       <c r="S20">
-        <v>0.8895875080701755</v>
+        <v>0.9211335168493151</v>
       </c>
       <c r="T20">
-        <v>0.9887961828070176</v>
+        <v>0.990704427762557</v>
       </c>
       <c r="U20">
-        <v>0.9715627769736843</v>
+        <v>0.9830304180479451</v>
       </c>
       <c r="V20">
-        <v>1.02074793831579</v>
+        <v>1.020168558767123</v>
       </c>
       <c r="W20">
-        <v>0.9759926878947369</v>
+        <v>0.9851775237671233</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8445659783132421</v>
+        <v>0.5726272631578946</v>
       </c>
       <c r="D21">
-        <v>1.102998032050638</v>
+        <v>0.9705775142105266</v>
       </c>
       <c r="E21">
-        <v>1.235985338522868</v>
+        <v>1.170707226315789</v>
       </c>
       <c r="F21">
-        <v>0.8445659783132421</v>
+        <v>0.5726272631578946</v>
       </c>
       <c r="G21">
-        <v>0.7379786888945049</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="H21">
-        <v>0.7379786888945049</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="I21">
-        <v>0.7379786888945049</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="J21">
-        <v>0.9839821906681218</v>
+        <v>0.9219627968421052</v>
       </c>
       <c r="K21">
-        <v>1.073049922215758</v>
+        <v>1.155629747368421</v>
       </c>
       <c r="L21">
-        <v>0.9254025488209471</v>
+        <v>1.065028971578947</v>
       </c>
       <c r="M21">
-        <v>0.9399267206819536</v>
+        <v>0.7443123710526317</v>
       </c>
       <c r="N21">
-        <v>0.7379786888945049</v>
+        <v>1.141484488421053</v>
       </c>
       <c r="O21">
-        <v>1.235985338522868</v>
+        <v>1.170707226315789</v>
       </c>
       <c r="P21">
-        <v>1.040275658418055</v>
+        <v>0.8716672447368419</v>
       </c>
       <c r="Q21">
-        <v>1.109983764595495</v>
+        <v>1.046335011578947</v>
       </c>
       <c r="R21">
-        <v>0.9395100019102051</v>
+        <v>0.9616063259649121</v>
       </c>
       <c r="S21">
-        <v>1.021511169168077</v>
+        <v>0.8884324287719297</v>
       </c>
       <c r="T21">
-        <v>0.9395100019102051</v>
+        <v>0.9616063259649121</v>
       </c>
       <c r="U21">
-        <v>0.9506280490996842</v>
+        <v>0.9516954436842104</v>
       </c>
       <c r="V21">
-        <v>0.9080981770586483</v>
+        <v>0.9896532526315788</v>
       </c>
       <c r="W21">
-        <v>0.9804861775210042</v>
+        <v>0.9677912973684211</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.072876860616356</v>
+        <v>0.6430828315789473</v>
       </c>
       <c r="D22">
-        <v>0.9527956891369612</v>
+        <v>0.9397761763157897</v>
       </c>
       <c r="E22">
-        <v>0.9056786444844415</v>
+        <v>1.105817133157895</v>
       </c>
       <c r="F22">
-        <v>1.072876860616356</v>
+        <v>0.6430828315789473</v>
       </c>
       <c r="G22">
-        <v>1.103631212172284</v>
+        <v>1.217488583684211</v>
       </c>
       <c r="H22">
-        <v>1.103631212172284</v>
+        <v>1.217488583684211</v>
       </c>
       <c r="I22">
-        <v>1.103631212172284</v>
+        <v>1.217488583684211</v>
       </c>
       <c r="J22">
-        <v>1.005100256857532</v>
+        <v>0.9198625594736843</v>
       </c>
       <c r="K22">
-        <v>0.9735915800598406</v>
+        <v>1.13523858368421</v>
       </c>
       <c r="L22">
-        <v>1.031499836247014</v>
+        <v>1.07720468368421</v>
       </c>
       <c r="M22">
-        <v>1.024775151575367</v>
+        <v>0.7694709515789473</v>
       </c>
       <c r="N22">
-        <v>1.103631212172284</v>
+        <v>1.217488583684211</v>
       </c>
       <c r="O22">
-        <v>0.9056786444844415</v>
+        <v>1.105817133157895</v>
       </c>
       <c r="P22">
-        <v>0.9892777525503986</v>
+        <v>0.8744499823684211</v>
       </c>
       <c r="Q22">
-        <v>0.9553894506709866</v>
+        <v>1.012839846315789</v>
       </c>
       <c r="R22">
-        <v>1.02739557242436</v>
+        <v>0.9887961828070176</v>
       </c>
       <c r="S22">
-        <v>0.9945519206527763</v>
+        <v>0.8895875080701755</v>
       </c>
       <c r="T22">
-        <v>1.02739557242436</v>
+        <v>0.9887961828070176</v>
       </c>
       <c r="U22">
-        <v>1.021821743532653</v>
+        <v>0.9715627769736843</v>
       </c>
       <c r="V22">
-        <v>1.038183637260579</v>
+        <v>1.02074793831579</v>
       </c>
       <c r="W22">
-        <v>1.008743653893724</v>
+        <v>0.9759926878947369</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.187895999628548</v>
+        <v>0.8445659783132421</v>
       </c>
       <c r="D23">
-        <v>0.989822568258243</v>
+        <v>1.102998032050638</v>
       </c>
       <c r="E23">
-        <v>0.8904628111246038</v>
+        <v>1.235985338522868</v>
       </c>
       <c r="F23">
-        <v>1.187895999628548</v>
+        <v>0.8445659783132421</v>
       </c>
       <c r="G23">
-        <v>1.000696487827281</v>
+        <v>0.7379786888945049</v>
       </c>
       <c r="H23">
-        <v>1.000696487827281</v>
+        <v>0.7379786888945049</v>
       </c>
       <c r="I23">
-        <v>1.000696487827281</v>
+        <v>0.7379786888945049</v>
       </c>
       <c r="J23">
-        <v>1.031602234943925</v>
+        <v>0.9839821906681218</v>
       </c>
       <c r="K23">
-        <v>0.9286602896621625</v>
+        <v>1.073049922215758</v>
       </c>
       <c r="L23">
-        <v>0.9913094303869343</v>
+        <v>0.9254025488209471</v>
       </c>
       <c r="M23">
-        <v>1.105379758158648</v>
+        <v>0.9399267206819536</v>
       </c>
       <c r="N23">
-        <v>1.000696487827281</v>
+        <v>0.7379786888945049</v>
       </c>
       <c r="O23">
-        <v>0.8904628111246038</v>
+        <v>1.235985338522868</v>
       </c>
       <c r="P23">
-        <v>1.039179405376576</v>
+        <v>1.040275658418055</v>
       </c>
       <c r="Q23">
-        <v>0.9610325230342642</v>
+        <v>1.109983764595495</v>
       </c>
       <c r="R23">
-        <v>1.026351766193477</v>
+        <v>0.9395100019102051</v>
       </c>
       <c r="S23">
-        <v>1.036653681899025</v>
+        <v>1.021511169168077</v>
       </c>
       <c r="T23">
-        <v>1.026351766193477</v>
+        <v>0.9395100019102051</v>
       </c>
       <c r="U23">
-        <v>1.027664383381089</v>
+        <v>0.9506280490996842</v>
       </c>
       <c r="V23">
-        <v>1.022270804270327</v>
+        <v>0.9080981770586483</v>
       </c>
       <c r="W23">
-        <v>1.015728697498793</v>
+        <v>0.9804861775210042</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001865010045255</v>
+        <v>1.072876860616356</v>
       </c>
       <c r="D24">
-        <v>1.026113629659578</v>
+        <v>0.9527956891369612</v>
       </c>
       <c r="E24">
-        <v>1.020952847632634</v>
+        <v>0.9056786444844415</v>
       </c>
       <c r="F24">
-        <v>1.001865010045255</v>
+        <v>1.072876860616356</v>
       </c>
       <c r="G24">
-        <v>0.9437532556325959</v>
+        <v>1.103631212172284</v>
       </c>
       <c r="H24">
-        <v>0.9437532556325959</v>
+        <v>1.103631212172284</v>
       </c>
       <c r="I24">
-        <v>0.9437532556325959</v>
+        <v>1.103631212172284</v>
       </c>
       <c r="J24">
-        <v>1.007542000787464</v>
+        <v>1.005100256857532</v>
       </c>
       <c r="K24">
-        <v>0.9936918599102522</v>
+        <v>0.9735915800598406</v>
       </c>
       <c r="L24">
-        <v>0.9811122009441192</v>
+        <v>1.031499836247014</v>
       </c>
       <c r="M24">
-        <v>1.013551388376755</v>
+        <v>1.024775151575367</v>
       </c>
       <c r="N24">
-        <v>0.9437532556325959</v>
+        <v>1.103631212172284</v>
       </c>
       <c r="O24">
-        <v>1.020952847632634</v>
+        <v>0.9056786444844415</v>
       </c>
       <c r="P24">
-        <v>1.011408928838944</v>
+        <v>0.9892777525503986</v>
       </c>
       <c r="Q24">
-        <v>1.014247424210049</v>
+        <v>0.9553894506709866</v>
       </c>
       <c r="R24">
-        <v>0.9888570377701615</v>
+        <v>1.02739557242436</v>
       </c>
       <c r="S24">
-        <v>1.010119952821784</v>
+        <v>0.9945519206527763</v>
       </c>
       <c r="T24">
-        <v>0.9888570377701614</v>
+        <v>1.02739557242436</v>
       </c>
       <c r="U24">
-        <v>0.993528278524487</v>
+        <v>1.021821743532653</v>
       </c>
       <c r="V24">
-        <v>0.9835732739461088</v>
+        <v>1.038183637260579</v>
       </c>
       <c r="W24">
-        <v>0.9985727741235815</v>
+        <v>1.008743653893724</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.109005511854211</v>
+        <v>1.187895999628548</v>
       </c>
       <c r="D25">
-        <v>0.9548936614192146</v>
+        <v>0.989822568258243</v>
       </c>
       <c r="E25">
-        <v>0.8698305208771517</v>
+        <v>0.8904628111246038</v>
       </c>
       <c r="F25">
-        <v>1.109005511854211</v>
+        <v>1.187895999628548</v>
       </c>
       <c r="G25">
-        <v>1.113951959080479</v>
+        <v>1.000696487827281</v>
       </c>
       <c r="H25">
-        <v>1.113951959080479</v>
+        <v>1.000696487827281</v>
       </c>
       <c r="I25">
-        <v>1.113951959080479</v>
+        <v>1.000696487827281</v>
       </c>
       <c r="J25">
-        <v>1.015975250433476</v>
+        <v>1.031602234943925</v>
       </c>
       <c r="K25">
-        <v>0.9492733421634566</v>
+        <v>0.9286602896621625</v>
       </c>
       <c r="L25">
-        <v>1.030670291493955</v>
+        <v>0.9913094303869343</v>
       </c>
       <c r="M25">
-        <v>1.051428623972293</v>
+        <v>1.105379758158648</v>
       </c>
       <c r="N25">
-        <v>1.113951959080479</v>
+        <v>1.000696487827281</v>
       </c>
       <c r="O25">
-        <v>0.8698305208771517</v>
+        <v>0.8904628111246038</v>
       </c>
       <c r="P25">
-        <v>0.9894180163656812</v>
+        <v>1.039179405376576</v>
       </c>
       <c r="Q25">
-        <v>0.9429028856553137</v>
+        <v>0.9610325230342642</v>
       </c>
       <c r="R25">
-        <v>1.030929330603947</v>
+        <v>1.026351766193477</v>
       </c>
       <c r="S25">
-        <v>0.9982704277216126</v>
+        <v>1.036653681899025</v>
       </c>
       <c r="T25">
-        <v>1.030929330603947</v>
+        <v>1.026351766193477</v>
       </c>
       <c r="U25">
-        <v>1.027190810561329</v>
+        <v>1.027664383381089</v>
       </c>
       <c r="V25">
-        <v>1.044543040265159</v>
+        <v>1.022270804270327</v>
       </c>
       <c r="W25">
-        <v>1.011878645161779</v>
+        <v>1.015728697498793</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.975665075282191</v>
+        <v>1.001865010045255</v>
       </c>
       <c r="D26">
-        <v>1.02285522193058</v>
+        <v>1.026113629659578</v>
       </c>
       <c r="E26">
-        <v>1.047162307776834</v>
+        <v>1.020952847632634</v>
       </c>
       <c r="F26">
-        <v>0.975665075282191</v>
+        <v>1.001865010045255</v>
       </c>
       <c r="G26">
-        <v>0.9392558632728824</v>
+        <v>0.9437532556325959</v>
       </c>
       <c r="H26">
-        <v>0.9392558632728824</v>
+        <v>0.9437532556325959</v>
       </c>
       <c r="I26">
-        <v>0.9392558632728824</v>
+        <v>0.9437532556325959</v>
       </c>
       <c r="J26">
-        <v>0.9985859047329304</v>
+        <v>1.007542000787464</v>
       </c>
       <c r="K26">
-        <v>1.012457872582504</v>
+        <v>0.9936918599102522</v>
       </c>
       <c r="L26">
-        <v>0.9826684138370345</v>
+        <v>0.9811122009441192</v>
       </c>
       <c r="M26">
-        <v>0.9927081640528227</v>
+        <v>1.013551388376755</v>
       </c>
       <c r="N26">
-        <v>0.9392558632728824</v>
+        <v>0.9437532556325959</v>
       </c>
       <c r="O26">
-        <v>1.047162307776834</v>
+        <v>1.020952847632634</v>
       </c>
       <c r="P26">
-        <v>1.011413691529513</v>
+        <v>1.011408928838944</v>
       </c>
       <c r="Q26">
-        <v>1.022874106254882</v>
+        <v>1.014247424210049</v>
       </c>
       <c r="R26">
-        <v>0.9873610821106359</v>
+        <v>0.9888570377701615</v>
       </c>
       <c r="S26">
-        <v>1.007137762597319</v>
+        <v>1.010119952821784</v>
       </c>
       <c r="T26">
-        <v>0.9873610821106359</v>
+        <v>0.9888570377701614</v>
       </c>
       <c r="U26">
-        <v>0.9901672877662095</v>
+        <v>0.993528278524487</v>
       </c>
       <c r="V26">
-        <v>0.9799850028675442</v>
+        <v>0.9835732739461088</v>
       </c>
       <c r="W26">
-        <v>0.9964198529334725</v>
+        <v>0.9985727741235815</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9809057383080932</v>
+        <v>1.109005511854211</v>
       </c>
       <c r="D27">
-        <v>0.9908686932234418</v>
+        <v>0.9548936614192146</v>
       </c>
       <c r="E27">
-        <v>1.014617426058764</v>
+        <v>0.8698305208771517</v>
       </c>
       <c r="F27">
-        <v>0.9809057383080932</v>
+        <v>1.109005511854211</v>
       </c>
       <c r="G27">
-        <v>1.028373192844969</v>
+        <v>1.113951959080479</v>
       </c>
       <c r="H27">
-        <v>1.028373192844969</v>
+        <v>1.113951959080479</v>
       </c>
       <c r="I27">
-        <v>1.028373192844969</v>
+        <v>1.113951959080479</v>
       </c>
       <c r="J27">
-        <v>0.9844898415946287</v>
+        <v>1.015975250433476</v>
       </c>
       <c r="K27">
-        <v>1.016173737126464</v>
+        <v>0.9492733421634566</v>
       </c>
       <c r="L27">
-        <v>1.002823660076134</v>
+        <v>1.030670291493955</v>
       </c>
       <c r="M27">
-        <v>0.9781209489282335</v>
+        <v>1.051428623972293</v>
       </c>
       <c r="N27">
-        <v>1.028373192844969</v>
+        <v>1.113951959080479</v>
       </c>
       <c r="O27">
-        <v>1.014617426058764</v>
+        <v>0.8698305208771517</v>
       </c>
       <c r="P27">
-        <v>0.9977615821834285</v>
+        <v>0.9894180163656812</v>
       </c>
       <c r="Q27">
-        <v>0.9995536338266962</v>
+        <v>0.9429028856553137</v>
       </c>
       <c r="R27">
-        <v>1.007965452403942</v>
+        <v>1.030929330603947</v>
       </c>
       <c r="S27">
-        <v>0.9933376686538286</v>
+        <v>0.9982704277216126</v>
       </c>
       <c r="T27">
-        <v>1.007965452403942</v>
+        <v>1.030929330603947</v>
       </c>
       <c r="U27">
-        <v>1.002096549701614</v>
+        <v>1.027190810561329</v>
       </c>
       <c r="V27">
-        <v>1.007351878330285</v>
+        <v>1.044543040265159</v>
       </c>
       <c r="W27">
-        <v>0.999546654770091</v>
+        <v>1.011878645161779</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.972468383476443</v>
+        <v>0.975665075282191</v>
       </c>
       <c r="D28">
-        <v>0.9883221638842656</v>
+        <v>1.02285522193058</v>
       </c>
       <c r="E28">
-        <v>1.00124129421558</v>
+        <v>1.047162307776834</v>
       </c>
       <c r="F28">
-        <v>0.972468383476443</v>
+        <v>0.975665075282191</v>
       </c>
       <c r="G28">
-        <v>1.038977528090733</v>
+        <v>0.9392558632728824</v>
       </c>
       <c r="H28">
-        <v>1.038977528090733</v>
+        <v>0.9392558632728824</v>
       </c>
       <c r="I28">
-        <v>1.038977528090733</v>
+        <v>0.9392558632728824</v>
       </c>
       <c r="J28">
-        <v>0.98986299460962</v>
+        <v>0.9985859047329304</v>
       </c>
       <c r="K28">
-        <v>1.01189402586126</v>
+        <v>1.012457872582504</v>
       </c>
       <c r="L28">
-        <v>1.008657639877527</v>
+        <v>0.9826684138370345</v>
       </c>
       <c r="M28">
-        <v>0.9798282123599636</v>
+        <v>0.9927081640528227</v>
       </c>
       <c r="N28">
-        <v>1.038977528090733</v>
+        <v>0.9392558632728824</v>
       </c>
       <c r="O28">
-        <v>1.00124129421558</v>
+        <v>1.047162307776834</v>
       </c>
       <c r="P28">
-        <v>0.9868548388460112</v>
+        <v>1.011413691529513</v>
       </c>
       <c r="Q28">
-        <v>0.9955521444125998</v>
+        <v>1.022874106254882</v>
       </c>
       <c r="R28">
-        <v>1.004229068594252</v>
+        <v>0.9873610821106359</v>
       </c>
       <c r="S28">
-        <v>0.9878575574338808</v>
+        <v>1.007137762597319</v>
       </c>
       <c r="T28">
-        <v>1.004229068594252</v>
+        <v>0.9873610821106359</v>
       </c>
       <c r="U28">
-        <v>1.000637550098094</v>
+        <v>0.9901672877662095</v>
       </c>
       <c r="V28">
-        <v>1.008305545696622</v>
+        <v>0.9799850028675442</v>
       </c>
       <c r="W28">
-        <v>0.998906530296924</v>
+        <v>0.9964198529334725</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9809057383080932</v>
+      </c>
+      <c r="D29">
+        <v>0.9908686932234418</v>
+      </c>
+      <c r="E29">
+        <v>1.014617426058764</v>
+      </c>
+      <c r="F29">
+        <v>0.9809057383080932</v>
+      </c>
+      <c r="G29">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="H29">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="I29">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="J29">
+        <v>0.9844898415946287</v>
+      </c>
+      <c r="K29">
+        <v>1.016173737126464</v>
+      </c>
+      <c r="L29">
+        <v>1.002823660076134</v>
+      </c>
+      <c r="M29">
+        <v>0.9781209489282335</v>
+      </c>
+      <c r="N29">
+        <v>1.028373192844969</v>
+      </c>
+      <c r="O29">
+        <v>1.014617426058764</v>
+      </c>
+      <c r="P29">
+        <v>0.9977615821834285</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995536338266962</v>
+      </c>
+      <c r="R29">
+        <v>1.007965452403942</v>
+      </c>
+      <c r="S29">
+        <v>0.9933376686538286</v>
+      </c>
+      <c r="T29">
+        <v>1.007965452403942</v>
+      </c>
+      <c r="U29">
+        <v>1.002096549701614</v>
+      </c>
+      <c r="V29">
+        <v>1.007351878330285</v>
+      </c>
+      <c r="W29">
+        <v>0.999546654770091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.972468383476443</v>
+      </c>
+      <c r="D30">
+        <v>0.9883221638842656</v>
+      </c>
+      <c r="E30">
+        <v>1.00124129421558</v>
+      </c>
+      <c r="F30">
+        <v>0.972468383476443</v>
+      </c>
+      <c r="G30">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="H30">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="I30">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="J30">
+        <v>0.98986299460962</v>
+      </c>
+      <c r="K30">
+        <v>1.01189402586126</v>
+      </c>
+      <c r="L30">
+        <v>1.008657639877527</v>
+      </c>
+      <c r="M30">
+        <v>0.9798282123599636</v>
+      </c>
+      <c r="N30">
+        <v>1.038977528090733</v>
+      </c>
+      <c r="O30">
+        <v>1.00124129421558</v>
+      </c>
+      <c r="P30">
+        <v>0.9868548388460112</v>
+      </c>
+      <c r="Q30">
+        <v>0.9955521444125998</v>
+      </c>
+      <c r="R30">
+        <v>1.004229068594252</v>
+      </c>
+      <c r="S30">
+        <v>0.9878575574338808</v>
+      </c>
+      <c r="T30">
+        <v>1.004229068594252</v>
+      </c>
+      <c r="U30">
+        <v>1.000637550098094</v>
+      </c>
+      <c r="V30">
+        <v>1.008305545696622</v>
+      </c>
+      <c r="W30">
+        <v>0.998906530296924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.083615980229904</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9916034249269916</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9114000509143481</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.083615980229904</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.021966214789055</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.021966214789055</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.021966214789055</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.028137405539169</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.951133377140954</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.006752595585499</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.060624855465517</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.021966214789055</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9114000509143481</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9975080155721259</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9697687282267587</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.005660748644436</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.007717812227807</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.005660748644436</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.011279912868119</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.013417173252307</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.00690423807393</v>
       </c>
     </row>
